--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross1.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross1.xlsx
@@ -582,85 +582,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0004362065264805057</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.001773906541020723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.005899173977164935</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.001501104364142439</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.003212695687094518</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.001460945668053757</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00159388479993353</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.003963247869165738</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0014941804510237</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0009291891405346646</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.005076613098658838</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01025154576360376</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00479411744341432</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007562297908285847</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001062128272414438</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.004008945695749409</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.005012913097966447</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00658741094116751</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.007286726166160067</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0006674652246463611</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0005456043537565691</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.001721284801318313</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.0005636065278652884</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.001463715233301252</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.001164602186571763</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.0002991130467294896</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.000297728264105742</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.0007796326171699197</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002733560899277836</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.001232456535135397</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.21565219799622E-05</v>
       </c>
       <c r="D3">
-        <v>0.0004357648087407504</v>
+        <v>7.616304430612005E-05</v>
       </c>
       <c r="E3">
-        <v>0.001772110222212385</v>
+        <v>9.693478366233461E-06</v>
       </c>
       <c r="F3">
-        <v>0.006016321121312773</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="G3">
-        <v>0.001583970495263997</v>
+        <v>0.002584004375913091</v>
       </c>
       <c r="H3">
-        <v>0.003230193106062388</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001459466264195211</v>
+        <v>2.908043509870038E-05</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.938695673246692E-05</v>
       </c>
       <c r="K3">
-        <v>0.00159227077733525</v>
+        <v>0.001106441316374362</v>
       </c>
       <c r="L3">
-        <v>0.003959234547987389</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.00149405077282543</v>
+        <v>0.0001066282620285681</v>
       </c>
       <c r="N3">
-        <v>0.0009282482116350588</v>
+        <v>0.001240765230877883</v>
       </c>
       <c r="O3">
-        <v>0.005071472345535209</v>
+        <v>4.569782658367203E-05</v>
       </c>
       <c r="P3">
-        <v>0.01024116469558024</v>
+        <v>0.000343426090689414</v>
       </c>
       <c r="Q3">
-        <v>0.004789262755112628</v>
+        <v>0.002402597852202151</v>
       </c>
       <c r="R3">
-        <v>0.007554640065184882</v>
+        <v>2.492608722745747E-05</v>
       </c>
       <c r="S3">
-        <v>0.001063819485465514</v>
+        <v>0.001550956538597354</v>
       </c>
       <c r="T3">
-        <v>0.004009036240414904</v>
+        <v>0.000217410871928379</v>
       </c>
       <c r="U3">
-        <v>0.005007836849655607</v>
+        <v>2.21565219799622E-05</v>
       </c>
       <c r="V3">
-        <v>0.006591807344919605</v>
+        <v>0.001210300013155435</v>
       </c>
       <c r="W3">
-        <v>0.007297331320976058</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="X3">
-        <v>0.0006667893263906085</v>
+        <v>4.292826133617675E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0005450518560122401</v>
+        <v>1.523260886122401E-05</v>
       </c>
       <c r="Z3">
-        <v>0.001719541769094453</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0005630358004999537</v>
+        <v>3.877391346493384E-05</v>
       </c>
       <c r="AB3">
-        <v>0.001470533306956881</v>
+        <v>0.0003018826119769849</v>
       </c>
       <c r="AC3">
-        <v>0.00116618963101096</v>
+        <v>0.0001634043496022212</v>
       </c>
       <c r="AD3">
-        <v>0.000298810154565086</v>
+        <v>0.003160073947392108</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0003531195690556475</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.631086985120511E-05</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>8.862608791984878E-05</v>
       </c>
       <c r="AH3">
-        <v>0.0002974267742198772</v>
+        <v>0.0002561847853933129</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007788431343525157</v>
+        <v>0.007927880520955223</v>
       </c>
       <c r="C4">
-        <v>0.002762610549381836</v>
+        <v>0.0003074217424719754</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0005760695714790171</v>
       </c>
       <c r="E4">
-        <v>0.001231208507235771</v>
+        <v>0.0005871478324689981</v>
       </c>
       <c r="F4">
-        <v>2.21340855233397E-05</v>
+        <v>0.0007810173997936674</v>
       </c>
       <c r="G4">
-        <v>7.608591898648022E-05</v>
+        <v>0.006576332680177529</v>
       </c>
       <c r="H4">
-        <v>9.683662416461119E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.351746586854843E-05</v>
+        <v>9.001087054359643E-05</v>
       </c>
       <c r="J4">
-        <v>0.002581387724159493</v>
+        <v>0.0005414500058853261</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.004341293525448843</v>
       </c>
       <c r="L4">
-        <v>2.905098724938336E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="M4">
-        <v>1.936732483292224E-05</v>
+        <v>0.001111980446869353</v>
       </c>
       <c r="N4">
-        <v>0.001106704276166985</v>
+        <v>0.001117519577364343</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0004874434835591683</v>
       </c>
       <c r="P4">
-        <v>0.0001065202865810723</v>
+        <v>0.001718515236070818</v>
       </c>
       <c r="Q4">
-        <v>0.001239508789307023</v>
+        <v>0.008031739217736296</v>
       </c>
       <c r="R4">
-        <v>4.565155139188814E-05</v>
+        <v>0.001053819576671952</v>
       </c>
       <c r="S4">
-        <v>0.0003430783256117654</v>
+        <v>0.0011133652294931</v>
       </c>
       <c r="T4">
-        <v>0.002400164898937149</v>
+        <v>0.003208541339223275</v>
       </c>
       <c r="U4">
-        <v>2.490084621375716E-05</v>
+        <v>0.001048280446176961</v>
       </c>
       <c r="V4">
-        <v>0.001549385986633779</v>
+        <v>0.001021969576325756</v>
       </c>
       <c r="W4">
-        <v>0.0002171907141977708</v>
+        <v>4.985217445491494E-05</v>
       </c>
       <c r="X4">
-        <v>2.21340855233397E-05</v>
+        <v>0.0001675586974734641</v>
       </c>
       <c r="Y4">
-        <v>0.001209074421712431</v>
+        <v>0.0001370934797510161</v>
       </c>
       <c r="Z4">
-        <v>4.150141035626194E-06</v>
+        <v>0.0002478760896508271</v>
       </c>
       <c r="AA4">
-        <v>4.288479070147067E-05</v>
+        <v>0.001156293490829277</v>
       </c>
       <c r="AB4">
-        <v>1.521718379729604E-05</v>
+        <v>2.077173935621456E-05</v>
       </c>
       <c r="AC4">
-        <v>2.351746586854843E-05</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="AD4">
-        <v>3.873464966584448E-05</v>
+        <v>0.00335809786258802</v>
       </c>
       <c r="AE4">
-        <v>0.0003015769152555035</v>
+        <v>0.0001246304361372873</v>
       </c>
       <c r="AF4">
-        <v>0.0001632388807346303</v>
+        <v>0.0001661739148497165</v>
       </c>
       <c r="AG4">
-        <v>0.003156873947766325</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="AH4">
-        <v>0.0003527619880282265</v>
+        <v>0.0003600434821743857</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,103 +894,103 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.628422655896589E-05</v>
+        <v>0.001883304368296787</v>
       </c>
       <c r="C5">
-        <v>8.85363420933588E-05</v>
+        <v>2.908043509870038E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002559253638636153</v>
+        <v>9.278043579109169E-05</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.21565219799622E-05</v>
       </c>
       <c r="F5">
-        <v>0.008044356707388773</v>
+        <v>0.0008918000096934783</v>
       </c>
       <c r="G5">
-        <v>0.0003071104366363383</v>
+        <v>0.0004666717442029538</v>
       </c>
       <c r="H5">
-        <v>0.0005754862236068322</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005879366467137109</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="J5">
-        <v>0.0007802265146977245</v>
+        <v>2.492608722745747E-05</v>
       </c>
       <c r="K5">
-        <v>0.0065752067807771</v>
+        <v>0.0009818108802370747</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.991972243856754E-05</v>
+        <v>0.0001827913063346881</v>
       </c>
       <c r="N5">
-        <v>0.0005409017149766139</v>
+        <v>0.00128369349221406</v>
       </c>
       <c r="O5">
-        <v>0.004336897382229372</v>
+        <v>2.769565247495274E-05</v>
       </c>
       <c r="P5">
-        <v>1.383380345208731E-06</v>
+        <v>0.0003060369598482278</v>
       </c>
       <c r="Q5">
-        <v>0.001110854417202611</v>
+        <v>0.008552417484265407</v>
       </c>
       <c r="R5">
-        <v>0.001117771318928655</v>
+        <v>6.785434856363422E-05</v>
       </c>
       <c r="S5">
-        <v>0.0004883332618586822</v>
+        <v>0.001701897844585846</v>
       </c>
       <c r="T5">
-        <v>0.001716775008404036</v>
+        <v>0.0001080130446523157</v>
       </c>
       <c r="U5">
-        <v>0.008026372762901059</v>
+        <v>2.631086985120511E-05</v>
       </c>
       <c r="V5">
-        <v>0.001052752442703845</v>
+        <v>0.000797634791278639</v>
       </c>
       <c r="W5">
-        <v>0.00111223779754782</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003205292259848631</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="Y5">
-        <v>0.001051369062358636</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001020934694764044</v>
+        <v>2.631086985120511E-05</v>
       </c>
       <c r="AA5">
-        <v>4.980169242751433E-05</v>
+        <v>1.938695673246692E-05</v>
       </c>
       <c r="AB5">
-        <v>0.0001673890217702565</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001369546541756644</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AD5">
-        <v>0.0002476250817923629</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001155122588249291</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AF5">
-        <v>2.075070517813097E-05</v>
+        <v>1.523260886122401E-05</v>
       </c>
       <c r="AG5">
-        <v>2.766760690417463E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003354697337131173</v>
+        <v>4.154347871242912E-06</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0001245042310687858</v>
+        <v>0.005230323969894826</v>
       </c>
       <c r="C6">
-        <v>0.0001660056414250478</v>
+        <v>0.0001024739141573251</v>
       </c>
       <c r="D6">
-        <v>1.383380345208731E-05</v>
+        <v>0.001477563059538729</v>
       </c>
       <c r="E6">
-        <v>0.0003624456504446876</v>
+        <v>6.923913118738186E-05</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0001093978272760633</v>
       </c>
       <c r="G6">
-        <v>0.001881397269483875</v>
+        <v>0.005734384844938966</v>
       </c>
       <c r="H6">
-        <v>2.905098724938336E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.268648312898501E-05</v>
+        <v>0.0001010891315335775</v>
       </c>
       <c r="J6">
-        <v>2.21340855233397E-05</v>
+        <v>8.031739217736296E-05</v>
       </c>
       <c r="K6">
-        <v>0.000890896942314423</v>
+        <v>0.002916352205612524</v>
       </c>
       <c r="L6">
-        <v>0.0004689659370257599</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0004334369612330104</v>
       </c>
       <c r="N6">
-        <v>5.533521380834925E-06</v>
+        <v>0.0006813130508838375</v>
       </c>
       <c r="O6">
-        <v>2.490084621375716E-05</v>
+        <v>0.0001703282627209594</v>
       </c>
       <c r="P6">
-        <v>0.0009808166647529905</v>
+        <v>0.002095176109730175</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.004344063090696338</v>
       </c>
       <c r="R6">
-        <v>0.0001826062055675525</v>
+        <v>0.0003060369598482278</v>
       </c>
       <c r="S6">
-        <v>0.001401364289696445</v>
+        <v>0.001143830447215548</v>
       </c>
       <c r="T6">
-        <v>2.766760690417463E-05</v>
+        <v>0.0007630152256849481</v>
       </c>
       <c r="U6">
-        <v>0.0003057270562911296</v>
+        <v>0.0001550956538597354</v>
       </c>
       <c r="V6">
-        <v>0.008543757012009125</v>
+        <v>0.001856993498445582</v>
       </c>
       <c r="W6">
-        <v>6.778563691522784E-05</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="X6">
-        <v>0.001700174444261531</v>
+        <v>5.95456528211484E-05</v>
       </c>
       <c r="Y6">
-        <v>0.000107903666926281</v>
+        <v>0.000423743482866777</v>
       </c>
       <c r="Z6">
-        <v>2.628422655896589E-05</v>
+        <v>7.754782692986769E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0007968270788402292</v>
+        <v>9.831956628608224E-05</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>5.533521380834925E-06</v>
+        <v>3.73891308411862E-05</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0007353195732099953</v>
       </c>
       <c r="AE6">
-        <v>2.628422655896589E-05</v>
+        <v>0.0004098956566293006</v>
       </c>
       <c r="AF6">
-        <v>1.936732483292224E-05</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.046521772244802E-05</v>
       </c>
       <c r="AH6">
-        <v>1.383380345208731E-06</v>
+        <v>0.0003946630477680766</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,103 +1102,103 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0004971369619254018</v>
       </c>
       <c r="C7">
-        <v>1.383380345208731E-06</v>
+        <v>0.001962236977850402</v>
       </c>
       <c r="D7">
-        <v>1.521718379729604E-05</v>
+        <v>0.004633482659059594</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.003154534816897118</v>
       </c>
       <c r="F7">
-        <v>4.150141035626194E-06</v>
+        <v>0.0043080587424789</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.002086867413987689</v>
       </c>
       <c r="H7">
-        <v>0.005226410944198587</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0001023701455454461</v>
+        <v>0.001329391318797732</v>
       </c>
       <c r="J7">
-        <v>0.001478833589028134</v>
+        <v>0.002082713066116446</v>
       </c>
       <c r="K7">
-        <v>6.916901726043657E-05</v>
+        <v>0.001146600012463044</v>
       </c>
       <c r="L7">
-        <v>0.0001092870472714898</v>
+        <v>0.00249676307061699</v>
       </c>
       <c r="M7">
-        <v>0.005732728150544983</v>
+        <v>0.002675400029080435</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.007297804427150048</v>
       </c>
       <c r="O7">
-        <v>0.0001009867652002374</v>
+        <v>0.004508852222922307</v>
       </c>
       <c r="P7">
-        <v>8.023606002210642E-05</v>
+        <v>0.01032078489479114</v>
       </c>
       <c r="Q7">
-        <v>0.002914782387354797</v>
+        <v>0.001372319580133908</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.002888656553137571</v>
       </c>
       <c r="S7">
-        <v>0.0004329980480503329</v>
+        <v>0.008040047913478782</v>
       </c>
       <c r="T7">
-        <v>0.0006806231298426958</v>
+        <v>0.007350426166852458</v>
       </c>
       <c r="U7">
-        <v>0.000170155782460674</v>
+        <v>0.006374154417110374</v>
       </c>
       <c r="V7">
-        <v>0.00209305446230081</v>
+        <v>0.0007740934866749292</v>
       </c>
       <c r="W7">
-        <v>0.004339664142919791</v>
+        <v>0.0001689434800972118</v>
       </c>
       <c r="X7">
-        <v>0.0003057270562911296</v>
+        <v>0.0008239456611298441</v>
       </c>
       <c r="Y7">
-        <v>0.001142672165142412</v>
+        <v>0.000686852181378828</v>
       </c>
       <c r="Z7">
-        <v>0.0007622425702100109</v>
+        <v>0.001550956538597354</v>
       </c>
       <c r="AA7">
-        <v>0.0001549385986633779</v>
+        <v>0.0008654891398422733</v>
       </c>
       <c r="AB7">
-        <v>0.001855113042924909</v>
+        <v>0.0007353195732099953</v>
       </c>
       <c r="AC7">
-        <v>4.150141035626194E-06</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>5.948535484397545E-05</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.0004371481890859591</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>7.746929933168895E-05</v>
+        <v>0.0002201804371758743</v>
       </c>
       <c r="AG7">
-        <v>9.822000450981993E-05</v>
+        <v>0.000126015218761035</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.0003143456555907137</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1206,103 +1206,103 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.735126932063575E-05</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0007345749633058363</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0004108639625269932</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.106704276166985E-05</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3.043436759459209E-05</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0003942633983844884</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0004966335439299345</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001960249949160772</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.004632940776104042</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.003154107187075907</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.004305079634289572</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.002084754180229558</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.001328045131400382</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.002080604039193932</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.00114543892583283</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.002494234762411343</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.002672690826943269</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.007291797799595223</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.004507053164690047</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0103144838538763</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.001370929922101853</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.002885731400105414</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.00803743980566273</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.007347133013403572</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.006376000011067043</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0007733096129716808</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.0001687724021154652</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0008231113053991952</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.0006861566512235308</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.001550769366978988</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.0008646127157554571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1310,79 +1310,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0007345749633058363</v>
+        <v>0.00151772175562741</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.400652232615785E-05</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3.32347829699433E-05</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.492608722745747E-05</v>
       </c>
       <c r="F9">
-        <v>0.0002199574748881883</v>
+        <v>0.0009527304451383745</v>
       </c>
       <c r="G9">
-        <v>0.0001258876114139946</v>
+        <v>0.003585202212882633</v>
       </c>
       <c r="H9">
-        <v>0.000314027338362382</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.246304361372874E-05</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.001589730452062287</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0002160260893046314</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.077173935621456E-05</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.246304361372874E-05</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.001074591316028166</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>9.831956628608224E-05</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>5.539130494990549E-05</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.246304361372874E-05</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.0003032673946007325</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>4.292826133617675E-05</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>3.461956559369093E-05</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>8.308695742485824E-06</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1414,103 +1414,103 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.005710843540335256</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0001883304368296787</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.001222763056769164</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0003088065250957231</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.001127213055730577</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006785434856363422</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0001357086971272684</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0001135521751473063</v>
       </c>
       <c r="K10">
-        <v>0.00151618485834877</v>
+        <v>0.0008031739217736296</v>
       </c>
       <c r="L10">
-        <v>5.395183346314052E-05</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.320112828500955E-05</v>
+        <v>0.0002755717421257798</v>
       </c>
       <c r="N10">
-        <v>2.490084621375716E-05</v>
+        <v>0.0002548000027695652</v>
       </c>
       <c r="O10">
-        <v>0.0009517656775036072</v>
+        <v>0.0004777500051929348</v>
       </c>
       <c r="P10">
-        <v>0.003581571713745406</v>
+        <v>0.001714360888199575</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.001006736967464532</v>
       </c>
       <c r="R10">
-        <v>8.300282071252388E-06</v>
+        <v>0.0002506456548983223</v>
       </c>
       <c r="S10">
-        <v>1.245042310687858E-05</v>
+        <v>0.0003157304382144613</v>
       </c>
       <c r="T10">
-        <v>0.001588120636299624</v>
+        <v>0.0002326434807896031</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>8.17021748011106E-05</v>
       </c>
       <c r="V10">
-        <v>0.0002158073338525621</v>
+        <v>0.0004362065264805057</v>
       </c>
       <c r="W10">
-        <v>2.075070517813097E-05</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="X10">
-        <v>1.245042310687858E-05</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="Y10">
-        <v>0.001073503147881976</v>
+        <v>2.769565247495274E-05</v>
       </c>
       <c r="Z10">
-        <v>9.822000450981993E-05</v>
+        <v>0.0001066282620285681</v>
       </c>
       <c r="AA10">
-        <v>1.660056414250478E-05</v>
+        <v>2.631086985120511E-05</v>
       </c>
       <c r="AB10">
-        <v>1.106704276166985E-05</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>5.533521380834925E-05</v>
+        <v>2.769565247495274E-05</v>
       </c>
       <c r="AD10">
-        <v>1.245042310687858E-05</v>
+        <v>0.0005428347885090737</v>
       </c>
       <c r="AE10">
-        <v>0.0003029602956007122</v>
+        <v>0.0001121673925235586</v>
       </c>
       <c r="AF10">
-        <v>5.533521380834925E-06</v>
+        <v>2.077173935621456E-05</v>
       </c>
       <c r="AG10">
-        <v>2.766760690417463E-06</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AH10">
-        <v>4.150141035626194E-06</v>
+        <v>0.0002811108726207703</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1518,103 +1518,103 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.288479070147067E-05</v>
+        <v>0.0008585652267235351</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.001203376100036697</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.004450691352724906</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.001276769579095321</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.002621393506754277</v>
       </c>
       <c r="G11">
-        <v>3.458450863021829E-05</v>
+        <v>0.002937123944968738</v>
       </c>
       <c r="H11">
-        <v>8.300282071252388E-06</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0005331413101428403</v>
       </c>
       <c r="J11">
-        <v>8.300282071252388E-06</v>
+        <v>0.003427336993775402</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.002428908722053355</v>
       </c>
       <c r="L11">
-        <v>0.005705060543640808</v>
+        <v>0.002013473934929065</v>
       </c>
       <c r="M11">
-        <v>0.0001881397269483875</v>
+        <v>0.004619634832822118</v>
       </c>
       <c r="N11">
-        <v>0.00122152484481931</v>
+        <v>0.005744078323305199</v>
       </c>
       <c r="O11">
-        <v>0.0003084938169815471</v>
+        <v>0.003586586995506381</v>
       </c>
       <c r="P11">
-        <v>0.001126071600999907</v>
+        <v>0.006568023984435043</v>
       </c>
       <c r="Q11">
-        <v>0.0006778563691522783</v>
+        <v>0.002007934804434074</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.003376100036696739</v>
       </c>
       <c r="S11">
-        <v>0.0001355712738304557</v>
+        <v>0.002334743503638517</v>
       </c>
       <c r="T11">
-        <v>0.000113437188307116</v>
+        <v>0.00623013702424062</v>
       </c>
       <c r="U11">
-        <v>0.0008023606002210642</v>
+        <v>0.006144280501568266</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.0005733000062315218</v>
       </c>
       <c r="W11">
-        <v>0.0002752926886965375</v>
+        <v>0.000282495655244518</v>
       </c>
       <c r="X11">
-        <v>0.0002545419835184066</v>
+        <v>0.001980239151959121</v>
       </c>
       <c r="Y11">
-        <v>0.0004772662190970123</v>
+        <v>0.001287847840085303</v>
       </c>
       <c r="Z11">
-        <v>0.001712624867368409</v>
+        <v>0.003287473948776891</v>
       </c>
       <c r="AA11">
-        <v>0.001005717510966748</v>
+        <v>0.000660541311527623</v>
       </c>
       <c r="AB11">
-        <v>0.0002503918424827804</v>
+        <v>0.0003877391346493384</v>
       </c>
       <c r="AC11">
-        <v>0.0003154107187075907</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.0002324078979950669</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AE11">
-        <v>8.161944036731516E-05</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.0004357648087407504</v>
+        <v>0.000217410871928379</v>
       </c>
       <c r="AG11">
-        <v>1.106704276166985E-05</v>
+        <v>0.0004666717442029538</v>
       </c>
       <c r="AH11">
-        <v>5.533521380834925E-06</v>
+        <v>0.001866686976811815</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1622,103 +1622,103 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.766760690417463E-05</v>
+        <v>0.0002478760896508271</v>
       </c>
       <c r="C12">
-        <v>0.0001065202865810723</v>
+        <v>0.0004043565261343101</v>
       </c>
       <c r="D12">
-        <v>2.628422655896589E-05</v>
+        <v>0.0007685543561799387</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0004223587002430294</v>
       </c>
       <c r="F12">
-        <v>2.766760690417463E-05</v>
+        <v>0.0006480782679138943</v>
       </c>
       <c r="G12">
-        <v>0.0005422850953218227</v>
+        <v>0.0001232456535135397</v>
       </c>
       <c r="H12">
-        <v>0.0001120538079619072</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.075070517813097E-05</v>
+        <v>0.0001786369584634452</v>
       </c>
       <c r="J12">
-        <v>1.383380345208731E-06</v>
+        <v>0.0003060369598482278</v>
       </c>
       <c r="K12">
-        <v>0.0002808262100773725</v>
+        <v>0.0006771587030125946</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="M12">
-        <v>0.0008576958140294134</v>
+        <v>0.0009610391408808603</v>
       </c>
       <c r="N12">
-        <v>0.001202157519986388</v>
+        <v>0.0002894195683632562</v>
       </c>
       <c r="O12">
-        <v>0.004446184429500863</v>
+        <v>0.0005179087012816163</v>
       </c>
       <c r="P12">
-        <v>0.00127547667828245</v>
+        <v>0.001059358707166942</v>
       </c>
       <c r="Q12">
-        <v>0.002618738993480128</v>
+        <v>0.0005525282668753073</v>
       </c>
       <c r="R12">
-        <v>0.002934149712187719</v>
+        <v>0.001159063056076772</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.0003794304389068526</v>
       </c>
       <c r="T12">
-        <v>0.0005326014329053616</v>
+        <v>0.001730978279684547</v>
       </c>
       <c r="U12">
-        <v>0.00342386635439161</v>
+        <v>0.0008294847916248347</v>
       </c>
       <c r="V12">
-        <v>0.002426449125496115</v>
+        <v>0.0001911000020771739</v>
       </c>
       <c r="W12">
-        <v>0.002012818402278704</v>
+        <v>0.000110782609899811</v>
       </c>
       <c r="X12">
-        <v>0.004616340211961537</v>
+        <v>9.278043579109169E-05</v>
       </c>
       <c r="Y12">
-        <v>0.005741028432616235</v>
+        <v>0.0001204760882660444</v>
       </c>
       <c r="Z12">
-        <v>0.003582955094090614</v>
+        <v>0.0004334369612330104</v>
       </c>
       <c r="AA12">
-        <v>0.006565523118360639</v>
+        <v>0.0002409521765320889</v>
       </c>
       <c r="AB12">
-        <v>0.002005901500552661</v>
+        <v>1.246304361372874E-05</v>
       </c>
       <c r="AC12">
-        <v>0.003372681281618887</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>0.002332379262021921</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0.006223828173094082</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.006138058591691141</v>
+        <v>9.69347836623346E-05</v>
       </c>
       <c r="AG12">
-        <v>0.0005727194629164148</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="AH12">
-        <v>0.0002822095904225812</v>
+        <v>6.231521806864367E-05</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1726,103 +1726,103 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001978233893648486</v>
+        <v>0.007749243562491778</v>
       </c>
       <c r="C13">
-        <v>0.00128654372104412</v>
+        <v>0.0002104869588096409</v>
       </c>
       <c r="D13">
-        <v>0.003284144939525528</v>
+        <v>0.0008945695749409736</v>
       </c>
       <c r="E13">
-        <v>0.0006598724246645648</v>
+        <v>0.0001523260886122401</v>
       </c>
       <c r="F13">
-        <v>0.0003873464966584448</v>
+        <v>0.000217410871928379</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0009374978362771504</v>
       </c>
       <c r="H13">
-        <v>1.383380345208731E-06</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0001426326102460066</v>
       </c>
       <c r="J13">
-        <v>0.0002171907141977708</v>
+        <v>0.0002229500024233696</v>
       </c>
       <c r="K13">
-        <v>0.0004661991763353425</v>
+        <v>0.00516939353444993</v>
       </c>
       <c r="L13">
-        <v>0.00186479670534137</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0002478760896508271</v>
       </c>
       <c r="N13">
-        <v>0.0002476250817923629</v>
+        <v>0.001132752186225567</v>
       </c>
       <c r="O13">
-        <v>0.0004039470608009495</v>
+        <v>0.0001883304368296787</v>
       </c>
       <c r="P13">
-        <v>0.0007677760915908459</v>
+        <v>0.0008377934873673205</v>
       </c>
       <c r="Q13">
-        <v>0.0004219310052886631</v>
+        <v>0.01062266750676812</v>
       </c>
       <c r="R13">
-        <v>0.0006474220015576863</v>
+        <v>0.0004569782658367203</v>
       </c>
       <c r="S13">
-        <v>0.0001231208507235771</v>
+        <v>0.002398443504330908</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.0008765674008322544</v>
       </c>
       <c r="U13">
-        <v>0.0001784560645319263</v>
+        <v>0.001106441316374362</v>
       </c>
       <c r="V13">
-        <v>0.0003057270562911296</v>
+        <v>0.002258580459332396</v>
       </c>
       <c r="W13">
-        <v>0.0006764729888070697</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="X13">
-        <v>2.766760690417463E-06</v>
+        <v>3.046521772244802E-05</v>
       </c>
       <c r="Y13">
-        <v>0.0009600659595748595</v>
+        <v>0.0002658782637595464</v>
       </c>
       <c r="Z13">
-        <v>0.0002891264921486249</v>
+        <v>0.0001093978272760633</v>
       </c>
       <c r="AA13">
-        <v>0.0005173842491080655</v>
+        <v>4.154347871242912E-05</v>
       </c>
       <c r="AB13">
-        <v>0.001058285964084679</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.0005519687577382838</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.001159272729284917</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>0.0003790462145871924</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.001729225431510914</v>
+        <v>7.339347905862477E-05</v>
       </c>
       <c r="AG13">
-        <v>0.0008286448267800301</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="AH13">
-        <v>0.0001909064876388049</v>
+        <v>4.431304395992439E-05</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1830,103 +1830,103 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0001106704276166985</v>
+        <v>0.005863169628947496</v>
       </c>
       <c r="C14">
-        <v>9.268648312898501E-05</v>
+        <v>0.0003074217424719754</v>
       </c>
       <c r="D14">
-        <v>0.0001203540900331596</v>
+        <v>0.0009305739231584122</v>
       </c>
       <c r="E14">
-        <v>0.0004329980480503329</v>
+        <v>0.0003960478303918243</v>
       </c>
       <c r="F14">
-        <v>0.0002407081800663193</v>
+        <v>0.0003088065250957231</v>
       </c>
       <c r="G14">
-        <v>1.245042310687858E-05</v>
+        <v>0.005727460931820228</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0002991130467294896</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0002243347850471172</v>
       </c>
       <c r="K14">
-        <v>9.68366241646112E-05</v>
+        <v>0.009653319670144779</v>
       </c>
       <c r="L14">
-        <v>1.660056414250478E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="M14">
-        <v>6.225211553439291E-05</v>
+        <v>0.001003967402217037</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0005165239186578687</v>
       </c>
       <c r="O14">
-        <v>0.00774139641178806</v>
+        <v>0.0001883304368296787</v>
       </c>
       <c r="P14">
-        <v>0.0002102738124717272</v>
+        <v>0.001053819576671952</v>
       </c>
       <c r="Q14">
-        <v>0.0008950470833500491</v>
+        <v>0.007416895732792345</v>
       </c>
       <c r="R14">
-        <v>0.0001521718379729604</v>
+        <v>0.0007920956607836485</v>
       </c>
       <c r="S14">
-        <v>0.0002171907141977708</v>
+        <v>0.0001634043496022212</v>
       </c>
       <c r="T14">
-        <v>0.0009365484937063111</v>
+        <v>0.002392904373835917</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.0004223587002430294</v>
       </c>
       <c r="V14">
-        <v>0.0001424881755564993</v>
+        <v>0.001733747844932042</v>
       </c>
       <c r="W14">
-        <v>0.0002227242355786057</v>
+        <v>3.32347829699433E-05</v>
       </c>
       <c r="X14">
-        <v>0.005164158828664194</v>
+        <v>4.708260920741967E-05</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1.800217410871929E-05</v>
       </c>
       <c r="Z14">
-        <v>0.0002476250817923629</v>
+        <v>0.0003752760910356097</v>
       </c>
       <c r="AA14">
-        <v>0.001131605122380742</v>
+        <v>6.923913118738186E-05</v>
       </c>
       <c r="AB14">
-        <v>0.0001881397269483875</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="AC14">
-        <v>0.0008369451088512824</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AD14">
-        <v>0.0106146773887866</v>
+        <v>0.0007145478338537808</v>
       </c>
       <c r="AE14">
-        <v>0.0004565155139188814</v>
+        <v>0.005244171796132302</v>
       </c>
       <c r="AF14">
-        <v>0.002396014757901522</v>
+        <v>6.923913118738186E-05</v>
       </c>
       <c r="AG14">
-        <v>0.0008756797585171269</v>
+        <v>0.001074591316028166</v>
       </c>
       <c r="AH14">
-        <v>0.001105320895821776</v>
+        <v>0.001996856543444093</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -1934,103 +1934,103 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.002256293343035441</v>
+        <v>0.004355141351686319</v>
       </c>
       <c r="C15">
-        <v>1.660056414250478E-05</v>
+        <v>0.0006300760938051749</v>
       </c>
       <c r="D15">
-        <v>3.043436759459209E-05</v>
+        <v>0.0008862608791984878</v>
       </c>
       <c r="E15">
-        <v>0.0002656090262800764</v>
+        <v>0.0003669673952931239</v>
       </c>
       <c r="F15">
-        <v>0.0001092870472714898</v>
+        <v>0.0003946630477680766</v>
       </c>
       <c r="G15">
-        <v>4.150141035626194E-05</v>
+        <v>0.00441330222188372</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0001232456535135397</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0002755717421257798</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.004544856571139746</v>
       </c>
       <c r="L15">
-        <v>7.331915829606276E-05</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5.533521380834925E-06</v>
+        <v>0.0006439239200426514</v>
       </c>
       <c r="N15">
-        <v>4.42681710466794E-05</v>
+        <v>0.0003461956559369093</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.0005192934839053639</v>
       </c>
       <c r="P15">
-        <v>0.005976203091301719</v>
+        <v>0.001778060888891966</v>
       </c>
       <c r="Q15">
-        <v>0.0003071104366363383</v>
+        <v>0.004310828307726395</v>
       </c>
       <c r="R15">
-        <v>0.0009296315919802674</v>
+        <v>0.001199221752165454</v>
       </c>
       <c r="S15">
-        <v>0.0003956467787296971</v>
+        <v>0.0003461956559369093</v>
       </c>
       <c r="T15">
-        <v>0.0003084938169815471</v>
+        <v>0.001051050011424457</v>
       </c>
       <c r="U15">
-        <v>0.005723044488128521</v>
+        <v>0.0003198847860857042</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.002210113067501229</v>
       </c>
       <c r="W15">
-        <v>0.000298810154565086</v>
+        <v>8.724130529610114E-05</v>
       </c>
       <c r="X15">
-        <v>0.0002241076159238145</v>
+        <v>8.58565226723535E-05</v>
       </c>
       <c r="Y15">
-        <v>0.009644927766795274</v>
+        <v>5.816087019740076E-05</v>
       </c>
       <c r="Z15">
-        <v>1.383380345208731E-06</v>
+        <v>0.0002395673939083412</v>
       </c>
       <c r="AA15">
-        <v>0.00100295075027633</v>
+        <v>8.58565226723535E-05</v>
       </c>
       <c r="AB15">
-        <v>0.0005160008687628568</v>
+        <v>6.923913118738186E-06</v>
       </c>
       <c r="AC15">
-        <v>0.0001881397269483875</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="AD15">
-        <v>0.001052752442703845</v>
+        <v>0.0009748869671183366</v>
       </c>
       <c r="AE15">
-        <v>0.007409385128937965</v>
+        <v>0.0001190913056422968</v>
       </c>
       <c r="AF15">
-        <v>0.0007912935574593943</v>
+        <v>8.447174004860588E-05</v>
       </c>
       <c r="AG15">
-        <v>0.0001632388807346303</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="AH15">
-        <v>0.002390481236520688</v>
+        <v>0.000530371744895345</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2038,103 +2038,103 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0004219310052886631</v>
+        <v>0.01108103055522859</v>
       </c>
       <c r="C16">
-        <v>0.001731992192201332</v>
+        <v>0.0002077173935621456</v>
       </c>
       <c r="D16">
-        <v>3.320112828500955E-05</v>
+        <v>0.0004002021782630672</v>
       </c>
       <c r="E16">
-        <v>4.703493173709686E-05</v>
+        <v>0.0003185000034619566</v>
       </c>
       <c r="F16">
-        <v>1.798394448771351E-05</v>
+        <v>0.0009915043586033083</v>
       </c>
       <c r="G16">
-        <v>0.0003748960735515662</v>
+        <v>0.00812867400139863</v>
       </c>
       <c r="H16">
-        <v>6.916901726043657E-05</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.106704276166985E-05</v>
+        <v>0.0001855608715821834</v>
       </c>
       <c r="J16">
-        <v>1.383380345208731E-06</v>
+        <v>0.0001647891322259688</v>
       </c>
       <c r="K16">
-        <v>0.0007138242581277054</v>
+        <v>0.008977545749755933</v>
       </c>
       <c r="L16">
-        <v>0.005241628127995883</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>6.916901726043657E-05</v>
+        <v>0.000721471746972519</v>
       </c>
       <c r="N16">
-        <v>0.001073503147881976</v>
+        <v>3.877391346493384E-05</v>
       </c>
       <c r="O16">
-        <v>0.00199483445779099</v>
+        <v>0.0001177065230185492</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.003797073954316021</v>
       </c>
       <c r="Q16">
-        <v>0.004353497946371877</v>
+        <v>0.01173464795363748</v>
       </c>
       <c r="R16">
-        <v>0.0006308214374151815</v>
+        <v>0.000393278265144329</v>
       </c>
       <c r="S16">
-        <v>0.000885363420933588</v>
+        <v>0.0001426326102460066</v>
       </c>
       <c r="T16">
-        <v>0.0003665957914803138</v>
+        <v>0.001478947842162476</v>
       </c>
       <c r="U16">
-        <v>0.0003942633983844884</v>
+        <v>0.001467869581172495</v>
       </c>
       <c r="V16">
-        <v>0.004408833160180227</v>
+        <v>0.002862345683286366</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>5.123695707866257E-05</v>
       </c>
       <c r="X16">
-        <v>0.0001231208507235771</v>
+        <v>5.95456528211484E-05</v>
       </c>
       <c r="Y16">
-        <v>0.0002752926886965375</v>
+        <v>0.0006993152249925568</v>
       </c>
       <c r="Z16">
-        <v>0.004540254292975056</v>
+        <v>0.0003558891343031427</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>6.370000069239131E-05</v>
       </c>
       <c r="AB16">
-        <v>0.0006446552408672688</v>
+        <v>7.06239138111295E-05</v>
       </c>
       <c r="AC16">
-        <v>0.0003458450863021829</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="AD16">
-        <v>0.0005187676294532743</v>
+        <v>0.005288484840092226</v>
       </c>
       <c r="AE16">
-        <v>0.001779027123938429</v>
+        <v>0.001123058707859334</v>
       </c>
       <c r="AF16">
-        <v>0.004307846394979989</v>
+        <v>4.569782658367203E-05</v>
       </c>
       <c r="AG16">
-        <v>0.001198007378950761</v>
+        <v>0.0001190913056422968</v>
       </c>
       <c r="AH16">
-        <v>0.0003458450863021829</v>
+        <v>0.001167371751819258</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2142,103 +2142,103 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001049985682013427</v>
+        <v>0.0003088065250957231</v>
       </c>
       <c r="C17">
-        <v>0.0003195608597432169</v>
+        <v>0.004971369619254018</v>
       </c>
       <c r="D17">
-        <v>0.002207875030953135</v>
+        <v>0.01209192187056437</v>
       </c>
       <c r="E17">
-        <v>8.715296174815008E-05</v>
+        <v>0.005465737015931924</v>
       </c>
       <c r="F17">
-        <v>8.576958140294135E-05</v>
+        <v>0.007573376169275828</v>
       </c>
       <c r="G17">
-        <v>5.810197449876671E-05</v>
+        <v>0.002223960893738706</v>
       </c>
       <c r="H17">
-        <v>0.0002393247997211105</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.576958140294135E-05</v>
+        <v>0.002236423937352434</v>
       </c>
       <c r="J17">
-        <v>6.916901726043656E-06</v>
+        <v>0.002229500024233696</v>
       </c>
       <c r="K17">
-        <v>2.766760690417463E-06</v>
+        <v>0.001757289149535752</v>
       </c>
       <c r="L17">
-        <v>0.0009738997630269468</v>
+        <v>0.004609941354455884</v>
       </c>
       <c r="M17">
-        <v>0.0001189707096879509</v>
+        <v>0.003412104384914178</v>
       </c>
       <c r="N17">
-        <v>8.438620105773261E-05</v>
+        <v>0.007663387039819424</v>
       </c>
       <c r="O17">
-        <v>1.383380345208731E-05</v>
+        <v>0.007318576166506263</v>
       </c>
       <c r="P17">
-        <v>0.0005298346722149441</v>
+        <v>0.007065160946360445</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.001614656539289745</v>
       </c>
       <c r="R17">
-        <v>0.01108364332581236</v>
+        <v>0.003916165259958318</v>
       </c>
       <c r="S17">
-        <v>0.0002075070517813097</v>
+        <v>0.008534415310156689</v>
       </c>
       <c r="T17">
-        <v>0.0003997969197653234</v>
+        <v>0.009631163148164817</v>
       </c>
       <c r="U17">
-        <v>0.0003181774793980082</v>
+        <v>0.006944684858094401</v>
       </c>
       <c r="V17">
-        <v>0.0009918837075146604</v>
+        <v>0.000625921745933932</v>
       </c>
       <c r="W17">
-        <v>0.008120442626375252</v>
+        <v>0.0003420413080656664</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.0009070326185547024</v>
       </c>
       <c r="Y17">
-        <v>0.00018537296625797</v>
+        <v>0.0003392717428181711</v>
       </c>
       <c r="Z17">
-        <v>0.000164622261079839</v>
+        <v>0.00246768263551829</v>
       </c>
       <c r="AA17">
-        <v>0.008969838158333413</v>
+        <v>0.001123058707859334</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.0002714173942545369</v>
       </c>
       <c r="AC17">
-        <v>0.0007207411598537491</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>3.873464966584448E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AE17">
-        <v>0.0001175873293427422</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.00379461228690755</v>
+        <v>0.000362813047421881</v>
       </c>
       <c r="AG17">
-        <v>0.01172276504529879</v>
+        <v>0.0003004978293532373</v>
       </c>
       <c r="AH17">
-        <v>0.0003928800180392797</v>
+        <v>0.0008959543575647212</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2246,103 +2246,103 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0001424881755564993</v>
+        <v>0.002305663068539816</v>
       </c>
       <c r="C18">
-        <v>0.001477450208682925</v>
+        <v>7.339347905862477E-05</v>
       </c>
       <c r="D18">
-        <v>0.001466383165921255</v>
+        <v>0.0001038586967810728</v>
       </c>
       <c r="E18">
-        <v>0.002859447173546448</v>
+        <v>2.077173935621456E-05</v>
       </c>
       <c r="F18">
-        <v>5.118507277272306E-05</v>
+        <v>3.461956559369093E-05</v>
       </c>
       <c r="G18">
-        <v>5.948535484397545E-05</v>
+        <v>0.002986976119423653</v>
       </c>
       <c r="H18">
-        <v>0.0006986070743304093</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.000355528748718644</v>
+        <v>1.246304361372874E-05</v>
       </c>
       <c r="J18">
-        <v>6.363549587960165E-05</v>
+        <v>2.769565247495274E-05</v>
       </c>
       <c r="K18">
-        <v>7.055239760564529E-05</v>
+        <v>0.001796063063000685</v>
       </c>
       <c r="L18">
-        <v>1.106704276166985E-05</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005283129538352145</v>
+        <v>0.0001274000013847826</v>
       </c>
       <c r="N18">
-        <v>0.001121921459964281</v>
+        <v>0.001021969576325756</v>
       </c>
       <c r="O18">
-        <v>4.565155139188814E-05</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="P18">
-        <v>0.0001189707096879509</v>
+        <v>0.0002534152201458176</v>
       </c>
       <c r="Q18">
-        <v>0.00116618963101096</v>
+        <v>0.01079576533473658</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.001123058707859334</v>
       </c>
       <c r="S18">
-        <v>0.0003084938169815471</v>
+        <v>0.007163480512646528</v>
       </c>
       <c r="T18">
-        <v>0.004966335439299346</v>
+        <v>0.0002077173935621456</v>
       </c>
       <c r="U18">
-        <v>0.01208244393505306</v>
+        <v>0.0001537108712359877</v>
       </c>
       <c r="V18">
-        <v>0.005460202222538862</v>
+        <v>0.001177065230185492</v>
       </c>
       <c r="W18">
-        <v>0.007567090488291761</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="X18">
-        <v>0.002221708834405223</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="Z18">
-        <v>0.002234159257512101</v>
+        <v>4.015869608868148E-05</v>
       </c>
       <c r="AA18">
-        <v>0.002227242355786058</v>
+        <v>1.523260886122401E-05</v>
       </c>
       <c r="AB18">
-        <v>0.00175550965806988</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="AC18">
-        <v>0.004605273169199867</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.003408649170594314</v>
+        <v>0.0003406565254419188</v>
       </c>
       <c r="AE18">
-        <v>0.00765562683038512</v>
+        <v>0.0001038586967810728</v>
       </c>
       <c r="AF18">
-        <v>0.007313931885118563</v>
+        <v>1.800217410871929E-05</v>
       </c>
       <c r="AG18">
-        <v>0.007058006521254948</v>
+        <v>1.523260886122401E-05</v>
       </c>
       <c r="AH18">
-        <v>0.001613021482513381</v>
+        <v>0.0003946630477680766</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2350,103 +2350,103 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.003912199616250292</v>
+        <v>0.009701787061975947</v>
       </c>
       <c r="C19">
-        <v>0.008531306588902245</v>
+        <v>0.0002395673939083412</v>
       </c>
       <c r="D19">
-        <v>0.009625560441962352</v>
+        <v>0.0006425391374189036</v>
       </c>
       <c r="E19">
-        <v>0.006937652431221787</v>
+        <v>0.0006273065285576796</v>
       </c>
       <c r="F19">
-        <v>0.0006252879160343466</v>
+        <v>0.000408510874005553</v>
       </c>
       <c r="G19">
-        <v>0.0003416949452665566</v>
+        <v>0.007151017469032799</v>
       </c>
       <c r="H19">
-        <v>0.000906114126111719</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0003389281845761392</v>
+        <v>0.000393278265144329</v>
       </c>
       <c r="J19">
-        <v>0.002465183775161959</v>
+        <v>0.0001924847847009216</v>
       </c>
       <c r="K19">
-        <v>0.001121921459964281</v>
+        <v>0.006185823980280695</v>
       </c>
       <c r="L19">
-        <v>0.0002711425476609113</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0006176130501914462</v>
       </c>
       <c r="N19">
-        <v>1.383380345208731E-06</v>
+        <v>0.000156480436483483</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.0006383847895476607</v>
       </c>
       <c r="P19">
-        <v>0.0003624456504446876</v>
+        <v>0.00186945654205931</v>
       </c>
       <c r="Q19">
-        <v>0.0003001935349102947</v>
+        <v>0.01010198924023901</v>
       </c>
       <c r="R19">
-        <v>0.0008950470833500491</v>
+        <v>0.0003503500038081522</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.0001855608715821834</v>
       </c>
       <c r="T19">
-        <v>0.002303328274772538</v>
+        <v>0.0009831956628608225</v>
       </c>
       <c r="U19">
-        <v>7.331915829606276E-05</v>
+        <v>0.0009568847930096174</v>
       </c>
       <c r="V19">
-        <v>0.0001037535258906549</v>
+        <v>0.00315315003427337</v>
       </c>
       <c r="W19">
-        <v>2.075070517813097E-05</v>
+        <v>8.308695742485824E-05</v>
       </c>
       <c r="X19">
-        <v>3.458450863021829E-05</v>
+        <v>0.0002423369591558365</v>
       </c>
       <c r="Y19">
-        <v>0.002989484925996069</v>
+        <v>9.555000103858697E-05</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.0001246304361372873</v>
       </c>
       <c r="AA19">
-        <v>1.245042310687858E-05</v>
+        <v>0.0002852652204920133</v>
       </c>
       <c r="AB19">
-        <v>2.766760690417463E-05</v>
+        <v>5.400652232615785E-05</v>
       </c>
       <c r="AC19">
-        <v>0.001794244307735724</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.001726823931813304</v>
       </c>
       <c r="AE19">
-        <v>0.0001272709917592033</v>
+        <v>0.0005552978321228025</v>
       </c>
       <c r="AF19">
-        <v>0.001020934694764044</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="AG19">
-        <v>2.351746586854843E-05</v>
+        <v>0.0001758673932159499</v>
       </c>
       <c r="AH19">
-        <v>0.0002531586031731978</v>
+        <v>0.001005352184840785</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2454,103 +2454,103 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01078483317124727</v>
+        <v>0.002199034806511248</v>
       </c>
       <c r="C20">
-        <v>0.001121921459964281</v>
+        <v>0.0002312586981658554</v>
       </c>
       <c r="D20">
-        <v>0.007156226525764768</v>
+        <v>0.001658969583249669</v>
       </c>
       <c r="E20">
-        <v>0.0002075070517813097</v>
+        <v>0.0001855608715821834</v>
       </c>
       <c r="F20">
-        <v>0.0001535552183181692</v>
+        <v>0.0003212695687094518</v>
       </c>
       <c r="G20">
-        <v>0.001175873293427422</v>
+        <v>0.003211310904470771</v>
       </c>
       <c r="H20">
-        <v>5.533521380834925E-06</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>8.300282071252388E-06</v>
+        <v>9.970434890982988E-05</v>
       </c>
       <c r="J20">
-        <v>1.383380345208731E-05</v>
+        <v>9.278043579109169E-05</v>
       </c>
       <c r="K20">
-        <v>4.011803001105321E-05</v>
+        <v>0.002503686983735728</v>
       </c>
       <c r="L20">
-        <v>1.521718379729604E-05</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>4.150141035626194E-06</v>
+        <v>0.006234291372111862</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.002614469593635539</v>
       </c>
       <c r="O20">
-        <v>0.0003403115649213479</v>
+        <v>0.0009527304451383745</v>
       </c>
       <c r="P20">
-        <v>0.0001037535258906549</v>
+        <v>0.0014360195808263</v>
       </c>
       <c r="Q20">
-        <v>1.798394448771351E-05</v>
+        <v>0.003751376127732349</v>
       </c>
       <c r="R20">
-        <v>1.521718379729604E-05</v>
+        <v>0.002455219591904561</v>
       </c>
       <c r="S20">
-        <v>0.0003970301590749059</v>
+        <v>0.000484673918311673</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.001819604367604395</v>
       </c>
       <c r="U20">
-        <v>0.009696112839567998</v>
+        <v>0.01429372624232311</v>
       </c>
       <c r="V20">
-        <v>0.0002393247997211105</v>
+        <v>0.001023354358949504</v>
       </c>
       <c r="W20">
-        <v>0.0006460386212124775</v>
+        <v>7.06239138111295E-05</v>
       </c>
       <c r="X20">
-        <v>0.0006266712963795553</v>
+        <v>0.0002658782637595464</v>
       </c>
       <c r="Y20">
-        <v>0.0004080972018365757</v>
+        <v>0.0001093978272760633</v>
       </c>
       <c r="Z20">
-        <v>0.007149309624038724</v>
+        <v>0.0003891239172730861</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>0.0001135521751473063</v>
       </c>
       <c r="AB20">
-        <v>0.0003928800180392797</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.0001922898679840137</v>
+        <v>4.154347871242912E-05</v>
       </c>
       <c r="AD20">
-        <v>0.006180943382392612</v>
+        <v>0.0005068304402916352</v>
       </c>
       <c r="AE20">
-        <v>1.383380345208731E-06</v>
+        <v>0.003168382643134594</v>
       </c>
       <c r="AF20">
-        <v>0.0006169876339630942</v>
+        <v>6.923913118738186E-05</v>
       </c>
       <c r="AG20">
-        <v>0.0001563219790085866</v>
+        <v>0.0002423369591558365</v>
       </c>
       <c r="AH20">
-        <v>0.0006377383391412252</v>
+        <v>0.003930013086195794</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2558,103 +2558,103 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.001868946846376996</v>
+        <v>0.00767169573556191</v>
       </c>
       <c r="C21">
-        <v>0.0100931429986429</v>
+        <v>0.0002838804378682657</v>
       </c>
       <c r="D21">
-        <v>0.000349995227337809</v>
+        <v>0.003988173956393195</v>
       </c>
       <c r="E21">
-        <v>0.00018537296625797</v>
+        <v>0.0001384782623747637</v>
       </c>
       <c r="F21">
-        <v>0.0009822000450981992</v>
+        <v>0.0004763652225691872</v>
       </c>
       <c r="G21">
-        <v>0.0009572991988844421</v>
+        <v>0.006750815290769731</v>
       </c>
       <c r="H21">
-        <v>0.003149957046040281</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8.300282071252388E-05</v>
+        <v>8.862608791984878E-05</v>
       </c>
       <c r="J21">
-        <v>0.000242091560411528</v>
+        <v>0.0001537108712359877</v>
       </c>
       <c r="K21">
-        <v>9.545324381940246E-05</v>
+        <v>0.004904900053314131</v>
       </c>
       <c r="L21">
-        <v>0.0001245042310687858</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="M21">
-        <v>0.0002849763511129986</v>
+        <v>0.0009111869664259453</v>
       </c>
       <c r="N21">
-        <v>5.395183346314052E-05</v>
+        <v>0.0003018826119769849</v>
       </c>
       <c r="O21">
-        <v>1.383380345208731E-06</v>
+        <v>0.0008682587050897685</v>
       </c>
       <c r="P21">
-        <v>0.001725075290475288</v>
+        <v>0.002174108719283791</v>
       </c>
       <c r="Q21">
-        <v>0.0005547355184287012</v>
+        <v>0.01147292403774917</v>
       </c>
       <c r="R21">
-        <v>1.660056414250478E-05</v>
+        <v>0.0007020847902400521</v>
       </c>
       <c r="S21">
-        <v>0.0001756893038415089</v>
+        <v>0.004252667437528994</v>
       </c>
       <c r="T21">
-        <v>0.001004334130621539</v>
+        <v>0.001841760889584358</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.0003088065250957231</v>
       </c>
       <c r="V21">
-        <v>0.002196807988191466</v>
+        <v>0.002503686983735728</v>
       </c>
       <c r="W21">
-        <v>0.0002310245176498581</v>
+        <v>5.262173970241021E-05</v>
       </c>
       <c r="X21">
-        <v>0.00165728965356006</v>
+        <v>6.231521806864367E-05</v>
       </c>
       <c r="Y21">
-        <v>0.00018537296625797</v>
+        <v>0.0001149369577710539</v>
       </c>
       <c r="Z21">
-        <v>0.0003209442400884257</v>
+        <v>0.0002866500031157609</v>
       </c>
       <c r="AA21">
-        <v>0.003212209161574674</v>
+        <v>4.708260920741967E-05</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>3.185000034619566E-05</v>
       </c>
       <c r="AC21">
-        <v>9.960338485502865E-05</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="AD21">
-        <v>9.268648312898501E-05</v>
+        <v>0.001724054366565808</v>
       </c>
       <c r="AE21">
-        <v>0.002501151664137386</v>
+        <v>0.004633482659059594</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>8.447174004860588E-05</v>
       </c>
       <c r="AG21">
-        <v>0.006229361694474917</v>
+        <v>0.0001703282627209594</v>
       </c>
       <c r="AH21">
-        <v>0.002611822091754085</v>
+        <v>0.0006356152243001654</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2662,103 +2662,103 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0009517656775036072</v>
+        <v>0.0002797260899970227</v>
       </c>
       <c r="C22">
-        <v>0.001434565417981454</v>
+        <v>0.001502489146766186</v>
       </c>
       <c r="D22">
-        <v>0.003747577355170453</v>
+        <v>0.001170141317066753</v>
       </c>
       <c r="E22">
-        <v>0.002452733352055081</v>
+        <v>0.0009818108802370747</v>
       </c>
       <c r="F22">
-        <v>0.000484183120823056</v>
+        <v>0.002153336979927576</v>
       </c>
       <c r="G22">
-        <v>0.001817761773604273</v>
+        <v>0.0004223587002430294</v>
       </c>
       <c r="H22">
-        <v>0.01429031896600619</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001022318075109253</v>
+        <v>0.001487256537904962</v>
       </c>
       <c r="J22">
-        <v>7.055239760564529E-05</v>
+        <v>0.0006979304423688092</v>
       </c>
       <c r="K22">
-        <v>0.0002656090262800764</v>
+        <v>0.0006383847895476607</v>
       </c>
       <c r="L22">
-        <v>0.0001092870472714898</v>
+        <v>0.0001232456535135397</v>
       </c>
       <c r="M22">
-        <v>0.0003887298770036535</v>
+        <v>0.001581421756319802</v>
       </c>
       <c r="N22">
-        <v>0.000113437188307116</v>
+        <v>0.002283506546559854</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.001408323928351347</v>
       </c>
       <c r="P22">
-        <v>4.150141035626194E-05</v>
+        <v>0.001199221752165454</v>
       </c>
       <c r="Q22">
-        <v>0.0005063172063463956</v>
+        <v>0.0004278978307380199</v>
       </c>
       <c r="R22">
-        <v>0.003166557610182786</v>
+        <v>0.001658969583249669</v>
       </c>
       <c r="S22">
-        <v>6.916901726043657E-05</v>
+        <v>0.001413863058846338</v>
       </c>
       <c r="T22">
-        <v>0.000242091560411528</v>
+        <v>0.002102100022848913</v>
       </c>
       <c r="U22">
-        <v>0.003927416800047588</v>
+        <v>0.001802986976119424</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>0.0001537108712359877</v>
       </c>
       <c r="W22">
-        <v>0.007684677817634503</v>
+        <v>7.339347905862477E-05</v>
       </c>
       <c r="X22">
-        <v>0.0002835929707677899</v>
+        <v>0.0006397695721714084</v>
       </c>
       <c r="Y22">
-        <v>0.003985518774546355</v>
+        <v>4.154347871242912E-05</v>
       </c>
       <c r="Z22">
-        <v>0.0001383380345208731</v>
+        <v>0.001254613057115359</v>
       </c>
       <c r="AA22">
-        <v>0.0004758828387518036</v>
+        <v>0.00075609131256621</v>
       </c>
       <c r="AB22">
-        <v>0.006743979182892565</v>
+        <v>0.0002644934811357987</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>8.85363420933588E-05</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.0001535552183181692</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.004899933182729326</v>
+        <v>9.001087054359643E-05</v>
       </c>
       <c r="AG22">
-        <v>1.383380345208731E-06</v>
+        <v>0.001262921752857845</v>
       </c>
       <c r="AH22">
-        <v>0.0009102642671473452</v>
+        <v>0.0001509413059884925</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2766,103 +2766,103 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003015769152555035</v>
+        <v>0.0003558891343031427</v>
       </c>
       <c r="C23">
-        <v>0.0008673794764458746</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="D23">
-        <v>0.002176057283013334</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="E23">
-        <v>0.01146683968143517</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="F23">
-        <v>0.0007013738350208268</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="G23">
-        <v>0.004255277941862058</v>
+        <v>0.0004985217445491494</v>
       </c>
       <c r="H23">
-        <v>0.001839895859127613</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0003084938169815471</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.002501151664137386</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="K23">
-        <v>5.256845311793179E-05</v>
+        <v>0.00050406087504414</v>
       </c>
       <c r="L23">
-        <v>6.225211553439291E-05</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0001148205686523247</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="N23">
-        <v>0.0002863597314582074</v>
+        <v>9.001087054359643E-05</v>
       </c>
       <c r="O23">
-        <v>4.703493173709686E-05</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="P23">
-        <v>3.181774793980082E-05</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="Q23">
-        <v>1.660056414250478E-05</v>
+        <v>0.0004777500051929348</v>
       </c>
       <c r="R23">
-        <v>0.001723691910130079</v>
+        <v>9.693478366233461E-06</v>
       </c>
       <c r="S23">
-        <v>0.004641241058175294</v>
+        <v>0.0002326434807896031</v>
       </c>
       <c r="T23">
-        <v>8.438620105773261E-05</v>
+        <v>5.539130494990549E-05</v>
       </c>
       <c r="U23">
-        <v>0.000170155782460674</v>
+        <v>2.631086985120511E-05</v>
       </c>
       <c r="V23">
-        <v>0.0006349715784508077</v>
+        <v>0.0001038586967810728</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="X23">
-        <v>0.0002794428297321638</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.001500967674551473</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.001168956391701378</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.0009808166647529905</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="AB23">
-        <v>0.002151156436799577</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.0004219310052886631</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.938695673246692E-05</v>
       </c>
       <c r="AE23">
-        <v>0.001485750490754177</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="AF23">
-        <v>0.0006972236939852006</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AG23">
-        <v>0.0006377383391412252</v>
+        <v>6.923913118738186E-06</v>
       </c>
       <c r="AH23">
-        <v>0.0001231208507235771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -2870,103 +2870,103 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.001579820354228371</v>
+        <v>0.0009319587057821598</v>
       </c>
       <c r="C24">
-        <v>0.002281194189249198</v>
+        <v>0.000171713045344707</v>
       </c>
       <c r="D24">
-        <v>0.00140689781107728</v>
+        <v>0.0005345260927665879</v>
       </c>
       <c r="E24">
-        <v>0.001198007378950761</v>
+        <v>0.0001675586974734641</v>
       </c>
       <c r="F24">
-        <v>0.000427464526669498</v>
+        <v>0.0001827913063346881</v>
       </c>
       <c r="G24">
-        <v>0.00165728965356006</v>
+        <v>0.0001481717407409972</v>
       </c>
       <c r="H24">
-        <v>0.001412431332458115</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002099971364026854</v>
+        <v>6.093043544489604E-05</v>
       </c>
       <c r="J24">
-        <v>0.001801161209461768</v>
+        <v>9.69347836623346E-05</v>
       </c>
       <c r="K24">
-        <v>0.0001535552183181692</v>
+        <v>0.000671619572517604</v>
       </c>
       <c r="L24">
-        <v>7.331915829606276E-05</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0006391217194864338</v>
+        <v>0.0002935739162344991</v>
       </c>
       <c r="N24">
-        <v>4.150141035626194E-05</v>
+        <v>0.0003074217424719754</v>
       </c>
       <c r="O24">
-        <v>0.001253342592759111</v>
+        <v>0.0003558891343031427</v>
       </c>
       <c r="P24">
-        <v>0.0007553256684839673</v>
+        <v>0.0004999065271728971</v>
       </c>
       <c r="Q24">
-        <v>0.0002642256459348677</v>
+        <v>0.002710019594674126</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.0004985217445491494</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.000343426090689414</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>0.0004902130488066635</v>
       </c>
       <c r="U24">
-        <v>8.991972243856754E-05</v>
+        <v>0.0002354130460370983</v>
       </c>
       <c r="V24">
-        <v>0.001261642874830363</v>
+        <v>0.000373891308411862</v>
       </c>
       <c r="W24">
-        <v>0.0001507884576277517</v>
+        <v>3.046521772244802E-05</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1.938695673246692E-05</v>
       </c>
       <c r="Y24">
-        <v>0.000355528748718644</v>
+        <v>2.492608722745747E-05</v>
       </c>
       <c r="Z24">
-        <v>4.150141035626194E-06</v>
+        <v>6.370000069239131E-05</v>
       </c>
       <c r="AA24">
-        <v>4.150141035626194E-06</v>
+        <v>7.339347905862477E-05</v>
       </c>
       <c r="AB24">
-        <v>2.766760690417463E-06</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="AC24">
-        <v>4.150141035626194E-06</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AD24">
-        <v>0.0004994003046203521</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>6.508478331613895E-05</v>
       </c>
       <c r="AG24">
-        <v>4.150141035626194E-06</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="AH24">
-        <v>0.0005035504456559782</v>
+        <v>1.938695673246692E-05</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -2974,103 +2974,103 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.0009748869671183366</v>
       </c>
       <c r="C25">
-        <v>5.533521380834925E-06</v>
+        <v>1.938695673246692E-05</v>
       </c>
       <c r="D25">
-        <v>8.991972243856754E-05</v>
+        <v>0.0002284891329183601</v>
       </c>
       <c r="E25">
-        <v>1.106704276166985E-05</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="F25">
-        <v>1.660056414250478E-05</v>
+        <v>2.21565219799622E-05</v>
       </c>
       <c r="G25">
-        <v>0.0004772662190970123</v>
+        <v>0.001161832621324268</v>
       </c>
       <c r="H25">
-        <v>9.683662416461119E-06</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0002324078979950669</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="J25">
-        <v>5.533521380834925E-05</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="K25">
-        <v>2.628422655896589E-05</v>
+        <v>0.001480332624786224</v>
       </c>
       <c r="L25">
-        <v>0.0001037535258906549</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>2.351746586854843E-05</v>
+        <v>0.0003406565254419188</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.21565219799622E-05</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="Q25">
-        <v>4.150141035626194E-06</v>
+        <v>0.000206332610938398</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>3.877391346493384E-05</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.523260886122401E-05</v>
       </c>
       <c r="T25">
-        <v>1.936732483292224E-05</v>
+        <v>4.569782658367203E-05</v>
       </c>
       <c r="U25">
-        <v>2.351746586854843E-05</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="V25">
-        <v>1.383380345208731E-06</v>
+        <v>0.000297728264105742</v>
       </c>
       <c r="W25">
-        <v>6.916901726043656E-06</v>
+        <v>0.0001620195669784736</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="Z25">
-        <v>0.0009310149723254762</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="AA25">
-        <v>0.0001715391628058827</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="AB25">
-        <v>0.0005339848132505703</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AC25">
-        <v>0.0001673890217702565</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.0001826062055675525</v>
+        <v>0.0003046521772244802</v>
       </c>
       <c r="AE25">
-        <v>0.0001480216969373343</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="AG25">
-        <v>6.086873518918418E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AH25">
-        <v>9.68366241646112E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3078,103 +3078,103 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0006709394674262347</v>
+        <v>0.002518919592596952</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>4.015869608868148E-05</v>
       </c>
       <c r="D26">
-        <v>0.000293276633184251</v>
+        <v>0.0001163217403948015</v>
       </c>
       <c r="E26">
-        <v>0.0003071104366363383</v>
+        <v>2.21565219799622E-05</v>
       </c>
       <c r="F26">
-        <v>0.000355528748718644</v>
+        <v>3.600434821743857E-05</v>
       </c>
       <c r="G26">
-        <v>0.0004994003046203521</v>
+        <v>0.003924473955700804</v>
       </c>
       <c r="H26">
-        <v>0.002707275335573487</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.0004980169242751433</v>
+        <v>6.923913118738186E-06</v>
       </c>
       <c r="J26">
-        <v>0.0003430783256117654</v>
+        <v>5.539130494990549E-05</v>
       </c>
       <c r="K26">
-        <v>0.0004897166422038909</v>
+        <v>0.001971930456216635</v>
       </c>
       <c r="L26">
-        <v>0.0002351746586854843</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0003735126932063574</v>
+        <v>0.0007491673994474718</v>
       </c>
       <c r="N26">
-        <v>3.043436759459209E-05</v>
+        <v>9.69347836623346E-05</v>
       </c>
       <c r="O26">
-        <v>1.936732483292224E-05</v>
+        <v>2.908043509870038E-05</v>
       </c>
       <c r="P26">
-        <v>2.490084621375716E-05</v>
+        <v>0.001182604360680482</v>
       </c>
       <c r="Q26">
-        <v>6.363549587960165E-05</v>
+        <v>0.0001772521758396976</v>
       </c>
       <c r="R26">
-        <v>7.331915829606276E-05</v>
+        <v>0.0001523260886122401</v>
       </c>
       <c r="S26">
-        <v>4.150141035626194E-06</v>
+        <v>0.0001274000013847826</v>
       </c>
       <c r="T26">
-        <v>1.383380345208731E-06</v>
+        <v>0.0001454021754935019</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.001919308716514225</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.0005691456583602789</v>
       </c>
       <c r="W26">
-        <v>6.501887622481037E-05</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="X26">
-        <v>2.766760690417463E-06</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="Y26">
-        <v>1.936732483292224E-05</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>3.461956559369093E-05</v>
       </c>
       <c r="AA26">
-        <v>0.0009877335664790342</v>
+        <v>8.17021748011106E-05</v>
       </c>
       <c r="AB26">
-        <v>1.936732483292224E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AC26">
-        <v>0.0002282577569594407</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>1.383380345208731E-05</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>2.21340855233397E-05</v>
+        <v>0.0003046521772244802</v>
       </c>
       <c r="AF26">
-        <v>0.001160656109630126</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>2.766760690417463E-06</v>
+        <v>1.10782609899811E-05</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3182,103 +3182,103 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.106704276166985E-05</v>
+        <v>0.001255997839739107</v>
       </c>
       <c r="C27">
-        <v>0.001478833589028134</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4.708260920741967E-05</v>
       </c>
       <c r="E27">
-        <v>0.0003403115649213479</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="F27">
-        <v>8.300282071252388E-06</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="G27">
-        <v>2.21340855233397E-05</v>
+        <v>0.002329204373143526</v>
       </c>
       <c r="H27">
-        <v>2.351746586854843E-05</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0.000206123671436101</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3.873464966584448E-05</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1.521718379729604E-05</v>
+        <v>0.001904076107653001</v>
       </c>
       <c r="L27">
-        <v>4.565155139188814E-05</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1.383380345208731E-05</v>
+        <v>0.0005372956580140832</v>
       </c>
       <c r="N27">
-        <v>0.0002974267742198772</v>
+        <v>0.0005705304409840265</v>
       </c>
       <c r="O27">
-        <v>0.0001618555003894216</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="P27">
-        <v>4.150141035626194E-06</v>
+        <v>0.000438976091728001</v>
       </c>
       <c r="Q27">
-        <v>5.533521380834925E-06</v>
+        <v>0.0003295782644519376</v>
       </c>
       <c r="R27">
-        <v>4.150141035626194E-06</v>
+        <v>4.431304395992439E-05</v>
       </c>
       <c r="S27">
-        <v>4.150141035626194E-06</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="T27">
-        <v>1.383380345208731E-06</v>
+        <v>9.693478366233461E-06</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>0.0001800217410871929</v>
       </c>
       <c r="V27">
-        <v>0.0003043436759459209</v>
+        <v>0.000393278265144329</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="X27">
-        <v>2.766760690417463E-06</v>
+        <v>1.246304361372874E-05</v>
       </c>
       <c r="Y27">
-        <v>1.383380345208731E-06</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="Z27">
-        <v>1.383380345208731E-06</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.002524669130005935</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>4.011803001105321E-05</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>0.0001162039489975334</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>2.21340855233397E-05</v>
+        <v>0.0002423369591558365</v>
       </c>
       <c r="AF27">
-        <v>3.596788897542701E-05</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.003923266659011962</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.384782623747637E-06</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3286,103 +3286,103 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.916901726043656E-06</v>
+        <v>0.0005054456576678876</v>
       </c>
       <c r="C28">
-        <v>5.533521380834925E-05</v>
+        <v>3.046521772244802E-05</v>
       </c>
       <c r="D28">
-        <v>0.001969933611577233</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>8.308695742485824E-06</v>
       </c>
       <c r="F28">
-        <v>0.0007484087667579236</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="G28">
-        <v>9.68366241646112E-05</v>
+        <v>0.001463715233301252</v>
       </c>
       <c r="H28">
-        <v>2.905098724938336E-05</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.001181406814808257</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="J28">
-        <v>0.0001770726841867176</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="K28">
-        <v>0.0001521718379729604</v>
+        <v>0.0009804260976133271</v>
       </c>
       <c r="L28">
-        <v>0.0001272709917592033</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0001452549362469168</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="N28">
-        <v>0.001917365158459302</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="O28">
-        <v>0.0005685693218807886</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="P28">
-        <v>5.533521380834925E-06</v>
+        <v>7.200869643487714E-05</v>
       </c>
       <c r="Q28">
-        <v>1.383380345208731E-06</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="S28">
-        <v>3.458450863021829E-05</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="T28">
-        <v>8.161944036731516E-05</v>
+        <v>6.923913118738186E-06</v>
       </c>
       <c r="U28">
-        <v>1.383380345208731E-06</v>
+        <v>6.923913118738186E-06</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>0.0001370934797510161</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="X28">
-        <v>0.0003043436759459209</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="Y28">
-        <v>8.300282071252388E-06</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="AA28">
-        <v>1.106704276166985E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AC28">
-        <v>0.001254725973104319</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>8.300282071252388E-06</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>4.703493173709686E-05</v>
+        <v>3.877391346493384E-05</v>
       </c>
       <c r="AF28">
-        <v>5.533521380834925E-06</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>4.150141035626194E-06</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>0.002329612501331504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3393,58 +3393,58 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.001902147974662006</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.0005367515739409878</v>
+        <v>0.0001550956538597354</v>
       </c>
       <c r="H29">
-        <v>0.0005699527022259973</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1.660056414250478E-05</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.0004385315694311678</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0.000329244522159678</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>4.42681710466794E-05</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>5.533521380834925E-06</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>9.683662416461119E-06</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0.0001798394448771351</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0.0003928800180392797</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="Q29">
-        <v>1.383380345208731E-06</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.245042310687858E-05</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="S29">
-        <v>2.766760690417463E-06</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>4.150141035626194E-06</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3459,34 +3459,34 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.000242091560411528</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>5.533521380834925E-06</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>1.383380345208731E-06</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0.000504933826001187</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>3.043436759459209E-05</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>1.660056414250478E-05</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AG29">
-        <v>8.300282071252388E-06</v>
+        <v>1.10782609899811E-05</v>
       </c>
       <c r="AH29">
-        <v>1.383380345208731E-06</v>
+        <v>0.0001287847840085302</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3494,85 +3494,85 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.001462233024885629</v>
+        <v>9.001087054359643E-05</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.0003863543520255908</v>
       </c>
       <c r="D30">
-        <v>1.383380345208731E-06</v>
+        <v>0.00161742610453724</v>
       </c>
       <c r="E30">
-        <v>1.383380345208731E-06</v>
+        <v>0.0003115760903432184</v>
       </c>
       <c r="F30">
-        <v>0.0009794332844077819</v>
+        <v>0.0004015869608868148</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.001733747844932042</v>
       </c>
       <c r="H30">
-        <v>4.150141035626194E-06</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1.383380345208731E-06</v>
+        <v>9.139565316734405E-05</v>
       </c>
       <c r="J30">
-        <v>2.766760690417463E-06</v>
+        <v>0.0002437217417795841</v>
       </c>
       <c r="K30">
-        <v>7.193577795085403E-05</v>
+        <v>0.0005622217452415407</v>
       </c>
       <c r="L30">
-        <v>4.150141035626194E-06</v>
+        <v>0.00232089567740104</v>
       </c>
       <c r="M30">
-        <v>2.766760690417463E-06</v>
+        <v>0.0004985217445491494</v>
       </c>
       <c r="N30">
-        <v>5.533521380834925E-06</v>
+        <v>0.002207343502253734</v>
       </c>
       <c r="O30">
-        <v>6.916901726043656E-06</v>
+        <v>0.001891613064039272</v>
       </c>
       <c r="P30">
-        <v>6.916901726043656E-06</v>
+        <v>0.0007699391388036863</v>
       </c>
       <c r="Q30">
-        <v>0.0001369546541756644</v>
+        <v>0.000267263046383294</v>
       </c>
       <c r="R30">
-        <v>1.383380345208731E-06</v>
+        <v>0.0008599500093472827</v>
       </c>
       <c r="S30">
-        <v>2.766760690417463E-06</v>
+        <v>0.0004098956566293006</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.001219993491521668</v>
       </c>
       <c r="U30">
-        <v>2.766760690417463E-06</v>
+        <v>0.0008308695742485823</v>
       </c>
       <c r="V30">
-        <v>1.383380345208731E-06</v>
+        <v>0.0001357086971272684</v>
       </c>
       <c r="W30">
-        <v>1.383380345208731E-06</v>
+        <v>3.32347829699433E-05</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.001573113060577316</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>2.354130460370983E-05</v>
       </c>
       <c r="Z30">
-        <v>3.873464966584448E-05</v>
+        <v>0.0002769565247495274</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>0.0005262173970241021</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.383380345208731E-06</v>
+        <v>5.677608757365313E-05</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="AH30">
-        <v>1.383380345208731E-06</v>
+        <v>4.154347871242912E-05</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3598,103 +3598,103 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.0001661739148497165</v>
       </c>
       <c r="C31">
-        <v>0.0001549385986633779</v>
+        <v>0.0004223587002430294</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.001035817402563233</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.0003905086998968337</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.0005677608757365313</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.0008834913139509925</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>7.06239138111295E-05</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.0004375913091042533</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.0007837869650411626</v>
       </c>
       <c r="L31">
-        <v>4.150141035626194E-06</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.001383397841123889</v>
       </c>
       <c r="N31">
-        <v>4.150141035626194E-06</v>
+        <v>0.0001384782623747637</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.0006508478331613895</v>
       </c>
       <c r="P31">
-        <v>1.383380345208731E-06</v>
+        <v>0.002689247855317912</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.0005677608757365313</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.0009167260969209359</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.0002769565247495274</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.001646506539635941</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>0.0005733000062315218</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>0.000186945654205931</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>9.69347836623346E-05</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>0.000110782609899811</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.0001398630449985113</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.0003808152215306002</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.0006148434849439509</v>
       </c>
       <c r="AB31">
-        <v>1.383380345208731E-06</v>
+        <v>3.185000034619566E-05</v>
       </c>
       <c r="AC31">
-        <v>1.106704276166985E-05</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.000128654372104412</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>8.991972243856754E-05</v>
+        <v>0.0001301695666322779</v>
       </c>
       <c r="AG31">
-        <v>0.000385963116313236</v>
+        <v>0.0004555934832129726</v>
       </c>
       <c r="AH31">
-        <v>0.001615788243203798</v>
+        <v>0.000843332617862311</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -3702,76 +3702,76 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0003112605776719646</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.0004011803001105321</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="D32">
-        <v>0.001731992192201332</v>
+        <v>5.539130494990549E-06</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9.130310278377627E-05</v>
+        <v>4.154347871242912E-06</v>
       </c>
       <c r="G32">
-        <v>0.0002434749407567367</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.0005616524201547449</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.002318545458569834</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.0004980169242751433</v>
+        <v>6.923913118738186E-06</v>
       </c>
       <c r="K32">
-        <v>0.002205108270262718</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.001889697551555127</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="M32">
-        <v>0.0007691594719360546</v>
+        <v>0.0001481717407409972</v>
       </c>
       <c r="N32">
-        <v>0.0002669924066252852</v>
+        <v>0.0001689434800972118</v>
       </c>
       <c r="O32">
-        <v>0.0008590791943746222</v>
+        <v>0.0001246304361372873</v>
       </c>
       <c r="P32">
-        <v>0.0004108639625269932</v>
+        <v>4.985217445491494E-05</v>
       </c>
       <c r="Q32">
-        <v>0.001218758084128892</v>
+        <v>1.384782623747637E-06</v>
       </c>
       <c r="R32">
-        <v>0.0008300282071252389</v>
+        <v>8.724130529610114E-05</v>
       </c>
       <c r="S32">
-        <v>0.0001355712738304557</v>
+        <v>5.816087019740076E-05</v>
       </c>
       <c r="T32">
-        <v>3.320112828500955E-05</v>
+        <v>8.308695742485824E-05</v>
       </c>
       <c r="U32">
-        <v>0.001571520072157119</v>
+        <v>0.001596654365181026</v>
       </c>
       <c r="V32">
-        <v>2.351746586854843E-05</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.0002766760690417463</v>
+        <v>2.908043509870038E-05</v>
       </c>
       <c r="X32">
-        <v>0.0005256845311793179</v>
+        <v>1.661739148497165E-05</v>
       </c>
       <c r="Y32">
-        <v>1.660056414250478E-05</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3783,22 +3783,22 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>5.671859415355799E-05</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>1.383380345208731E-06</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>4.150141035626194E-05</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>2.769565247495275E-06</v>
       </c>
       <c r="AG32">
-        <v>0.0001660056414250478</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>0.0004219310052886631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -3806,103 +3806,103 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.001037535258906549</v>
+        <v>6.370000069239131E-05</v>
       </c>
       <c r="C33">
-        <v>0.0003901132573488623</v>
+        <v>0.0004265130481142723</v>
       </c>
       <c r="D33">
-        <v>0.0005671859415355799</v>
+        <v>0.0002548000027695652</v>
       </c>
       <c r="E33">
-        <v>0.0008825966602431706</v>
+        <v>0.0001149369577710539</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.0004071260913818053</v>
       </c>
       <c r="G33">
-        <v>7.055239760564529E-05</v>
+        <v>2.492608722745747E-05</v>
       </c>
       <c r="H33">
-        <v>0.0004371481890859591</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.0007829932753881419</v>
+        <v>0.000110782609899811</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.0002160260893046314</v>
       </c>
       <c r="K33">
-        <v>0.001381996964863523</v>
+        <v>0.000202178263067155</v>
       </c>
       <c r="L33">
-        <v>0.0001383380345208731</v>
+        <v>1.384782623747637E-05</v>
       </c>
       <c r="M33">
-        <v>0.0006529555229385212</v>
+        <v>0.000362813047421881</v>
       </c>
       <c r="N33">
-        <v>0.002686524630395356</v>
+        <v>0.0001080130446523157</v>
       </c>
       <c r="O33">
-        <v>0.0005671859415355799</v>
+        <v>0.0001966391325721645</v>
       </c>
       <c r="P33">
-        <v>0.0009185645492185977</v>
+        <v>0.0002686478290070416</v>
       </c>
       <c r="Q33">
-        <v>0.0002766760690417463</v>
+        <v>0.0001537108712359877</v>
       </c>
       <c r="R33">
-        <v>0.001644839230453182</v>
+        <v>0.0003060369598482278</v>
       </c>
       <c r="S33">
-        <v>0.0005754862236068322</v>
+        <v>0.000217410871928379</v>
       </c>
       <c r="T33">
-        <v>0.0001867563466031787</v>
+        <v>0.0003655826126693762</v>
       </c>
       <c r="U33">
-        <v>9.822000450981993E-05</v>
+        <v>0.0005816087019740076</v>
       </c>
       <c r="V33">
-        <v>0.0001106704276166985</v>
+        <v>4.84673918311673E-05</v>
       </c>
       <c r="W33">
-        <v>0.0001397214148660819</v>
+        <v>4.015869608868148E-05</v>
       </c>
       <c r="X33">
-        <v>0.0003804295949324011</v>
+        <v>3.73891308411862E-05</v>
       </c>
       <c r="Y33">
-        <v>0.0006142208732726767</v>
+        <v>9.69347836623346E-05</v>
       </c>
       <c r="Z33">
-        <v>3.181774793980082E-05</v>
+        <v>0.0002409521765320889</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>6.370000069239131E-05</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.00050406087504414</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0.0001300377524496207</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>0.0004551321335736726</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.0008480121516129523</v>
+        <v>3.046521772244802E-05</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>3.877391346493384E-05</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>3.600434821743857E-05</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -3910,85 +3910,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.383380345208731E-06</v>
+        <v>0.0002229500024233696</v>
       </c>
       <c r="C34">
-        <v>5.533521380834925E-06</v>
+        <v>0.0005248326144003545</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.001589730452062287</v>
       </c>
       <c r="E34">
-        <v>4.150141035626194E-06</v>
+        <v>0.0004569782658367203</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.0008654891398422733</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.000282495655244518</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>6.916901726043656E-06</v>
+        <v>0.0002880347857395086</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.0005719152236077742</v>
       </c>
       <c r="K34">
-        <v>1.383380345208731E-05</v>
+        <v>0.0006951608771213138</v>
       </c>
       <c r="L34">
-        <v>0.0001480216969373343</v>
+        <v>0.0001066282620285681</v>
       </c>
       <c r="M34">
-        <v>0.0001687724021154652</v>
+        <v>0.0009264195752871693</v>
       </c>
       <c r="N34">
-        <v>0.0001245042310687858</v>
+        <v>0.001095363055384381</v>
       </c>
       <c r="O34">
-        <v>4.980169242751433E-05</v>
+        <v>0.0008502565309810492</v>
       </c>
       <c r="P34">
-        <v>1.383380345208731E-06</v>
+        <v>0.002023167413295298</v>
       </c>
       <c r="Q34">
-        <v>8.715296174815008E-05</v>
+        <v>0.0006314608764289225</v>
       </c>
       <c r="R34">
-        <v>5.810197449876671E-05</v>
+        <v>0.001247689143996621</v>
       </c>
       <c r="S34">
-        <v>8.300282071252388E-05</v>
+        <v>0.0005414500058853261</v>
       </c>
       <c r="T34">
-        <v>0.001595037538025667</v>
+        <v>0.001537108712359877</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>0.001933156542751702</v>
       </c>
       <c r="V34">
-        <v>2.905098724938336E-05</v>
+        <v>0.0002423369591558365</v>
       </c>
       <c r="W34">
-        <v>1.660056414250478E-05</v>
+        <v>6.370000069239131E-05</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>0.0003503500038081522</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.0001024739141573251</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.000378045656283105</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>0.0001093978272760633</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.0002686478290070416</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3997,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>2.766760690417463E-06</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>0.0001052434794048204</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>0.0001052434794048204</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>0.0001287847840085302</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross1.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross1.xlsx
@@ -582,85 +582,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004362065264805057</v>
+        <v>0.0005595518913827063</v>
       </c>
       <c r="C2">
-        <v>0.001773906541020723</v>
+        <v>0.001015951608006166</v>
       </c>
       <c r="D2">
-        <v>0.005899173977164935</v>
+        <v>0.00589427096713922</v>
       </c>
       <c r="E2">
-        <v>0.001501104364142439</v>
+        <v>0.00163583779028579</v>
       </c>
       <c r="F2">
-        <v>0.003212695687094518</v>
+        <v>0.003024499614639045</v>
       </c>
       <c r="G2">
-        <v>0.001460945668053757</v>
+        <v>0.002198309082840928</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="I2">
-        <v>0.00159388479993353</v>
+        <v>0.002379311955531681</v>
       </c>
       <c r="J2">
-        <v>0.003963247869165738</v>
+        <v>0.004201018287128944</v>
       </c>
       <c r="K2">
-        <v>0.0014941804510237</v>
+        <v>0.001629025854216783</v>
       </c>
       <c r="L2">
-        <v>0.0009291891405346646</v>
+        <v>0.0009351815089022273</v>
       </c>
       <c r="M2">
-        <v>0.005076613098658838</v>
+        <v>0.007556383367976894</v>
       </c>
       <c r="N2">
-        <v>0.01025154576360376</v>
+        <v>0.009546441833851041</v>
       </c>
       <c r="O2">
-        <v>0.00479411744341432</v>
+        <v>0.004567889701131171</v>
       </c>
       <c r="P2">
-        <v>0.007562297908285847</v>
+        <v>0.005924438112587679</v>
       </c>
       <c r="Q2">
-        <v>0.001062128272414438</v>
+        <v>0.001165814201524317</v>
       </c>
       <c r="R2">
-        <v>0.004008945695749409</v>
+        <v>0.002535986485118839</v>
       </c>
       <c r="S2">
-        <v>0.005012913097966447</v>
+        <v>0.002580750636429456</v>
       </c>
       <c r="T2">
-        <v>0.00658741094116751</v>
+        <v>0.007654669874115422</v>
       </c>
       <c r="U2">
-        <v>0.007286726166160067</v>
+        <v>0.005518641349619699</v>
       </c>
       <c r="V2">
-        <v>0.0006674652246463611</v>
+        <v>0.0005371698157273979</v>
       </c>
       <c r="W2">
-        <v>0.0005456043537565691</v>
+        <v>0.0002257670240013702</v>
       </c>
       <c r="X2">
-        <v>0.001721284801318313</v>
+        <v>0.001051957555799488</v>
       </c>
       <c r="Y2">
-        <v>0.0005636065278652884</v>
+        <v>7.687756420736312E-05</v>
       </c>
       <c r="Z2">
-        <v>0.001463715233301252</v>
+        <v>0.001644595993803085</v>
       </c>
       <c r="AA2">
-        <v>0.001164602186571763</v>
+        <v>0.001186250009731337</v>
       </c>
       <c r="AB2">
-        <v>0.0002991130467294896</v>
+        <v>0.0002306326926220894</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000297728264105742</v>
+        <v>0.0003454624720710621</v>
       </c>
       <c r="AG2">
-        <v>0.0007796326171699197</v>
+        <v>0.001105479910627399</v>
       </c>
       <c r="AH2">
-        <v>0.002733560899277836</v>
+        <v>0.002606052113257195</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001232456535135397</v>
+        <v>0.0006422682579349324</v>
       </c>
       <c r="C3">
-        <v>2.21565219799622E-05</v>
+        <v>1.265073841386988E-05</v>
       </c>
       <c r="D3">
-        <v>7.616304430612005E-05</v>
+        <v>6.130742462106173E-05</v>
       </c>
       <c r="E3">
-        <v>9.693478366233461E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="F3">
-        <v>2.354130460370983E-05</v>
+        <v>2.530147682773976E-05</v>
       </c>
       <c r="G3">
-        <v>0.002584004375913091</v>
+        <v>0.002812356462775689</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.908043509870038E-05</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="J3">
-        <v>1.938695673246692E-05</v>
+        <v>2.140894193116441E-05</v>
       </c>
       <c r="K3">
-        <v>0.001106441316374362</v>
+        <v>0.0007862920491082203</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001066282620285681</v>
+        <v>0.0001060715759316782</v>
       </c>
       <c r="N3">
-        <v>0.001240765230877883</v>
+        <v>0.000775587578142638</v>
       </c>
       <c r="O3">
-        <v>4.569782658367203E-05</v>
+        <v>6.130742462106173E-05</v>
       </c>
       <c r="P3">
-        <v>0.000343426090689414</v>
+        <v>0.0002851281811741442</v>
       </c>
       <c r="Q3">
-        <v>0.002402597852202151</v>
+        <v>0.002218744891047948</v>
       </c>
       <c r="R3">
-        <v>2.492608722745747E-05</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="S3">
-        <v>0.001550956538597354</v>
+        <v>0.001097694840834248</v>
       </c>
       <c r="T3">
-        <v>0.000217410871928379</v>
+        <v>0.0002160356867599318</v>
       </c>
       <c r="U3">
-        <v>2.21565219799622E-05</v>
+        <v>1.167760468972604E-05</v>
       </c>
       <c r="V3">
-        <v>0.001210300013155435</v>
+        <v>0.001463593121112331</v>
       </c>
       <c r="W3">
-        <v>4.154347871242912E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.292826133617675E-05</v>
+        <v>4.087161641404115E-05</v>
       </c>
       <c r="Y3">
-        <v>1.523260886122401E-05</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="Z3">
-        <v>2.354130460370983E-05</v>
+        <v>2.043580820702058E-05</v>
       </c>
       <c r="AA3">
-        <v>3.877391346493384E-05</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="AB3">
-        <v>0.0003018826119769849</v>
+        <v>0.0002257670240013702</v>
       </c>
       <c r="AC3">
-        <v>0.0001634043496022212</v>
+        <v>0.0002131162855875003</v>
       </c>
       <c r="AD3">
-        <v>0.003160073947392108</v>
+        <v>0.004812146265891274</v>
       </c>
       <c r="AE3">
-        <v>0.0003531195690556475</v>
+        <v>4.768355248304801E-05</v>
       </c>
       <c r="AF3">
-        <v>2.631086985120511E-05</v>
+        <v>0.0001119103782765413</v>
       </c>
       <c r="AG3">
-        <v>8.862608791984878E-05</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="AH3">
-        <v>0.0002561847853933129</v>
+        <v>0.0006412951242107885</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.007927880520955223</v>
+        <v>0.00710387618625001</v>
       </c>
       <c r="C4">
-        <v>0.0003074217424719754</v>
+        <v>0.000179056605242466</v>
       </c>
       <c r="D4">
-        <v>0.0005760695714790171</v>
+        <v>0.0004155281002094184</v>
       </c>
       <c r="E4">
-        <v>0.0005871478324689981</v>
+        <v>0.0004924056644167815</v>
       </c>
       <c r="F4">
-        <v>0.0007810173997936674</v>
+        <v>0.001234906695938529</v>
       </c>
       <c r="G4">
-        <v>0.006576332680177529</v>
+        <v>0.006571572039143331</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.001087054359643E-05</v>
+        <v>4.962981993133569E-05</v>
       </c>
       <c r="J4">
-        <v>0.0005414500058853261</v>
+        <v>0.0006121011124864735</v>
       </c>
       <c r="K4">
-        <v>0.004341293525448843</v>
+        <v>0.003980116931748293</v>
       </c>
       <c r="L4">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001111980446869353</v>
+        <v>0.0005644175600034255</v>
       </c>
       <c r="N4">
-        <v>0.001117519577364343</v>
+        <v>0.001198900748145207</v>
       </c>
       <c r="O4">
-        <v>0.0004874434835591683</v>
+        <v>0.0002812356462775689</v>
       </c>
       <c r="P4">
-        <v>0.001718515236070818</v>
+        <v>0.002501926804773805</v>
       </c>
       <c r="Q4">
-        <v>0.008031739217736296</v>
+        <v>0.007603093786735798</v>
       </c>
       <c r="R4">
-        <v>0.001053819576671952</v>
+        <v>0.001180411207386474</v>
       </c>
       <c r="S4">
-        <v>0.0011133652294931</v>
+        <v>0.000823271130625686</v>
       </c>
       <c r="T4">
-        <v>0.003208541339223275</v>
+        <v>0.0051790176798935</v>
       </c>
       <c r="U4">
-        <v>0.001048280446176961</v>
+        <v>0.0007035756825559942</v>
       </c>
       <c r="V4">
-        <v>0.001021969576325756</v>
+        <v>0.0006763279382799666</v>
       </c>
       <c r="W4">
-        <v>4.985217445491494E-05</v>
+        <v>1.167760468972604E-05</v>
       </c>
       <c r="X4">
-        <v>0.0001675586974734641</v>
+        <v>6.811936069006858E-05</v>
       </c>
       <c r="Y4">
-        <v>0.0001370934797510161</v>
+        <v>4.865668620719185E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0002478760896508271</v>
+        <v>0.0003444893383469183</v>
       </c>
       <c r="AA4">
-        <v>0.001156293490829277</v>
+        <v>0.0008563576772465765</v>
       </c>
       <c r="AB4">
-        <v>2.077173935621456E-05</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="AC4">
-        <v>2.769565247495275E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="AD4">
-        <v>0.00335809786258802</v>
+        <v>0.003634654459677231</v>
       </c>
       <c r="AE4">
-        <v>0.0001246304361372873</v>
+        <v>0.0001498625935181509</v>
       </c>
       <c r="AF4">
-        <v>0.0001661739148497165</v>
+        <v>0.0004028773617955485</v>
       </c>
       <c r="AG4">
-        <v>1.384782623747637E-05</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="AH4">
-        <v>0.0003600434821743857</v>
+        <v>0.0002238207565530825</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,103 +894,103 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001883304368296787</v>
+        <v>0.001308864858973461</v>
       </c>
       <c r="C5">
-        <v>2.908043509870038E-05</v>
+        <v>4.47641513106165E-05</v>
       </c>
       <c r="D5">
-        <v>9.278043579109169E-05</v>
+        <v>0.0001216417155179796</v>
       </c>
       <c r="E5">
-        <v>2.21565219799622E-05</v>
+        <v>2.432834310359592E-05</v>
       </c>
       <c r="F5">
-        <v>0.0008918000096934783</v>
+        <v>0.001379903620835961</v>
       </c>
       <c r="G5">
-        <v>0.0004666717442029538</v>
+        <v>0.0009556173171092479</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.539130494990549E-06</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="J5">
-        <v>2.492608722745747E-05</v>
+        <v>7.10387618625001E-05</v>
       </c>
       <c r="K5">
-        <v>0.0009818108802370747</v>
+        <v>0.0006549189963488023</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001827913063346881</v>
+        <v>0.0001284536515869865</v>
       </c>
       <c r="N5">
-        <v>0.00128369349221406</v>
+        <v>0.001981300262356852</v>
       </c>
       <c r="O5">
-        <v>2.769565247495274E-05</v>
+        <v>5.546862227619871E-05</v>
       </c>
       <c r="P5">
-        <v>0.0003060369598482278</v>
+        <v>0.0003493550069676375</v>
       </c>
       <c r="Q5">
-        <v>0.008552417484265407</v>
+        <v>0.01013810713813049</v>
       </c>
       <c r="R5">
-        <v>6.785434856363422E-05</v>
+        <v>0.0001401312562767125</v>
       </c>
       <c r="S5">
-        <v>0.001701897844585846</v>
+        <v>0.0006296175195210625</v>
       </c>
       <c r="T5">
-        <v>0.0001080130446523157</v>
+        <v>0.0001294267853111303</v>
       </c>
       <c r="U5">
-        <v>2.631086985120511E-05</v>
+        <v>4.087161641404115E-05</v>
       </c>
       <c r="V5">
-        <v>0.000797634791278639</v>
+        <v>0.0005196534086928089</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="X5">
-        <v>5.539130494990549E-06</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="Z5">
-        <v>2.631086985120511E-05</v>
+        <v>5.644175600034255E-05</v>
       </c>
       <c r="AA5">
-        <v>1.938695673246692E-05</v>
+        <v>8.758203517294532E-06</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.523260886122401E-05</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.154347871242912E-06</v>
+        <v>1.946267448287674E-05</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005230323969894826</v>
+        <v>0.006380837829211139</v>
       </c>
       <c r="C6">
-        <v>0.0001024739141573251</v>
+        <v>3.308654662089046E-05</v>
       </c>
       <c r="D6">
-        <v>0.001477563059538729</v>
+        <v>0.0008943098924881861</v>
       </c>
       <c r="E6">
-        <v>6.923913118738186E-05</v>
+        <v>2.62746105518836E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001093978272760633</v>
+        <v>5.352235482791103E-05</v>
       </c>
       <c r="G6">
-        <v>0.005734384844938966</v>
+        <v>0.005234486302169699</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001010891315335775</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="J6">
-        <v>8.031739217736296E-05</v>
+        <v>5.546862227619871E-05</v>
       </c>
       <c r="K6">
-        <v>0.002916352205612524</v>
+        <v>0.002676117741395552</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0004334369612330104</v>
+        <v>0.0003775758849678087</v>
       </c>
       <c r="N6">
-        <v>0.0006813130508838375</v>
+        <v>0.0007133070197974325</v>
       </c>
       <c r="O6">
-        <v>0.0001703282627209594</v>
+        <v>7.298502931078777E-05</v>
       </c>
       <c r="P6">
-        <v>0.002095176109730175</v>
+        <v>0.00238904329277312</v>
       </c>
       <c r="Q6">
-        <v>0.004344063090696338</v>
+        <v>0.00462335832340737</v>
       </c>
       <c r="R6">
-        <v>0.0003060369598482278</v>
+        <v>0.000143050657449144</v>
       </c>
       <c r="S6">
-        <v>0.001143830447215548</v>
+        <v>0.001876201820149318</v>
       </c>
       <c r="T6">
-        <v>0.0007630152256849481</v>
+        <v>0.0004174743676577061</v>
       </c>
       <c r="U6">
-        <v>0.0001550956538597354</v>
+        <v>0.0002977789195880141</v>
       </c>
       <c r="V6">
-        <v>0.001856993498445582</v>
+        <v>0.001822679465321407</v>
       </c>
       <c r="W6">
-        <v>4.154347871242912E-06</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="X6">
-        <v>5.95456528211484E-05</v>
+        <v>8.9528302621233E-05</v>
       </c>
       <c r="Y6">
-        <v>0.000423743482866777</v>
+        <v>0.0003785490186919526</v>
       </c>
       <c r="Z6">
-        <v>7.754782692986769E-05</v>
+        <v>0.0001119103782765413</v>
       </c>
       <c r="AA6">
-        <v>9.831956628608224E-05</v>
+        <v>9.244770379366451E-05</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>3.73891308411862E-05</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="AD6">
-        <v>0.0007353195732099953</v>
+        <v>0.0005760951646931515</v>
       </c>
       <c r="AE6">
-        <v>0.0004098956566293006</v>
+        <v>0.001014978474282022</v>
       </c>
       <c r="AF6">
-        <v>1.10782609899811E-05</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="AG6">
-        <v>3.046521772244802E-05</v>
+        <v>1.459700586215755E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0003946630477680766</v>
+        <v>0.0003055639893811648</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,85 +1102,85 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004971369619254018</v>
+        <v>0.000274423710208562</v>
       </c>
       <c r="C7">
-        <v>0.001962236977850402</v>
+        <v>0.002659574468085106</v>
       </c>
       <c r="D7">
-        <v>0.004633482659059594</v>
+        <v>0.004821877603132712</v>
       </c>
       <c r="E7">
-        <v>0.003154534816897118</v>
+        <v>0.004291519723474321</v>
       </c>
       <c r="F7">
-        <v>0.0043080587424789</v>
+        <v>0.004481280799682369</v>
       </c>
       <c r="G7">
-        <v>0.002086867413987689</v>
+        <v>0.00228005231566901</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001329391318797732</v>
+        <v>0.001145378393317296</v>
       </c>
       <c r="J7">
-        <v>0.002082713066116446</v>
+        <v>0.002401694031186989</v>
       </c>
       <c r="K7">
-        <v>0.001146600012463044</v>
+        <v>0.001653354197320379</v>
       </c>
       <c r="L7">
-        <v>0.00249676307061699</v>
+        <v>0.00262259538656764</v>
       </c>
       <c r="M7">
-        <v>0.002675400029080435</v>
+        <v>0.00255155662470514</v>
       </c>
       <c r="N7">
-        <v>0.007297804427150048</v>
+        <v>0.006703918225626893</v>
       </c>
       <c r="O7">
-        <v>0.004508852222922307</v>
+        <v>0.006197888689072097</v>
       </c>
       <c r="P7">
-        <v>0.01032078489479114</v>
+        <v>0.01092245291979043</v>
       </c>
       <c r="Q7">
-        <v>0.001372319580133908</v>
+        <v>0.001680601941596406</v>
       </c>
       <c r="R7">
-        <v>0.002888656553137571</v>
+        <v>0.003865287152299321</v>
       </c>
       <c r="S7">
-        <v>0.008040047913478782</v>
+        <v>0.007611851990253092</v>
       </c>
       <c r="T7">
-        <v>0.007350426166852458</v>
+        <v>0.007343267082389394</v>
       </c>
       <c r="U7">
-        <v>0.006374154417110374</v>
+        <v>0.007797720531564565</v>
       </c>
       <c r="V7">
-        <v>0.0007740934866749292</v>
+        <v>0.0008651158807638711</v>
       </c>
       <c r="W7">
-        <v>0.0001689434800972118</v>
+        <v>0.0001002327735868152</v>
       </c>
       <c r="X7">
-        <v>0.0008239456611298441</v>
+        <v>0.001000381468419864</v>
       </c>
       <c r="Y7">
-        <v>0.000686852181378828</v>
+        <v>0.0004972713330375007</v>
       </c>
       <c r="Z7">
-        <v>0.001550956538597354</v>
+        <v>0.002143813594288873</v>
       </c>
       <c r="AA7">
-        <v>0.0008654891398422733</v>
+        <v>0.001137593323524145</v>
       </c>
       <c r="AB7">
-        <v>0.0007353195732099953</v>
+        <v>0.000990650131178426</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.0002201804371758743</v>
+        <v>0.000346435605795206</v>
       </c>
       <c r="AG7">
-        <v>0.000126015218761035</v>
+        <v>0.0003152953266226031</v>
       </c>
       <c r="AH7">
-        <v>0.0003143456555907137</v>
+        <v>0.0006675697347626722</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1206,82 +1206,82 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.600594779332197E-05</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6.130742462106173E-05</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>8.758203517294532E-06</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3.016714544845895E-05</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5.157608737962336E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.140894193116441E-05</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.919401172431511E-05</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.432834310359592E-05</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.919401172431511E-05</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.822087800017127E-05</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>7.10387618625001E-05</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>6.422682579349324E-05</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4.47641513106165E-05</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>3.69790815174658E-05</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>4.184475013818499E-05</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.0001566745295871577</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>3.892534896575348E-06</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1310,79 +1310,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00151772175562741</v>
+        <v>0.001555067691181851</v>
       </c>
       <c r="C9">
-        <v>5.400652232615785E-05</v>
+        <v>6.033429089691789E-05</v>
       </c>
       <c r="D9">
-        <v>3.32347829699433E-05</v>
+        <v>4.379101758647266E-05</v>
       </c>
       <c r="E9">
-        <v>2.492608722745747E-05</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="F9">
-        <v>0.0009527304451383745</v>
+        <v>0.0009916232649025698</v>
       </c>
       <c r="G9">
-        <v>0.003585202212882633</v>
+        <v>0.005778468053966103</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="I9">
-        <v>8.308695742485824E-06</v>
+        <v>8.758203517294532E-06</v>
       </c>
       <c r="J9">
-        <v>1.246304361372874E-05</v>
+        <v>1.362387213801372E-05</v>
       </c>
       <c r="K9">
-        <v>0.001589730452062287</v>
+        <v>0.001643622860078941</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0002160260893046314</v>
+        <v>8.563576772465765E-05</v>
       </c>
       <c r="N9">
-        <v>2.077173935621456E-05</v>
+        <v>3.405968034503429E-05</v>
       </c>
       <c r="O9">
-        <v>1.246304361372874E-05</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="P9">
-        <v>0.001074591316028166</v>
+        <v>0.0009176651018676383</v>
       </c>
       <c r="Q9">
-        <v>9.831956628608224E-05</v>
+        <v>8.660890144880149E-05</v>
       </c>
       <c r="R9">
-        <v>1.661739148497165E-05</v>
+        <v>5.060295365547952E-05</v>
       </c>
       <c r="S9">
-        <v>1.10782609899811E-05</v>
+        <v>1.167760468972604E-05</v>
       </c>
       <c r="T9">
-        <v>5.539130494990549E-05</v>
+        <v>6.033429089691789E-05</v>
       </c>
       <c r="U9">
-        <v>1.246304361372874E-05</v>
+        <v>7.10387618625001E-05</v>
       </c>
       <c r="V9">
-        <v>0.0003032673946007325</v>
+        <v>0.0002530147682773976</v>
       </c>
       <c r="W9">
-        <v>5.539130494990549E-06</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>2.769565247495275E-06</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="Y9">
-        <v>4.154347871242912E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="Z9">
-        <v>4.292826133617675E-05</v>
+        <v>2.140894193116441E-05</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>3.461956559369093E-05</v>
+        <v>2.530147682773976E-05</v>
       </c>
       <c r="AF9">
-        <v>8.308695742485824E-06</v>
+        <v>2.238207565530825E-05</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AH9">
-        <v>8.308695742485824E-06</v>
+        <v>1.557013958630139E-05</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1414,103 +1414,103 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005710843540335256</v>
+        <v>0.005766790449276378</v>
       </c>
       <c r="C10">
-        <v>0.0001883304368296787</v>
+        <v>0.0001683521342768838</v>
       </c>
       <c r="D10">
-        <v>0.001222763056769164</v>
+        <v>0.001296214120559591</v>
       </c>
       <c r="E10">
-        <v>0.0003088065250957231</v>
+        <v>0.0004943519318650691</v>
       </c>
       <c r="F10">
-        <v>0.001127213055730577</v>
+        <v>0.0008437069388327066</v>
       </c>
       <c r="G10">
-        <v>0.0006785434856363422</v>
+        <v>0.0003114027917260278</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0001357086971272684</v>
+        <v>6.909249441421242E-05</v>
       </c>
       <c r="J10">
-        <v>0.0001135521751473063</v>
+        <v>7.006562813835626E-05</v>
       </c>
       <c r="K10">
-        <v>0.0008031739217736296</v>
+        <v>0.0004602922515200349</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0002755717421257798</v>
+        <v>0.0002092237506909249</v>
       </c>
       <c r="N10">
-        <v>0.0002548000027695652</v>
+        <v>0.0002861013148982881</v>
       </c>
       <c r="O10">
-        <v>0.0004777500051929348</v>
+        <v>0.0003678445477263704</v>
       </c>
       <c r="P10">
-        <v>0.001714360888199575</v>
+        <v>0.002364714949669524</v>
       </c>
       <c r="Q10">
-        <v>0.001006736967464532</v>
+        <v>0.0005838802344863022</v>
       </c>
       <c r="R10">
-        <v>0.0002506456548983223</v>
+        <v>0.0001829491401390413</v>
       </c>
       <c r="S10">
-        <v>0.0003157304382144613</v>
+        <v>0.0002822087800017127</v>
       </c>
       <c r="T10">
-        <v>0.0002326434807896031</v>
+        <v>0.000179056605242466</v>
       </c>
       <c r="U10">
-        <v>8.17021748011106E-05</v>
+        <v>9.634023869023986E-05</v>
       </c>
       <c r="V10">
-        <v>0.0004362065264805057</v>
+        <v>0.0003629788791056512</v>
       </c>
       <c r="W10">
-        <v>1.10782609899811E-05</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="X10">
-        <v>5.539130494990549E-06</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="Y10">
-        <v>2.769565247495274E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="Z10">
-        <v>0.0001066282620285681</v>
+        <v>5.157608737962336E-05</v>
       </c>
       <c r="AA10">
-        <v>2.631086985120511E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>2.769565247495274E-05</v>
+        <v>3.892534896575348E-05</v>
       </c>
       <c r="AD10">
-        <v>0.0005428347885090737</v>
+        <v>0.0003736833500712334</v>
       </c>
       <c r="AE10">
-        <v>0.0001121673925235586</v>
+        <v>0.001576476633113016</v>
       </c>
       <c r="AF10">
-        <v>2.077173935621456E-05</v>
+        <v>3.69790815174658E-05</v>
       </c>
       <c r="AG10">
-        <v>1.384782623747637E-06</v>
+        <v>0.0001975461460011989</v>
       </c>
       <c r="AH10">
-        <v>0.0002811108726207703</v>
+        <v>0.0006335100544176378</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1518,103 +1518,103 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0008585652267235351</v>
+        <v>0.0002899938497948634</v>
       </c>
       <c r="C11">
-        <v>0.001203376100036697</v>
+        <v>0.001603724377389043</v>
       </c>
       <c r="D11">
-        <v>0.004450691352724906</v>
+        <v>0.005019423749133911</v>
       </c>
       <c r="E11">
-        <v>0.001276769579095321</v>
+        <v>0.0008874979564191793</v>
       </c>
       <c r="F11">
-        <v>0.002621393506754277</v>
+        <v>0.002979735463328429</v>
       </c>
       <c r="G11">
-        <v>0.002937123944968738</v>
+        <v>0.002476625327946065</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0005331413101428403</v>
+        <v>0.0004398564433130143</v>
       </c>
       <c r="J11">
-        <v>0.003427336993775402</v>
+        <v>0.002855174346638018</v>
       </c>
       <c r="K11">
-        <v>0.002428908722053355</v>
+        <v>0.001733151162700174</v>
       </c>
       <c r="L11">
-        <v>0.002013473934929065</v>
+        <v>0.001238799230835104</v>
       </c>
       <c r="M11">
-        <v>0.004619634832822118</v>
+        <v>0.002750075904430483</v>
       </c>
       <c r="N11">
-        <v>0.005744078323305199</v>
+        <v>0.006702945091902749</v>
       </c>
       <c r="O11">
-        <v>0.003586586995506381</v>
+        <v>0.003530529151193841</v>
       </c>
       <c r="P11">
-        <v>0.006568023984435043</v>
+        <v>0.005995476874450179</v>
       </c>
       <c r="Q11">
-        <v>0.002007934804434074</v>
+        <v>0.001664058668285961</v>
       </c>
       <c r="R11">
-        <v>0.003376100036696739</v>
+        <v>0.002877556422293326</v>
       </c>
       <c r="S11">
-        <v>0.002334743503638517</v>
+        <v>0.0009283695728332205</v>
       </c>
       <c r="T11">
-        <v>0.00623013702424062</v>
+        <v>0.004517286747475691</v>
       </c>
       <c r="U11">
-        <v>0.006144280501568266</v>
+        <v>0.006065542502588536</v>
       </c>
       <c r="V11">
-        <v>0.0005733000062315218</v>
+        <v>0.0005887459031070214</v>
       </c>
       <c r="W11">
-        <v>0.000282495655244518</v>
+        <v>0.000173217802897603</v>
       </c>
       <c r="X11">
-        <v>0.001980239151959121</v>
+        <v>0.001730231761527742</v>
       </c>
       <c r="Y11">
-        <v>0.001287847840085303</v>
+        <v>0.0009244770379366451</v>
       </c>
       <c r="Z11">
-        <v>0.003287473948776891</v>
+        <v>0.002611890915602059</v>
       </c>
       <c r="AA11">
-        <v>0.000660541311527623</v>
+        <v>0.000763909973452912</v>
       </c>
       <c r="AB11">
-        <v>0.0003877391346493384</v>
+        <v>0.000184895407587329</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.000217410871928379</v>
+        <v>0.0002530147682773976</v>
       </c>
       <c r="AG11">
-        <v>0.0004666717442029538</v>
+        <v>0.0003143221928984593</v>
       </c>
       <c r="AH11">
-        <v>0.001866686976811815</v>
+        <v>0.001711742220769009</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1622,85 +1622,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0002478760896508271</v>
+        <v>0.0001401312562767125</v>
       </c>
       <c r="C12">
-        <v>0.0004043565261343101</v>
+        <v>0.0002335520937945209</v>
       </c>
       <c r="D12">
-        <v>0.0007685543561799387</v>
+        <v>0.0005936115717277405</v>
       </c>
       <c r="E12">
-        <v>0.0004223587002430294</v>
+        <v>0.000215062553035788</v>
       </c>
       <c r="F12">
-        <v>0.0006480782679138943</v>
+        <v>0.0006588115312453776</v>
       </c>
       <c r="G12">
-        <v>0.0001232456535135397</v>
+        <v>0.0001041253084833905</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0001786369584634452</v>
+        <v>0.0001566745295871577</v>
       </c>
       <c r="J12">
-        <v>0.0003060369598482278</v>
+        <v>0.000131373052759418</v>
       </c>
       <c r="K12">
-        <v>0.0006771587030125946</v>
+        <v>0.0007064950837284256</v>
       </c>
       <c r="L12">
-        <v>2.769565247495275E-06</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0009610391408808603</v>
+        <v>0.0005206265424169528</v>
       </c>
       <c r="N12">
-        <v>0.0002894195683632562</v>
+        <v>0.0001226148492421235</v>
       </c>
       <c r="O12">
-        <v>0.0005179087012816163</v>
+        <v>0.0004106624315886992</v>
       </c>
       <c r="P12">
-        <v>0.001059358707166942</v>
+        <v>0.001066554561661645</v>
       </c>
       <c r="Q12">
-        <v>0.0005525282668753073</v>
+        <v>0.0003367042685537676</v>
       </c>
       <c r="R12">
-        <v>0.001159063056076772</v>
+        <v>0.0006957906127628435</v>
       </c>
       <c r="S12">
-        <v>0.0003794304389068526</v>
+        <v>0.0002695580415878429</v>
       </c>
       <c r="T12">
-        <v>0.001730978279684547</v>
+        <v>0.001365306614973803</v>
       </c>
       <c r="U12">
-        <v>0.0008294847916248347</v>
+        <v>0.0007600174385563366</v>
       </c>
       <c r="V12">
-        <v>0.0001911000020771739</v>
+        <v>0.0001440237911732879</v>
       </c>
       <c r="W12">
-        <v>0.000110782609899811</v>
+        <v>7.298502931078777E-05</v>
       </c>
       <c r="X12">
-        <v>9.278043579109169E-05</v>
+        <v>4.573728503476033E-05</v>
       </c>
       <c r="Y12">
-        <v>0.0001204760882660444</v>
+        <v>8.758203517294533E-05</v>
       </c>
       <c r="Z12">
-        <v>0.0004334369612330104</v>
+        <v>0.0005274384784859596</v>
       </c>
       <c r="AA12">
-        <v>0.0002409521765320889</v>
+        <v>0.0003094565242777401</v>
       </c>
       <c r="AB12">
-        <v>1.246304361372874E-05</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>9.69347836623346E-05</v>
+        <v>7.006562813835626E-05</v>
       </c>
       <c r="AG12">
-        <v>1.661739148497165E-05</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="AH12">
-        <v>6.231521806864367E-05</v>
+        <v>7.882383165565079E-05</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1726,85 +1726,85 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.007749243562491778</v>
+        <v>0.00749702221080412</v>
       </c>
       <c r="C13">
-        <v>0.0002104869588096409</v>
+        <v>0.0005157608737962336</v>
       </c>
       <c r="D13">
-        <v>0.0008945695749409736</v>
+        <v>0.0006967637464869872</v>
       </c>
       <c r="E13">
-        <v>0.0001523260886122401</v>
+        <v>9.342083751780834E-05</v>
       </c>
       <c r="F13">
-        <v>0.000217410871928379</v>
+        <v>0.0002277132914496579</v>
       </c>
       <c r="G13">
-        <v>0.0009374978362771504</v>
+        <v>0.0006539458626246584</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0001426326102460066</v>
+        <v>0.0001187223143455481</v>
       </c>
       <c r="J13">
-        <v>0.0002229500024233696</v>
+        <v>7.979696537979462E-05</v>
       </c>
       <c r="K13">
-        <v>0.00516939353444993</v>
+        <v>0.002620649119119353</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0002478760896508271</v>
+        <v>0.0003493550069676375</v>
       </c>
       <c r="N13">
-        <v>0.001132752186225567</v>
+        <v>0.0006393488567625009</v>
       </c>
       <c r="O13">
-        <v>0.0001883304368296787</v>
+        <v>0.0001557013958630139</v>
       </c>
       <c r="P13">
-        <v>0.0008377934873673205</v>
+        <v>0.00335049941222723</v>
       </c>
       <c r="Q13">
-        <v>0.01062266750676812</v>
+        <v>0.009553253769920047</v>
       </c>
       <c r="R13">
-        <v>0.0004569782658367203</v>
+        <v>0.0003590863442090758</v>
       </c>
       <c r="S13">
-        <v>0.002398443504330908</v>
+        <v>0.00186160481428716</v>
       </c>
       <c r="T13">
-        <v>0.0008765674008322544</v>
+        <v>0.0008699815493845903</v>
       </c>
       <c r="U13">
-        <v>0.001106441316374362</v>
+        <v>0.0008991755611089053</v>
       </c>
       <c r="V13">
-        <v>0.002258580459332396</v>
+        <v>0.001355575277732365</v>
       </c>
       <c r="W13">
-        <v>1.661739148497165E-05</v>
+        <v>1.362387213801372E-05</v>
       </c>
       <c r="X13">
-        <v>3.046521772244802E-05</v>
+        <v>5.060295365547952E-05</v>
       </c>
       <c r="Y13">
-        <v>0.0002658782637595464</v>
+        <v>2.530147682773976E-05</v>
       </c>
       <c r="Z13">
-        <v>0.0001093978272760633</v>
+        <v>0.0002393908961393839</v>
       </c>
       <c r="AA13">
-        <v>4.154347871242912E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>2.530147682773976E-05</v>
       </c>
       <c r="AF13">
-        <v>7.339347905862477E-05</v>
+        <v>0.0001109372445523974</v>
       </c>
       <c r="AG13">
-        <v>5.539130494990549E-06</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>4.431304395992439E-05</v>
+        <v>0.0001109372445523974</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1830,103 +1830,103 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.005863169628947496</v>
+        <v>0.006918980778662681</v>
       </c>
       <c r="C14">
-        <v>0.0003074217424719754</v>
+        <v>0.0003357311348296237</v>
       </c>
       <c r="D14">
-        <v>0.0009305739231584122</v>
+        <v>0.0008018621886945217</v>
       </c>
       <c r="E14">
-        <v>0.0003960478303918243</v>
+        <v>0.0004768355248304801</v>
       </c>
       <c r="F14">
-        <v>0.0003088065250957231</v>
+        <v>0.0003133490591743155</v>
       </c>
       <c r="G14">
-        <v>0.005727460931820228</v>
+        <v>0.004881238760305487</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.557013958630139E-05</v>
       </c>
       <c r="I14">
-        <v>0.0002991130467294896</v>
+        <v>0.0003950922920023978</v>
       </c>
       <c r="J14">
-        <v>0.0002243347850471172</v>
+        <v>0.000173217802897603</v>
       </c>
       <c r="K14">
-        <v>0.009653319670144779</v>
+        <v>0.008431230585982203</v>
       </c>
       <c r="L14">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.001003967402217037</v>
+        <v>0.001038333683661474</v>
       </c>
       <c r="N14">
-        <v>0.0005165239186578687</v>
+        <v>0.0002929132509672949</v>
       </c>
       <c r="O14">
-        <v>0.0001883304368296787</v>
+        <v>0.0001936536111046235</v>
       </c>
       <c r="P14">
-        <v>0.001053819576671952</v>
+        <v>0.0009711874566955493</v>
       </c>
       <c r="Q14">
-        <v>0.007416895732792345</v>
+        <v>0.006807070400386139</v>
       </c>
       <c r="R14">
-        <v>0.0007920956607836485</v>
+        <v>0.0006364294555900693</v>
       </c>
       <c r="S14">
-        <v>0.0001634043496022212</v>
+        <v>0.000184895407587329</v>
       </c>
       <c r="T14">
-        <v>0.002392904373835917</v>
+        <v>0.002408505967255996</v>
       </c>
       <c r="U14">
-        <v>0.0004223587002430294</v>
+        <v>0.0003707639488988019</v>
       </c>
       <c r="V14">
-        <v>0.001733747844932042</v>
+        <v>0.001727312360355311</v>
       </c>
       <c r="W14">
-        <v>3.32347829699433E-05</v>
+        <v>3.989848268989731E-05</v>
       </c>
       <c r="X14">
-        <v>4.708260920741967E-05</v>
+        <v>3.503281406917813E-05</v>
       </c>
       <c r="Y14">
-        <v>1.800217410871929E-05</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="Z14">
-        <v>0.0003752760910356097</v>
+        <v>0.000716226420969864</v>
       </c>
       <c r="AA14">
-        <v>6.923913118738186E-05</v>
+        <v>2.238207565530825E-05</v>
       </c>
       <c r="AB14">
-        <v>1.10782609899811E-05</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="AC14">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.0007145478338537808</v>
+        <v>0.0007785069793150696</v>
       </c>
       <c r="AE14">
-        <v>0.005244171796132302</v>
+        <v>0.004369370421405828</v>
       </c>
       <c r="AF14">
-        <v>6.923913118738186E-05</v>
+        <v>9.244770379366451E-05</v>
       </c>
       <c r="AG14">
-        <v>0.001074591316028166</v>
+        <v>0.001109372445523974</v>
       </c>
       <c r="AH14">
-        <v>0.001996856543444093</v>
+        <v>0.00186160481428716</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -1934,103 +1934,103 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004355141351686319</v>
+        <v>0.00280749079415497</v>
       </c>
       <c r="C15">
-        <v>0.0006300760938051749</v>
+        <v>0.0003386505360020553</v>
       </c>
       <c r="D15">
-        <v>0.0008862608791984878</v>
+        <v>0.0008972292936606177</v>
       </c>
       <c r="E15">
-        <v>0.0003669673952931239</v>
+        <v>0.0002948595184155826</v>
       </c>
       <c r="F15">
-        <v>0.0003946630477680766</v>
+        <v>0.0005050564028306514</v>
       </c>
       <c r="G15">
-        <v>0.00441330222188372</v>
+        <v>0.005159555005410624</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0001232456535135397</v>
+        <v>0.0001644595993803085</v>
       </c>
       <c r="J15">
-        <v>0.0002755717421257798</v>
+        <v>0.0002101968844150688</v>
       </c>
       <c r="K15">
-        <v>0.004544856571139746</v>
+        <v>0.003341741208709936</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0006439239200426514</v>
+        <v>0.0004651579201407541</v>
       </c>
       <c r="N15">
-        <v>0.0003461956559369093</v>
+        <v>0.0002812356462775689</v>
       </c>
       <c r="O15">
-        <v>0.0005192934839053639</v>
+        <v>0.0002724774427602743</v>
       </c>
       <c r="P15">
-        <v>0.001778060888891966</v>
+        <v>0.002975842928431853</v>
       </c>
       <c r="Q15">
-        <v>0.004310828307726395</v>
+        <v>0.005055429696927233</v>
       </c>
       <c r="R15">
-        <v>0.001199221752165454</v>
+        <v>0.0009770262590404124</v>
       </c>
       <c r="S15">
-        <v>0.0003461956559369093</v>
+        <v>0.0003143221928984593</v>
       </c>
       <c r="T15">
-        <v>0.001051050011424457</v>
+        <v>0.001167760468972604</v>
       </c>
       <c r="U15">
-        <v>0.0003198847860857042</v>
+        <v>0.0005128414726238021</v>
       </c>
       <c r="V15">
-        <v>0.002210113067501229</v>
+        <v>0.003013795143673463</v>
       </c>
       <c r="W15">
-        <v>8.724130529610114E-05</v>
+        <v>2.724774427602743E-05</v>
       </c>
       <c r="X15">
-        <v>8.58565226723535E-05</v>
+        <v>9.536710496609602E-05</v>
       </c>
       <c r="Y15">
-        <v>5.816087019740076E-05</v>
+        <v>1.167760468972604E-05</v>
       </c>
       <c r="Z15">
-        <v>0.0002395673939083412</v>
+        <v>0.0005215996761410966</v>
       </c>
       <c r="AA15">
-        <v>8.58565226723535E-05</v>
+        <v>4.379101758647266E-05</v>
       </c>
       <c r="AB15">
-        <v>6.923913118738186E-06</v>
+        <v>1.654327331044523E-05</v>
       </c>
       <c r="AC15">
-        <v>2.769565247495275E-06</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.0009748869671183366</v>
+        <v>0.001011085939385446</v>
       </c>
       <c r="AE15">
-        <v>0.0001190913056422968</v>
+        <v>8.466263400051381E-05</v>
       </c>
       <c r="AF15">
-        <v>8.447174004860588E-05</v>
+        <v>9.536710496609602E-05</v>
       </c>
       <c r="AG15">
-        <v>1.384782623747637E-05</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AH15">
-        <v>0.000530371744895345</v>
+        <v>0.0006004235077967474</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2038,103 +2038,103 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01108103055522859</v>
+        <v>0.01197343734186577</v>
       </c>
       <c r="C16">
-        <v>0.0002077173935621456</v>
+        <v>0.0002792893788292812</v>
       </c>
       <c r="D16">
-        <v>0.0004002021782630672</v>
+        <v>0.0004456952456578773</v>
       </c>
       <c r="E16">
-        <v>0.0003185000034619566</v>
+        <v>0.0001303999190352742</v>
       </c>
       <c r="F16">
-        <v>0.0009915043586033083</v>
+        <v>0.0004992176004857883</v>
       </c>
       <c r="G16">
-        <v>0.00812867400139863</v>
+        <v>0.01342827225946081</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="I16">
-        <v>0.0001855608715821834</v>
+        <v>3.211341289674662E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001647891322259688</v>
+        <v>0.0001352655876559933</v>
       </c>
       <c r="K16">
-        <v>0.008977545749755933</v>
+        <v>0.008614179726121244</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.000721471746972519</v>
+        <v>0.0005507936878654117</v>
       </c>
       <c r="N16">
-        <v>3.877391346493384E-05</v>
+        <v>4.281788386232883E-05</v>
       </c>
       <c r="O16">
-        <v>0.0001177065230185492</v>
+        <v>0.0001284536515869865</v>
       </c>
       <c r="P16">
-        <v>0.003797073954316021</v>
+        <v>0.003423484441538018</v>
       </c>
       <c r="Q16">
-        <v>0.01173464795363748</v>
+        <v>0.01272858911180139</v>
       </c>
       <c r="R16">
-        <v>0.000393278265144329</v>
+        <v>0.0004184475013818499</v>
       </c>
       <c r="S16">
-        <v>0.0001426326102460066</v>
+        <v>0.0001955998785529112</v>
       </c>
       <c r="T16">
-        <v>0.001478947842162476</v>
+        <v>0.0007288771593837339</v>
       </c>
       <c r="U16">
-        <v>0.001467869581172495</v>
+        <v>0.0006442145253832201</v>
       </c>
       <c r="V16">
-        <v>0.002862345683286366</v>
+        <v>0.002876583288569182</v>
       </c>
       <c r="W16">
-        <v>5.123695707866257E-05</v>
+        <v>0.0001449969248974317</v>
       </c>
       <c r="X16">
-        <v>5.95456528211484E-05</v>
+        <v>4.281788386232883E-05</v>
       </c>
       <c r="Y16">
-        <v>0.0006993152249925568</v>
+        <v>0.0001946267448287674</v>
       </c>
       <c r="Z16">
-        <v>0.0003558891343031427</v>
+        <v>0.0004807280597270555</v>
       </c>
       <c r="AA16">
-        <v>6.370000069239131E-05</v>
+        <v>3.600594779332197E-05</v>
       </c>
       <c r="AB16">
-        <v>7.06239138111295E-05</v>
+        <v>0.0001235879829662673</v>
       </c>
       <c r="AC16">
-        <v>1.10782609899811E-05</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.005288484840092226</v>
+        <v>0.002983627998225004</v>
       </c>
       <c r="AE16">
-        <v>0.001123058707859334</v>
+        <v>0.001327354399732194</v>
       </c>
       <c r="AF16">
-        <v>4.569782658367203E-05</v>
+        <v>3.892534896575348E-05</v>
       </c>
       <c r="AG16">
-        <v>0.0001190913056422968</v>
+        <v>0.0001887879424839044</v>
       </c>
       <c r="AH16">
-        <v>0.001167371751819258</v>
+        <v>0.004181555612646068</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2142,103 +2142,103 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0003088065250957231</v>
+        <v>0.000268584907863699</v>
       </c>
       <c r="C17">
-        <v>0.004971369619254018</v>
+        <v>0.005345423546722097</v>
       </c>
       <c r="D17">
-        <v>0.01209192187056437</v>
+        <v>0.01175934792255412</v>
       </c>
       <c r="E17">
-        <v>0.005465737015931924</v>
+        <v>0.006251411043900009</v>
       </c>
       <c r="F17">
-        <v>0.007573376169275828</v>
+        <v>0.006289363259141618</v>
       </c>
       <c r="G17">
-        <v>0.002223960893738706</v>
+        <v>0.003191878615191785</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="I17">
-        <v>0.002236423937352434</v>
+        <v>0.003473114261469354</v>
       </c>
       <c r="J17">
-        <v>0.002229500024233696</v>
+        <v>0.001826572000217982</v>
       </c>
       <c r="K17">
-        <v>0.001757289149535752</v>
+        <v>0.002526255147877401</v>
       </c>
       <c r="L17">
-        <v>0.004609941354455884</v>
+        <v>0.003278487516640587</v>
       </c>
       <c r="M17">
-        <v>0.003412104384914178</v>
+        <v>0.003473114261469354</v>
       </c>
       <c r="N17">
-        <v>0.007663387039819424</v>
+        <v>0.006524861620384427</v>
       </c>
       <c r="O17">
-        <v>0.007318576166506263</v>
+        <v>0.00737538049528614</v>
       </c>
       <c r="P17">
-        <v>0.007065160946360445</v>
+        <v>0.009259367385228609</v>
       </c>
       <c r="Q17">
-        <v>0.001614656539289745</v>
+        <v>0.002356929879876373</v>
       </c>
       <c r="R17">
-        <v>0.003916165259958318</v>
+        <v>0.003957734856092985</v>
       </c>
       <c r="S17">
-        <v>0.008534415310156689</v>
+        <v>0.006268927450934597</v>
       </c>
       <c r="T17">
-        <v>0.009631163148164817</v>
+        <v>0.009419934449712342</v>
       </c>
       <c r="U17">
-        <v>0.006944684858094401</v>
+        <v>0.009207791297848985</v>
       </c>
       <c r="V17">
-        <v>0.000625921745933932</v>
+        <v>0.00106266202676507</v>
       </c>
       <c r="W17">
-        <v>0.0003420413080656664</v>
+        <v>0.000459319117795891</v>
       </c>
       <c r="X17">
-        <v>0.0009070326185547024</v>
+        <v>0.0006159936473830488</v>
       </c>
       <c r="Y17">
-        <v>0.0003392717428181711</v>
+        <v>0.0001897610762080482</v>
       </c>
       <c r="Z17">
-        <v>0.00246768263551829</v>
+        <v>0.004181555612646068</v>
       </c>
       <c r="AA17">
-        <v>0.001123058707859334</v>
+        <v>0.001107426178075686</v>
       </c>
       <c r="AB17">
-        <v>0.0002714173942545369</v>
+        <v>0.000232578960070377</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.000362813047421881</v>
+        <v>0.0004797549260029116</v>
       </c>
       <c r="AG17">
-        <v>0.0003004978293532373</v>
+        <v>0.0007035756825559942</v>
       </c>
       <c r="AH17">
-        <v>0.0008959543575647212</v>
+        <v>0.001470405057181338</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2246,103 +2246,103 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.002305663068539816</v>
+        <v>0.001566745295871577</v>
       </c>
       <c r="C18">
-        <v>7.339347905862477E-05</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="D18">
-        <v>0.0001038586967810728</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="E18">
-        <v>2.077173935621456E-05</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3.461956559369093E-05</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="G18">
-        <v>0.002986976119423653</v>
+        <v>0.002517496944360106</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.246304361372874E-05</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2.769565247495274E-05</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="K18">
-        <v>0.001796063063000685</v>
+        <v>0.0009517247822126725</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0001274000013847826</v>
+        <v>7.590443048321929E-05</v>
       </c>
       <c r="N18">
-        <v>0.001021969576325756</v>
+        <v>0.0005196534086928089</v>
       </c>
       <c r="O18">
-        <v>2.354130460370983E-05</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="P18">
-        <v>0.0002534152201458176</v>
+        <v>0.0001362387213801372</v>
       </c>
       <c r="Q18">
-        <v>0.01079576533473658</v>
+        <v>0.01059937252337467</v>
       </c>
       <c r="R18">
-        <v>0.001123058707859334</v>
+        <v>0.0006432413916590762</v>
       </c>
       <c r="S18">
-        <v>0.007163480512646528</v>
+        <v>0.008269690387774326</v>
       </c>
       <c r="T18">
-        <v>0.0002077173935621456</v>
+        <v>3.405968034503429E-05</v>
       </c>
       <c r="U18">
-        <v>0.0001537108712359877</v>
+        <v>0.0001810028726907537</v>
       </c>
       <c r="V18">
-        <v>0.001177065230185492</v>
+        <v>0.0006500533277280831</v>
       </c>
       <c r="W18">
-        <v>5.539130494990549E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="X18">
-        <v>8.308695742485824E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="Y18">
-        <v>1.384782623747637E-05</v>
+        <v>1.459700586215755E-05</v>
       </c>
       <c r="Z18">
-        <v>4.015869608868148E-05</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="AA18">
-        <v>1.523260886122401E-05</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="AB18">
-        <v>4.154347871242912E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.0003406565254419188</v>
+        <v>0.0002277132914496579</v>
       </c>
       <c r="AE18">
-        <v>0.0001038586967810728</v>
+        <v>6.909249441421242E-05</v>
       </c>
       <c r="AF18">
-        <v>1.800217410871929E-05</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>1.523260886122401E-05</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="AH18">
-        <v>0.0003946630477680766</v>
+        <v>0.0005838802344863022</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2350,103 +2350,103 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.009701787061975947</v>
+        <v>0.007942717456461997</v>
       </c>
       <c r="C19">
-        <v>0.0002395673939083412</v>
+        <v>0.0001761372040700345</v>
       </c>
       <c r="D19">
-        <v>0.0006425391374189036</v>
+        <v>0.0005245190773135281</v>
       </c>
       <c r="E19">
-        <v>0.0006273065285576796</v>
+        <v>0.0001858685413114729</v>
       </c>
       <c r="F19">
-        <v>0.000408510874005553</v>
+        <v>0.0008845785552467478</v>
       </c>
       <c r="G19">
-        <v>0.007151017469032799</v>
+        <v>0.006090843979416276</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.000393278265144329</v>
+        <v>0.0002919401172431511</v>
       </c>
       <c r="J19">
-        <v>0.0001924847847009216</v>
+        <v>6.130742462106173E-05</v>
       </c>
       <c r="K19">
-        <v>0.006185823980280695</v>
+        <v>0.005352235482791103</v>
       </c>
       <c r="L19">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0006176130501914462</v>
+        <v>0.000262746105518836</v>
       </c>
       <c r="N19">
-        <v>0.000156480436483483</v>
+        <v>7.298502931078777E-05</v>
       </c>
       <c r="O19">
-        <v>0.0006383847895476607</v>
+        <v>0.0002656655066912675</v>
       </c>
       <c r="P19">
-        <v>0.00186945654205931</v>
+        <v>0.0007551517699356175</v>
       </c>
       <c r="Q19">
-        <v>0.01010198924023901</v>
+        <v>0.008187947154946244</v>
       </c>
       <c r="R19">
-        <v>0.0003503500038081522</v>
+        <v>0.0002179819542082195</v>
       </c>
       <c r="S19">
-        <v>0.0001855608715821834</v>
+        <v>8.9528302621233E-05</v>
       </c>
       <c r="T19">
-        <v>0.0009831956628608225</v>
+        <v>0.0001693252680010276</v>
       </c>
       <c r="U19">
-        <v>0.0009568847930096174</v>
+        <v>0.0005177071412445212</v>
       </c>
       <c r="V19">
-        <v>0.00315315003427337</v>
+        <v>0.002757860974223634</v>
       </c>
       <c r="W19">
-        <v>8.308695742485824E-05</v>
+        <v>8.077009910393846E-05</v>
       </c>
       <c r="X19">
-        <v>0.0002423369591558365</v>
+        <v>7.785069793150696E-05</v>
       </c>
       <c r="Y19">
-        <v>9.555000103858697E-05</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="Z19">
-        <v>0.0001246304361372873</v>
+        <v>9.050143634537684E-05</v>
       </c>
       <c r="AA19">
-        <v>0.0002852652204920133</v>
+        <v>0.000352274408140069</v>
       </c>
       <c r="AB19">
-        <v>5.400652232615785E-05</v>
+        <v>1.362387213801372E-05</v>
       </c>
       <c r="AC19">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.001726823931813304</v>
+        <v>0.001094775439661817</v>
       </c>
       <c r="AE19">
-        <v>0.0005552978321228025</v>
+        <v>0.00107531276517894</v>
       </c>
       <c r="AF19">
-        <v>1.661739148497165E-05</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="AG19">
-        <v>0.0001758673932159499</v>
+        <v>0.0002218744891047948</v>
       </c>
       <c r="AH19">
-        <v>0.001005352184840785</v>
+        <v>0.0011920888120762</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2454,103 +2454,103 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.002199034806511248</v>
+        <v>0.002297568722703599</v>
       </c>
       <c r="C20">
-        <v>0.0002312586981658554</v>
+        <v>0.0001868416750356167</v>
       </c>
       <c r="D20">
-        <v>0.001658969583249669</v>
+        <v>0.001806136192010961</v>
       </c>
       <c r="E20">
-        <v>0.0001855608715821834</v>
+        <v>0.0001586207970354454</v>
       </c>
       <c r="F20">
-        <v>0.0003212695687094518</v>
+        <v>0.0003902266233816786</v>
       </c>
       <c r="G20">
-        <v>0.003211310904470771</v>
+        <v>0.004588325509338191</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0007833726479357887</v>
       </c>
       <c r="I20">
-        <v>9.970434890982988E-05</v>
+        <v>0.000268584907863699</v>
       </c>
       <c r="J20">
-        <v>9.278043579109169E-05</v>
+        <v>8.9528302621233E-05</v>
       </c>
       <c r="K20">
-        <v>0.002503686983735728</v>
+        <v>0.001729258627803598</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.006234291372111862</v>
+        <v>0.004201018287128944</v>
       </c>
       <c r="N20">
-        <v>0.002614469593635539</v>
+        <v>0.00355583062802158</v>
       </c>
       <c r="O20">
-        <v>0.0009527304451383745</v>
+        <v>0.001562852760975002</v>
       </c>
       <c r="P20">
-        <v>0.0014360195808263</v>
+        <v>0.001674763139251543</v>
       </c>
       <c r="Q20">
-        <v>0.003751376127732349</v>
+        <v>0.003154899533674319</v>
       </c>
       <c r="R20">
-        <v>0.002455219591904561</v>
+        <v>0.002366661217117812</v>
       </c>
       <c r="S20">
-        <v>0.000484673918311673</v>
+        <v>0.0002471759659325346</v>
       </c>
       <c r="T20">
-        <v>0.001819604367604395</v>
+        <v>0.00117165300386918</v>
       </c>
       <c r="U20">
-        <v>0.01429372624232311</v>
+        <v>0.01197149107441748</v>
       </c>
       <c r="V20">
-        <v>0.001023354358949504</v>
+        <v>0.0008505188749017134</v>
       </c>
       <c r="W20">
-        <v>7.06239138111295E-05</v>
+        <v>1.459700586215755E-05</v>
       </c>
       <c r="X20">
-        <v>0.0002658782637595464</v>
+        <v>0.0002462028322083907</v>
       </c>
       <c r="Y20">
-        <v>0.0001093978272760633</v>
+        <v>5.741488972448638E-05</v>
       </c>
       <c r="Z20">
-        <v>0.0003891239172730861</v>
+        <v>0.0006189130485554803</v>
       </c>
       <c r="AA20">
-        <v>0.0001135521751473063</v>
+        <v>0.0001547282621388701</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>4.154347871242912E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="AD20">
-        <v>0.0005068304402916352</v>
+        <v>0.0002393908961393839</v>
       </c>
       <c r="AE20">
-        <v>0.003168382643134594</v>
+        <v>0.003904212501265074</v>
       </c>
       <c r="AF20">
-        <v>6.923913118738186E-05</v>
+        <v>6.32536920693494E-05</v>
       </c>
       <c r="AG20">
-        <v>0.0002423369591558365</v>
+        <v>0.0002753968439327059</v>
       </c>
       <c r="AH20">
-        <v>0.003930013086195794</v>
+        <v>0.004535776288234424</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2558,103 +2558,103 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.00767169573556191</v>
+        <v>0.007115553790939736</v>
       </c>
       <c r="C21">
-        <v>0.0002838804378682657</v>
+        <v>0.000567336961175857</v>
       </c>
       <c r="D21">
-        <v>0.003988173956393195</v>
+        <v>0.003291138255054457</v>
       </c>
       <c r="E21">
-        <v>0.0001384782623747637</v>
+        <v>0.0001265073841386988</v>
       </c>
       <c r="F21">
-        <v>0.0004763652225691872</v>
+        <v>0.0003921728908299663</v>
       </c>
       <c r="G21">
-        <v>0.006750815290769731</v>
+        <v>0.006767171917696243</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.862608791984878E-05</v>
+        <v>8.563576772465765E-05</v>
       </c>
       <c r="J21">
-        <v>0.0001537108712359877</v>
+        <v>0.0001625133319320208</v>
       </c>
       <c r="K21">
-        <v>0.004904900053314131</v>
+        <v>0.004938653650029973</v>
       </c>
       <c r="L21">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0009111869664259453</v>
+        <v>0.0007687756420736312</v>
       </c>
       <c r="N21">
-        <v>0.0003018826119769849</v>
+        <v>0.0003902266233816786</v>
       </c>
       <c r="O21">
-        <v>0.0008682587050897685</v>
+        <v>0.0002510685008291099</v>
       </c>
       <c r="P21">
-        <v>0.002174108719283791</v>
+        <v>0.001710769087044865</v>
       </c>
       <c r="Q21">
-        <v>0.01147292403774917</v>
+        <v>0.01773633525624557</v>
       </c>
       <c r="R21">
-        <v>0.0007020847902400521</v>
+        <v>0.0005984772403484597</v>
       </c>
       <c r="S21">
-        <v>0.004252667437528994</v>
+        <v>0.003006010073880312</v>
       </c>
       <c r="T21">
-        <v>0.001841760889584358</v>
+        <v>0.001892745093459763</v>
       </c>
       <c r="U21">
-        <v>0.0003088065250957231</v>
+        <v>0.0004612653852441787</v>
       </c>
       <c r="V21">
-        <v>0.002503686983735728</v>
+        <v>0.001829491401390413</v>
       </c>
       <c r="W21">
-        <v>5.262173970241021E-05</v>
+        <v>1.265073841386988E-05</v>
       </c>
       <c r="X21">
-        <v>6.231521806864367E-05</v>
+        <v>4.962981993133569E-05</v>
       </c>
       <c r="Y21">
-        <v>0.0001149369577710539</v>
+        <v>6.811936069006858E-05</v>
       </c>
       <c r="Z21">
-        <v>0.0002866500031157609</v>
+        <v>0.0006558921300729461</v>
       </c>
       <c r="AA21">
-        <v>4.708260920741967E-05</v>
+        <v>2.919401172431511E-05</v>
       </c>
       <c r="AB21">
-        <v>3.185000034619566E-05</v>
+        <v>2.530147682773976E-05</v>
       </c>
       <c r="AC21">
-        <v>1.661739148497165E-05</v>
+        <v>1.654327331044523E-05</v>
       </c>
       <c r="AD21">
-        <v>0.001724054366565808</v>
+        <v>0.001377957353387673</v>
       </c>
       <c r="AE21">
-        <v>0.004633482659059594</v>
+        <v>0.007792854862943847</v>
       </c>
       <c r="AF21">
-        <v>8.447174004860588E-05</v>
+        <v>0.0001712715354493153</v>
       </c>
       <c r="AG21">
-        <v>0.0001703282627209594</v>
+        <v>4.865668620719185E-05</v>
       </c>
       <c r="AH21">
-        <v>0.0006356152243001654</v>
+        <v>0.0006889786766938365</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2662,85 +2662,85 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0002797260899970227</v>
+        <v>0.0002092237506909249</v>
       </c>
       <c r="C22">
-        <v>0.001502489146766186</v>
+        <v>0.0007502861013148983</v>
       </c>
       <c r="D22">
-        <v>0.001170141317066753</v>
+        <v>0.001549228888836988</v>
       </c>
       <c r="E22">
-        <v>0.0009818108802370747</v>
+        <v>0.001832410802562845</v>
       </c>
       <c r="F22">
-        <v>0.002153336979927576</v>
+        <v>0.002266428443530996</v>
       </c>
       <c r="G22">
-        <v>0.0004223587002430294</v>
+        <v>0.000346435605795206</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001487256537904962</v>
+        <v>0.002040661419529626</v>
       </c>
       <c r="J22">
-        <v>0.0006979304423688092</v>
+        <v>0.0004709967224856171</v>
       </c>
       <c r="K22">
-        <v>0.0006383847895476607</v>
+        <v>0.0005984772403484597</v>
       </c>
       <c r="L22">
-        <v>0.0001232456535135397</v>
+        <v>0.0001819760064148975</v>
       </c>
       <c r="M22">
-        <v>0.001581421756319802</v>
+        <v>0.001096721707110104</v>
       </c>
       <c r="N22">
-        <v>0.002283506546559854</v>
+        <v>0.001353629010284077</v>
       </c>
       <c r="O22">
-        <v>0.001408323928351347</v>
+        <v>0.001921939105184078</v>
       </c>
       <c r="P22">
-        <v>0.001199221752165454</v>
+        <v>0.001137593323524145</v>
       </c>
       <c r="Q22">
-        <v>0.0004278978307380199</v>
+        <v>0.000399957960623117</v>
       </c>
       <c r="R22">
-        <v>0.001658969583249669</v>
+        <v>0.001264100707662844</v>
       </c>
       <c r="S22">
-        <v>0.001413863058846338</v>
+        <v>0.0006889786766938365</v>
       </c>
       <c r="T22">
-        <v>0.002102100022848913</v>
+        <v>0.001680601941596406</v>
       </c>
       <c r="U22">
-        <v>0.001802986976119424</v>
+        <v>0.00222944936201353</v>
       </c>
       <c r="V22">
-        <v>0.0001537108712359877</v>
+        <v>0.0001625133319320208</v>
       </c>
       <c r="W22">
-        <v>7.339347905862477E-05</v>
+        <v>3.016714544845895E-05</v>
       </c>
       <c r="X22">
-        <v>0.0006397695721714084</v>
+        <v>0.0004447221119337335</v>
       </c>
       <c r="Y22">
-        <v>4.154347871242912E-05</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="Z22">
-        <v>0.001254613057115359</v>
+        <v>0.001479163260698632</v>
       </c>
       <c r="AA22">
-        <v>0.00075609131256621</v>
+        <v>0.0006724354033833913</v>
       </c>
       <c r="AB22">
-        <v>0.0002644934811357987</v>
+        <v>0.0002968057858638703</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>9.001087054359643E-05</v>
+        <v>0.0001060715759316782</v>
       </c>
       <c r="AG22">
-        <v>0.001262921752857845</v>
+        <v>0.0008767934854535971</v>
       </c>
       <c r="AH22">
-        <v>0.0001509413059884925</v>
+        <v>0.0001498625935181509</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2766,22 +2766,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003558891343031427</v>
+        <v>0.0002549610357256853</v>
       </c>
       <c r="C23">
-        <v>4.154347871242912E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="D23">
-        <v>4.154347871242912E-06</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="E23">
-        <v>2.769565247495275E-06</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4.154347871242912E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="G23">
-        <v>0.0004985217445491494</v>
+        <v>0.0003756296175195211</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2790,46 +2790,46 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.154347871242912E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="K23">
-        <v>0.00050406087504414</v>
+        <v>0.0005449548855205487</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.539130494990549E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="N23">
-        <v>9.001087054359643E-05</v>
+        <v>1.362387213801372E-05</v>
       </c>
       <c r="O23">
-        <v>1.10782609899811E-05</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="P23">
-        <v>1.661739148497165E-05</v>
+        <v>1.654327331044523E-05</v>
       </c>
       <c r="Q23">
-        <v>0.0004777500051929348</v>
+        <v>0.000101205907310959</v>
       </c>
       <c r="R23">
-        <v>9.693478366233461E-06</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="S23">
-        <v>0.0002326434807896031</v>
+        <v>0.0001050984422075344</v>
       </c>
       <c r="T23">
-        <v>5.539130494990549E-05</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="U23">
-        <v>2.631086985120511E-05</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="V23">
-        <v>0.0001038586967810728</v>
+        <v>6.422682579349324E-05</v>
       </c>
       <c r="W23">
-        <v>2.354130460370983E-05</v>
+        <v>1.654327331044523E-05</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AA23">
-        <v>4.154347871242912E-06</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -2850,19 +2850,19 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>1.938695673246692E-05</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="AE23">
-        <v>2.354130460370983E-05</v>
+        <v>0.0002890207160707196</v>
       </c>
       <c r="AF23">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>6.923913118738186E-06</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.946267448287674E-06</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -2870,88 +2870,88 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0009319587057821598</v>
+        <v>0.0005439817517964049</v>
       </c>
       <c r="C24">
-        <v>0.000171713045344707</v>
+        <v>0.000101205907310959</v>
       </c>
       <c r="D24">
-        <v>0.0005345260927665879</v>
+        <v>0.0004739161236580486</v>
       </c>
       <c r="E24">
-        <v>0.0001675586974734641</v>
+        <v>9.050143634537684E-05</v>
       </c>
       <c r="F24">
-        <v>0.0001827913063346881</v>
+        <v>0.0001985192797253427</v>
       </c>
       <c r="G24">
-        <v>0.0001481717407409972</v>
+        <v>0.0001479163260698632</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.093043544489604E-05</v>
+        <v>4.184475013818499E-05</v>
       </c>
       <c r="J24">
-        <v>9.69347836623346E-05</v>
+        <v>7.493129675907545E-05</v>
       </c>
       <c r="K24">
-        <v>0.000671619572517604</v>
+        <v>0.0003892534896575348</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0002935739162344991</v>
+        <v>0.0001829491401390413</v>
       </c>
       <c r="N24">
-        <v>0.0003074217424719754</v>
+        <v>0.0001955998785529112</v>
       </c>
       <c r="O24">
-        <v>0.0003558891343031427</v>
+        <v>0.0001761372040700345</v>
       </c>
       <c r="P24">
-        <v>0.0004999065271728971</v>
+        <v>0.0003960654257265417</v>
       </c>
       <c r="Q24">
-        <v>0.002710019594674126</v>
+        <v>0.002829872869810278</v>
       </c>
       <c r="R24">
-        <v>0.0004985217445491494</v>
+        <v>0.0003629788791056512</v>
       </c>
       <c r="S24">
-        <v>0.000343426090689414</v>
+        <v>0.0001459700586215755</v>
       </c>
       <c r="T24">
-        <v>0.0004902130488066635</v>
+        <v>0.0003795221524160964</v>
       </c>
       <c r="U24">
-        <v>0.0002354130460370983</v>
+        <v>0.0001352655876559933</v>
       </c>
       <c r="V24">
-        <v>0.000373891308411862</v>
+        <v>0.0001839222738631852</v>
       </c>
       <c r="W24">
-        <v>3.046521772244802E-05</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="X24">
-        <v>1.938695673246692E-05</v>
+        <v>2.335520937945209E-05</v>
       </c>
       <c r="Y24">
-        <v>2.492608722745747E-05</v>
+        <v>8.758203517294532E-06</v>
       </c>
       <c r="Z24">
-        <v>6.370000069239131E-05</v>
+        <v>7.298502931078777E-05</v>
       </c>
       <c r="AA24">
-        <v>7.339347905862477E-05</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="AB24">
-        <v>4.154347871242912E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="AC24">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2960,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>6.508478331613895E-05</v>
+        <v>3.600594779332197E-05</v>
       </c>
       <c r="AG24">
-        <v>2.769565247495275E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AH24">
-        <v>1.938695673246692E-05</v>
+        <v>4.379101758647266E-05</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -2974,103 +2974,103 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0009748869671183366</v>
+        <v>0.0007142801535215763</v>
       </c>
       <c r="C25">
-        <v>1.938695673246692E-05</v>
+        <v>1.070447096558221E-05</v>
       </c>
       <c r="D25">
-        <v>0.0002284891329183601</v>
+        <v>7.979696537979462E-05</v>
       </c>
       <c r="E25">
-        <v>1.384782623747637E-05</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="F25">
-        <v>2.21565219799622E-05</v>
+        <v>1.654327331044523E-05</v>
       </c>
       <c r="G25">
-        <v>0.001161832621324268</v>
+        <v>0.0007989427875220902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.769565247495275E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="J25">
-        <v>1.10782609899811E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="K25">
-        <v>0.001480332624786224</v>
+        <v>0.0001878148087597605</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0003406565254419188</v>
+        <v>0.0001148297794489728</v>
       </c>
       <c r="N25">
-        <v>8.308695742485824E-06</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="O25">
-        <v>2.21565219799622E-05</v>
+        <v>1.265073841386988E-05</v>
       </c>
       <c r="P25">
-        <v>2.354130460370983E-05</v>
+        <v>4.962981993133569E-05</v>
       </c>
       <c r="Q25">
-        <v>0.000206332610938398</v>
+        <v>0.0002783162451051374</v>
       </c>
       <c r="R25">
-        <v>3.877391346493384E-05</v>
+        <v>5.936115717277405E-05</v>
       </c>
       <c r="S25">
-        <v>1.523260886122401E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="T25">
-        <v>4.569782658367203E-05</v>
+        <v>4.573728503476033E-05</v>
       </c>
       <c r="U25">
-        <v>1.384782623747637E-05</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="V25">
-        <v>0.000297728264105742</v>
+        <v>0.0001810028726907537</v>
       </c>
       <c r="W25">
-        <v>0.0001620195669784736</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="X25">
-        <v>4.154347871242912E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="Y25">
-        <v>5.539130494990549E-06</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>4.154347871242912E-06</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="AA25">
-        <v>4.154347871242912E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="AB25">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.0003046521772244802</v>
+        <v>0.000232578960070377</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>2.769565247495275E-06</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="AG25">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>1.384782623747637E-06</v>
+        <v>8.758203517294532E-06</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3078,85 +3078,85 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.002518919592596952</v>
+        <v>0.00335049941222723</v>
       </c>
       <c r="C26">
-        <v>4.015869608868148E-05</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="D26">
-        <v>0.0001163217403948015</v>
+        <v>6.811936069006858E-05</v>
       </c>
       <c r="E26">
-        <v>2.21565219799622E-05</v>
+        <v>1.265073841386988E-05</v>
       </c>
       <c r="F26">
-        <v>3.600434821743857E-05</v>
+        <v>3.308654662089046E-05</v>
       </c>
       <c r="G26">
-        <v>0.003924473955700804</v>
+        <v>0.004764462713408225</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="I26">
-        <v>6.923913118738186E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="J26">
-        <v>5.539130494990549E-05</v>
+        <v>1.070447096558221E-05</v>
       </c>
       <c r="K26">
-        <v>0.001971930456216635</v>
+        <v>0.002001736070563873</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0007491673994474718</v>
+        <v>0.0003152953266226031</v>
       </c>
       <c r="N26">
-        <v>9.69347836623346E-05</v>
+        <v>4.184475013818499E-05</v>
       </c>
       <c r="O26">
-        <v>2.908043509870038E-05</v>
+        <v>2.238207565530825E-05</v>
       </c>
       <c r="P26">
-        <v>0.001182604360680482</v>
+        <v>0.001065581427937502</v>
       </c>
       <c r="Q26">
-        <v>0.0001772521758396976</v>
+        <v>0.0001148297794489728</v>
       </c>
       <c r="R26">
-        <v>0.0001523260886122401</v>
+        <v>7.10387618625001E-05</v>
       </c>
       <c r="S26">
-        <v>0.0001274000013847826</v>
+        <v>0.0003717370826229457</v>
       </c>
       <c r="T26">
-        <v>0.0001454021754935019</v>
+        <v>5.644175600034255E-05</v>
       </c>
       <c r="U26">
-        <v>0.001919308716514225</v>
+        <v>0.005548808495068158</v>
       </c>
       <c r="V26">
-        <v>0.0005691456583602789</v>
+        <v>0.000794077118901371</v>
       </c>
       <c r="W26">
-        <v>5.539130494990549E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="X26">
-        <v>1.384782623747637E-06</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="Z26">
-        <v>3.461956559369093E-05</v>
+        <v>1.557013958630139E-05</v>
       </c>
       <c r="AA26">
-        <v>8.17021748011106E-05</v>
+        <v>0.0001683521342768838</v>
       </c>
       <c r="AB26">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.0003046521772244802</v>
+        <v>0.0002345252275186647</v>
       </c>
       <c r="AF26">
-        <v>8.308695742485824E-06</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>1.10782609899811E-05</v>
+        <v>8.758203517294532E-06</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3182,79 +3182,79 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.001255997839739107</v>
+        <v>0.001031521747592467</v>
       </c>
       <c r="C27">
-        <v>8.308695742485824E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="D27">
-        <v>4.708260920741967E-05</v>
+        <v>8.563576772465765E-05</v>
       </c>
       <c r="E27">
-        <v>5.539130494990549E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="F27">
-        <v>4.154347871242912E-06</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="G27">
-        <v>0.002329204373143526</v>
+        <v>0.002508738740842812</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="K27">
-        <v>0.001904076107653001</v>
+        <v>0.001655300464768667</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.0005372956580140832</v>
+        <v>0.0006130742462106172</v>
       </c>
       <c r="N27">
-        <v>0.0005705304409840265</v>
+        <v>0.0006013966415208912</v>
       </c>
       <c r="O27">
-        <v>1.661739148497165E-05</v>
+        <v>2.140894193116441E-05</v>
       </c>
       <c r="P27">
-        <v>0.000438976091728001</v>
+        <v>0.0004213669025542814</v>
       </c>
       <c r="Q27">
-        <v>0.0003295782644519376</v>
+        <v>0.0002724774427602743</v>
       </c>
       <c r="R27">
-        <v>4.431304395992439E-05</v>
+        <v>2.62746105518836E-05</v>
       </c>
       <c r="S27">
-        <v>5.539130494990549E-06</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="T27">
-        <v>9.693478366233461E-06</v>
+        <v>1.362387213801372E-05</v>
       </c>
       <c r="U27">
-        <v>0.0001800217410871929</v>
+        <v>3.308654662089046E-05</v>
       </c>
       <c r="V27">
-        <v>0.000393278265144329</v>
+        <v>0.0003143221928984593</v>
       </c>
       <c r="W27">
-        <v>1.384782623747637E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="X27">
-        <v>1.246304361372874E-05</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="Y27">
-        <v>2.769565247495275E-06</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>4.154347871242912E-06</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.0002423369591558365</v>
+        <v>0.0005284116122101035</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AG27">
-        <v>5.539130494990549E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AH27">
-        <v>1.384782623747637E-06</v>
+        <v>2.919401172431511E-06</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3286,85 +3286,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0005054456576678876</v>
+        <v>0.0003474087395193498</v>
       </c>
       <c r="C28">
-        <v>3.046521772244802E-05</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="D28">
-        <v>1.661739148497165E-05</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="E28">
-        <v>8.308695742485824E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="F28">
-        <v>1.384782623747637E-06</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="G28">
-        <v>0.001463715233301252</v>
+        <v>0.001733151162700174</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.0009804260976133271</v>
+        <v>0.0005741488972448638</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>4.154347871242912E-06</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="N28">
-        <v>1.384782623747637E-06</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="O28">
-        <v>2.769565247495275E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="P28">
-        <v>7.200869643487714E-05</v>
+        <v>6.422682579349324E-05</v>
       </c>
       <c r="Q28">
-        <v>4.154347871242912E-06</v>
+        <v>7.785069793150696E-06</v>
       </c>
       <c r="R28">
-        <v>2.769565247495275E-06</v>
+        <v>9.73133724143837E-06</v>
       </c>
       <c r="S28">
-        <v>5.539130494990549E-06</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="T28">
-        <v>6.923913118738186E-06</v>
+        <v>8.758203517294532E-06</v>
       </c>
       <c r="U28">
-        <v>6.923913118738186E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="V28">
-        <v>0.0001370934797510161</v>
+        <v>0.0001294267853111303</v>
       </c>
       <c r="W28">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>2.769565247495275E-06</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2.769565247495275E-06</v>
+        <v>2.919401172431511E-06</v>
       </c>
       <c r="AA28">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3373,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>3.877391346493384E-05</v>
+        <v>2.043580820702058E-05</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.892534896575348E-06</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.0001550956538597354</v>
+        <v>5.741488972448638E-05</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>4.154347871242912E-06</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>4.154347871242912E-06</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>1.10782609899811E-05</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="AH29">
-        <v>0.0001287847840085302</v>
+        <v>0.0002393908961393839</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3494,85 +3494,85 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.001087054359643E-05</v>
+        <v>0.0001138566457248289</v>
       </c>
       <c r="C30">
-        <v>0.0003863543520255908</v>
+        <v>0.0003513012744159251</v>
       </c>
       <c r="D30">
-        <v>0.00161742610453724</v>
+        <v>0.001487921464215927</v>
       </c>
       <c r="E30">
-        <v>0.0003115760903432184</v>
+        <v>0.0001936536111046235</v>
       </c>
       <c r="F30">
-        <v>0.0004015869608868148</v>
+        <v>0.000507002670278939</v>
       </c>
       <c r="G30">
-        <v>0.001733747844932042</v>
+        <v>0.0008184054620049669</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>9.139565316734405E-05</v>
+        <v>7.590443048321929E-05</v>
       </c>
       <c r="J30">
-        <v>0.0002437217417795841</v>
+        <v>0.0002345252275186647</v>
       </c>
       <c r="K30">
-        <v>0.0005622217452415407</v>
+        <v>0.0003931460245541101</v>
       </c>
       <c r="L30">
-        <v>0.00232089567740104</v>
+        <v>0.00153949755159555</v>
       </c>
       <c r="M30">
-        <v>0.0004985217445491494</v>
+        <v>0.0005371698157273979</v>
       </c>
       <c r="N30">
-        <v>0.002207343502253734</v>
+        <v>0.002312165728565756</v>
       </c>
       <c r="O30">
-        <v>0.001891613064039272</v>
+        <v>0.001409097632560276</v>
       </c>
       <c r="P30">
-        <v>0.0007699391388036863</v>
+        <v>0.0009663217880748301</v>
       </c>
       <c r="Q30">
-        <v>0.000267263046383294</v>
+        <v>0.0002890207160707196</v>
       </c>
       <c r="R30">
-        <v>0.0008599500093472827</v>
+        <v>0.0005147877400720897</v>
       </c>
       <c r="S30">
-        <v>0.0004098956566293006</v>
+        <v>0.0003328117336571923</v>
       </c>
       <c r="T30">
-        <v>0.001219993491521668</v>
+        <v>0.001337085736973632</v>
       </c>
       <c r="U30">
-        <v>0.0008308695742485823</v>
+        <v>0.001388661824353255</v>
       </c>
       <c r="V30">
-        <v>0.0001357086971272684</v>
+        <v>0.0001498625935181509</v>
       </c>
       <c r="W30">
-        <v>3.32347829699433E-05</v>
+        <v>4.865668620719185E-06</v>
       </c>
       <c r="X30">
-        <v>0.001573113060577316</v>
+        <v>0.0009672949217989739</v>
       </c>
       <c r="Y30">
-        <v>2.354130460370983E-05</v>
+        <v>4.573728503476033E-05</v>
       </c>
       <c r="Z30">
-        <v>0.0002769565247495274</v>
+        <v>0.0005507936878654117</v>
       </c>
       <c r="AA30">
-        <v>0.0005262173970241021</v>
+        <v>0.0005361966820032542</v>
       </c>
       <c r="AB30">
-        <v>1.661739148497165E-05</v>
+        <v>0.000131373052759418</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>5.677608757365313E-05</v>
+        <v>8.660890144880149E-05</v>
       </c>
       <c r="AG30">
-        <v>1.384782623747637E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="AH30">
-        <v>4.154347871242912E-05</v>
+        <v>6.909249441421242E-05</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3598,85 +3598,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001661739148497165</v>
+        <v>0.0002637192392429798</v>
       </c>
       <c r="C31">
-        <v>0.0004223587002430294</v>
+        <v>0.0005196534086928089</v>
       </c>
       <c r="D31">
-        <v>0.001035817402563233</v>
+        <v>0.001591073638975173</v>
       </c>
       <c r="E31">
-        <v>0.0003905086998968337</v>
+        <v>0.0003444893383469183</v>
       </c>
       <c r="F31">
-        <v>0.0005677608757365313</v>
+        <v>0.0006773010720041105</v>
       </c>
       <c r="G31">
-        <v>0.0008834913139509925</v>
+        <v>0.001219336556352228</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>7.06239138111295E-05</v>
+        <v>8.855516889708917E-05</v>
       </c>
       <c r="J31">
-        <v>0.0004375913091042533</v>
+        <v>0.0004933787981409254</v>
       </c>
       <c r="K31">
-        <v>0.0007837869650411626</v>
+        <v>0.001415909568629283</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.001383397841123889</v>
+        <v>0.002269347844703428</v>
       </c>
       <c r="N31">
-        <v>0.0001384782623747637</v>
+        <v>0.0002763699776568497</v>
       </c>
       <c r="O31">
-        <v>0.0006508478331613895</v>
+        <v>0.00089528302621233</v>
       </c>
       <c r="P31">
-        <v>0.002689247855317912</v>
+        <v>0.003169496539536477</v>
       </c>
       <c r="Q31">
-        <v>0.0005677608757365313</v>
+        <v>0.0009283695728332205</v>
       </c>
       <c r="R31">
-        <v>0.0009167260969209359</v>
+        <v>0.001245611166904111</v>
       </c>
       <c r="S31">
-        <v>0.0002769565247495274</v>
+        <v>0.0002870744486224319</v>
       </c>
       <c r="T31">
-        <v>0.001646506539635941</v>
+        <v>0.002255723972565414</v>
       </c>
       <c r="U31">
-        <v>0.0005733000062315218</v>
+        <v>0.0009663217880748301</v>
       </c>
       <c r="V31">
-        <v>0.000186945654205931</v>
+        <v>0.0003911997571058224</v>
       </c>
       <c r="W31">
-        <v>9.69347836623346E-05</v>
+        <v>3.600594779332197E-05</v>
       </c>
       <c r="X31">
-        <v>0.000110782609899811</v>
+        <v>0.0001897610762080482</v>
       </c>
       <c r="Y31">
-        <v>0.0001398630449985113</v>
+        <v>8.368950027636998E-05</v>
       </c>
       <c r="Z31">
-        <v>0.0003808152215306002</v>
+        <v>0.0008193785957291107</v>
       </c>
       <c r="AA31">
-        <v>0.0006148434849439509</v>
+        <v>0.0005235459435893843</v>
       </c>
       <c r="AB31">
-        <v>3.185000034619566E-05</v>
+        <v>6.422682579349324E-05</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.0001301695666322779</v>
+        <v>0.0002705311753119867</v>
       </c>
       <c r="AG31">
-        <v>0.0004555934832129726</v>
+        <v>0.0004028773617955485</v>
       </c>
       <c r="AH31">
-        <v>0.000843332617862311</v>
+        <v>0.0008466263400051381</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>5.539130494990549E-06</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1.265073841386988E-05</v>
       </c>
       <c r="F32">
-        <v>4.154347871242912E-06</v>
+        <v>5.838802344863021E-06</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3726,58 +3726,58 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>6.923913118738186E-06</v>
+        <v>1.946267448287674E-06</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1.384782623747637E-05</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="M32">
-        <v>0.0001481717407409972</v>
+        <v>5.936115717277405E-05</v>
       </c>
       <c r="N32">
-        <v>0.0001689434800972118</v>
+        <v>1.265073841386988E-05</v>
       </c>
       <c r="O32">
-        <v>0.0001246304361372873</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="P32">
-        <v>4.985217445491494E-05</v>
+        <v>6.811936069006859E-06</v>
       </c>
       <c r="Q32">
-        <v>1.384782623747637E-06</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>8.724130529610114E-05</v>
+        <v>1.459700586215755E-05</v>
       </c>
       <c r="S32">
-        <v>5.816087019740076E-05</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>8.308695742485824E-05</v>
+        <v>3.892534896575348E-06</v>
       </c>
       <c r="U32">
-        <v>0.001596654365181026</v>
+        <v>0.003386505360020553</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>2.908043509870038E-05</v>
+        <v>1.654327331044523E-05</v>
       </c>
       <c r="X32">
-        <v>1.661739148497165E-05</v>
+        <v>1.751640703458906E-05</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>9.73133724143837E-07</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>9.73133724143837E-06</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>2.769565247495275E-06</v>
+        <v>8.758203517294532E-06</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -3806,85 +3806,85 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.370000069239131E-05</v>
+        <v>6.422682579349324E-05</v>
       </c>
       <c r="C33">
-        <v>0.0004265130481142723</v>
+        <v>0.0006159936473830488</v>
       </c>
       <c r="D33">
-        <v>0.0002548000027695652</v>
+        <v>0.0003493550069676375</v>
       </c>
       <c r="E33">
-        <v>0.0001149369577710539</v>
+        <v>9.536710496609602E-05</v>
       </c>
       <c r="F33">
-        <v>0.0004071260913818053</v>
+        <v>0.0005167340075203775</v>
       </c>
       <c r="G33">
-        <v>2.492608722745747E-05</v>
+        <v>6.422682579349324E-05</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.000110782609899811</v>
+        <v>0.0001138566457248289</v>
       </c>
       <c r="J33">
-        <v>0.0002160260893046314</v>
+        <v>0.0001021790410351029</v>
       </c>
       <c r="K33">
-        <v>0.000202178263067155</v>
+        <v>0.0003367042685537676</v>
       </c>
       <c r="L33">
-        <v>1.384782623747637E-05</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.000362813047421881</v>
+        <v>0.0002462028322083907</v>
       </c>
       <c r="N33">
-        <v>0.0001080130446523157</v>
+        <v>7.298502931078777E-05</v>
       </c>
       <c r="O33">
-        <v>0.0001966391325721645</v>
+        <v>0.0002316058263462332</v>
       </c>
       <c r="P33">
-        <v>0.0002686478290070416</v>
+        <v>0.000394119158278254</v>
       </c>
       <c r="Q33">
-        <v>0.0001537108712359877</v>
+        <v>0.000190734209932192</v>
       </c>
       <c r="R33">
-        <v>0.0003060369598482278</v>
+        <v>0.0003503281406917813</v>
       </c>
       <c r="S33">
-        <v>0.000217410871928379</v>
+        <v>0.0001459700586215755</v>
       </c>
       <c r="T33">
-        <v>0.0003655826126693762</v>
+        <v>0.0005605250251068501</v>
       </c>
       <c r="U33">
-        <v>0.0005816087019740076</v>
+        <v>0.0005449548855205487</v>
       </c>
       <c r="V33">
-        <v>4.84673918311673E-05</v>
+        <v>0.0001002327735868152</v>
       </c>
       <c r="W33">
-        <v>4.015869608868148E-05</v>
+        <v>6.033429089691789E-05</v>
       </c>
       <c r="X33">
-        <v>3.73891308411862E-05</v>
+        <v>1.84895407587329E-05</v>
       </c>
       <c r="Y33">
-        <v>9.69347836623346E-05</v>
+        <v>1.946267448287674E-05</v>
       </c>
       <c r="Z33">
-        <v>0.0002409521765320889</v>
+        <v>0.0003688176814505142</v>
       </c>
       <c r="AA33">
-        <v>6.370000069239131E-05</v>
+        <v>3.989848268989731E-05</v>
       </c>
       <c r="AB33">
-        <v>0.00050406087504414</v>
+        <v>0.000215062553035788</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>3.046521772244802E-05</v>
+        <v>4.47641513106165E-05</v>
       </c>
       <c r="AG33">
-        <v>3.877391346493384E-05</v>
+        <v>3.503281406917813E-05</v>
       </c>
       <c r="AH33">
-        <v>3.600434821743857E-05</v>
+        <v>8.368950027636998E-05</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -3910,85 +3910,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0002229500024233696</v>
+        <v>0.0002286864251738017</v>
       </c>
       <c r="C34">
-        <v>0.0005248326144003545</v>
+        <v>0.0005605250251068501</v>
       </c>
       <c r="D34">
-        <v>0.001589730452062287</v>
+        <v>0.00197059579139127</v>
       </c>
       <c r="E34">
-        <v>0.0004569782658367203</v>
+        <v>0.0003746564837953772</v>
       </c>
       <c r="F34">
-        <v>0.0008654891398422733</v>
+        <v>0.001277724579800858</v>
       </c>
       <c r="G34">
-        <v>0.000282495655244518</v>
+        <v>0.0004826743271753431</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.0002880347857395086</v>
+        <v>0.0002958326521397264</v>
       </c>
       <c r="J34">
-        <v>0.0005719152236077742</v>
+        <v>0.002738398299740757</v>
       </c>
       <c r="K34">
-        <v>0.0006951608771213138</v>
+        <v>0.00126799324255942</v>
       </c>
       <c r="L34">
-        <v>0.0001066282620285681</v>
+        <v>3.016714544845895E-05</v>
       </c>
       <c r="M34">
-        <v>0.0009264195752871693</v>
+        <v>0.0009935695323508575</v>
       </c>
       <c r="N34">
-        <v>0.001095363055384381</v>
+        <v>0.001131754521179282</v>
       </c>
       <c r="O34">
-        <v>0.0008502565309810492</v>
+        <v>0.0007736413106943504</v>
       </c>
       <c r="P34">
-        <v>0.002023167413295298</v>
+        <v>0.002330655269324489</v>
       </c>
       <c r="Q34">
-        <v>0.0006314608764289225</v>
+        <v>0.0008378681364878436</v>
       </c>
       <c r="R34">
-        <v>0.001247689143996621</v>
+        <v>0.001231987294766098</v>
       </c>
       <c r="S34">
-        <v>0.0005414500058853261</v>
+        <v>0.0002958326521397264</v>
       </c>
       <c r="T34">
-        <v>0.001537108712359877</v>
+        <v>0.001870363017804455</v>
       </c>
       <c r="U34">
-        <v>0.001933156542751702</v>
+        <v>0.002590481973670894</v>
       </c>
       <c r="V34">
-        <v>0.0002423369591558365</v>
+        <v>0.0003989848268989731</v>
       </c>
       <c r="W34">
-        <v>6.370000069239131E-05</v>
+        <v>0.0002500953671049661</v>
       </c>
       <c r="X34">
-        <v>0.0003503500038081522</v>
+        <v>0.0003435162046227744</v>
       </c>
       <c r="Y34">
-        <v>0.0001024739141573251</v>
+        <v>0.0001070447096558221</v>
       </c>
       <c r="Z34">
-        <v>0.000378045656283105</v>
+        <v>0.0006734085371075352</v>
       </c>
       <c r="AA34">
-        <v>0.0001093978272760633</v>
+        <v>4.768355248304801E-05</v>
       </c>
       <c r="AB34">
-        <v>0.0002686478290070416</v>
+        <v>0.0001566745295871577</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -4000,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.0001052434794048204</v>
+        <v>0.000179056605242466</v>
       </c>
       <c r="AG34">
-        <v>0.0001052434794048204</v>
+        <v>0.0001518088609664386</v>
       </c>
       <c r="AH34">
-        <v>0.0001287847840085302</v>
+        <v>0.0002773431113809936</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross1.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross1.xlsx
@@ -582,85 +582,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0005595518913827063</v>
+        <v>0.0005595578811537986</v>
       </c>
       <c r="C2">
-        <v>0.001015951608006166</v>
+        <v>0.001015962483347071</v>
       </c>
       <c r="D2">
-        <v>0.00589427096713922</v>
+        <v>0.005894334062867058</v>
       </c>
       <c r="E2">
-        <v>0.00163583779028579</v>
+        <v>0.001635855301251366</v>
       </c>
       <c r="F2">
-        <v>0.003024499614639045</v>
+        <v>0.003024531990653923</v>
       </c>
       <c r="G2">
-        <v>0.002198309082840928</v>
+        <v>0.002198332614828576</v>
       </c>
       <c r="H2">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="I2">
-        <v>0.002379311955531681</v>
+        <v>0.002379337425080065</v>
       </c>
       <c r="J2">
-        <v>0.004201018287128944</v>
+        <v>0.004201063257288607</v>
       </c>
       <c r="K2">
-        <v>0.001629025854216783</v>
+        <v>0.001629043292263407</v>
       </c>
       <c r="L2">
-        <v>0.0009351815089022273</v>
+        <v>0.0009351915196326965</v>
       </c>
       <c r="M2">
-        <v>0.007556383367976894</v>
+        <v>0.007556464255929124</v>
       </c>
       <c r="N2">
-        <v>0.009546441833851041</v>
+        <v>0.009546544024554373</v>
       </c>
       <c r="O2">
-        <v>0.004567889701131171</v>
+        <v>0.004567938598497271</v>
       </c>
       <c r="P2">
-        <v>0.005924438112587679</v>
+        <v>0.005924501531242306</v>
       </c>
       <c r="Q2">
-        <v>0.001165814201524317</v>
+        <v>0.001165826681082175</v>
       </c>
       <c r="R2">
-        <v>0.002535986485118839</v>
+        <v>0.002536013631803129</v>
       </c>
       <c r="S2">
-        <v>0.002580750636429456</v>
+        <v>0.002580778262295433</v>
       </c>
       <c r="T2">
-        <v>0.007654669874115422</v>
+        <v>0.007653778670042828</v>
       </c>
       <c r="U2">
-        <v>0.005518641349619699</v>
+        <v>0.00551870042438816</v>
       </c>
       <c r="V2">
-        <v>0.0005371698157273979</v>
+        <v>0.0005371755659076467</v>
       </c>
       <c r="W2">
-        <v>0.0002257670240013702</v>
+        <v>0.0002257694407437935</v>
       </c>
       <c r="X2">
-        <v>0.001051957555799488</v>
+        <v>0.001051968816569141</v>
       </c>
       <c r="Y2">
-        <v>7.687756420736312E-05</v>
+        <v>7.687838714982624E-05</v>
       </c>
       <c r="Z2">
-        <v>0.001644595993803085</v>
+        <v>0.001644613598521599</v>
       </c>
       <c r="AA2">
-        <v>0.001186250009731337</v>
+        <v>0.001186262708046053</v>
       </c>
       <c r="AB2">
-        <v>0.0002306326926220894</v>
+        <v>0.0002306351614494787</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003454624720710621</v>
+        <v>0.0003454661701036496</v>
       </c>
       <c r="AG2">
-        <v>0.001105479910627399</v>
+        <v>0.001105491744331679</v>
       </c>
       <c r="AH2">
-        <v>0.002606052113257195</v>
+        <v>0.002605106865823859</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0006422682579349324</v>
+        <v>0.0006422751331504471</v>
       </c>
       <c r="C3">
-        <v>1.265073841386988E-05</v>
+        <v>1.265087383478153E-05</v>
       </c>
       <c r="D3">
-        <v>6.130742462106173E-05</v>
+        <v>6.130808089163359E-05</v>
       </c>
       <c r="E3">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="F3">
-        <v>2.530147682773976E-05</v>
+        <v>2.530174766956307E-05</v>
       </c>
       <c r="G3">
-        <v>0.002812356462775689</v>
+        <v>0.002812386567886049</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="J3">
-        <v>2.140894193116441E-05</v>
+        <v>2.14091711050149E-05</v>
       </c>
       <c r="K3">
-        <v>0.0007862920491082203</v>
+        <v>0.0007863004660387292</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001060715759316782</v>
+        <v>0.0001060727113839375</v>
       </c>
       <c r="N3">
-        <v>0.000775587578142638</v>
+        <v>0.0007755958804862217</v>
       </c>
       <c r="O3">
-        <v>6.130742462106173E-05</v>
+        <v>6.130808089163359E-05</v>
       </c>
       <c r="P3">
-        <v>0.0002851281811741442</v>
+        <v>0.000285131233353153</v>
       </c>
       <c r="Q3">
-        <v>0.002218744891047948</v>
+        <v>0.002218768641792454</v>
       </c>
       <c r="R3">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="S3">
-        <v>0.001097694840834248</v>
+        <v>0.001097706591202582</v>
       </c>
       <c r="T3">
-        <v>0.0002160356867599318</v>
+        <v>0.0002160379993324231</v>
       </c>
       <c r="U3">
-        <v>1.167760468972604E-05</v>
+        <v>1.167772969364449E-05</v>
       </c>
       <c r="V3">
-        <v>0.001463593121112331</v>
+        <v>0.00146360878827011</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>4.087161641404115E-05</v>
+        <v>4.087205392775573E-05</v>
       </c>
       <c r="Y3">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="Z3">
-        <v>2.043580820702058E-05</v>
+        <v>2.043602696387786E-05</v>
       </c>
       <c r="AA3">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="AB3">
-        <v>0.0002257670240013702</v>
+        <v>0.0002257694407437935</v>
       </c>
       <c r="AC3">
-        <v>0.0002131162855875003</v>
+        <v>0.000213118566909012</v>
       </c>
       <c r="AD3">
-        <v>0.004812146265891274</v>
+        <v>0.004812197777922668</v>
       </c>
       <c r="AE3">
-        <v>4.768355248304801E-05</v>
+        <v>4.768406291571502E-05</v>
       </c>
       <c r="AF3">
-        <v>0.0001119103782765413</v>
+        <v>0.0001119115762307597</v>
       </c>
       <c r="AG3">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="AH3">
-        <v>0.0006412951242107885</v>
+        <v>0.00064130198900931</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00710387618625001</v>
+        <v>0.007102979086159263</v>
       </c>
       <c r="C4">
-        <v>0.000179056605242466</v>
+        <v>0.0001790585219692156</v>
       </c>
       <c r="D4">
-        <v>0.0004155281002094184</v>
+        <v>0.0004155325482655165</v>
       </c>
       <c r="E4">
-        <v>0.0004924056644167815</v>
+        <v>0.0004924109354153428</v>
       </c>
       <c r="F4">
-        <v>0.001234906695938529</v>
+        <v>0.001234919915102905</v>
       </c>
       <c r="G4">
-        <v>0.006571572039143331</v>
+        <v>0.006571642385098438</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.962981993133569E-05</v>
+        <v>4.96303511979891E-05</v>
       </c>
       <c r="J4">
-        <v>0.0006121011124864735</v>
+        <v>0.0006121076647751988</v>
       </c>
       <c r="K4">
-        <v>0.003980116931748293</v>
+        <v>0.003980159537250498</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0005644175600034255</v>
+        <v>0.0005644236018594838</v>
       </c>
       <c r="N4">
-        <v>0.001198900748145207</v>
+        <v>0.001198913581880835</v>
       </c>
       <c r="O4">
-        <v>0.0002812356462775689</v>
+        <v>0.0002812386567886048</v>
       </c>
       <c r="P4">
-        <v>0.002501926804773805</v>
+        <v>0.002501953586863333</v>
       </c>
       <c r="Q4">
-        <v>0.007603093786735798</v>
+        <v>0.007603175174703702</v>
       </c>
       <c r="R4">
-        <v>0.001180411207386474</v>
+        <v>0.001180423843199231</v>
       </c>
       <c r="S4">
-        <v>0.000823271130625686</v>
+        <v>0.0008232799434019368</v>
       </c>
       <c r="T4">
-        <v>0.0051790176798935</v>
+        <v>0.005179073119131333</v>
       </c>
       <c r="U4">
-        <v>0.0007035756825559942</v>
+        <v>0.0007035832140420807</v>
       </c>
       <c r="V4">
-        <v>0.0006763279382799666</v>
+        <v>0.0006763351780902435</v>
       </c>
       <c r="W4">
-        <v>1.167760468972604E-05</v>
+        <v>1.167772969364449E-05</v>
       </c>
       <c r="X4">
-        <v>6.811936069006858E-05</v>
+        <v>6.812008987959288E-05</v>
       </c>
       <c r="Y4">
-        <v>4.865668620719185E-05</v>
+        <v>4.865720705685206E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0003444893383469183</v>
+        <v>0.0003444930259625125</v>
       </c>
       <c r="AA4">
-        <v>0.0008563576772465765</v>
+        <v>0.0008563668442005962</v>
       </c>
       <c r="AB4">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="AC4">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="AD4">
-        <v>0.003634654459677231</v>
+        <v>0.003634693367146849</v>
       </c>
       <c r="AE4">
-        <v>0.0001498625935181509</v>
+        <v>0.0001498641977351043</v>
       </c>
       <c r="AF4">
-        <v>0.0004028773617955485</v>
+        <v>0.000402881674430735</v>
       </c>
       <c r="AG4">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="AH4">
-        <v>0.0002238207565530825</v>
+        <v>0.0002238231524615195</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,82 +894,82 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001308864858973461</v>
+        <v>0.00130887886982932</v>
       </c>
       <c r="C5">
-        <v>4.47641513106165E-05</v>
+        <v>4.476463049230389E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001216417155179796</v>
+        <v>0.0001216430176421301</v>
       </c>
       <c r="E5">
-        <v>2.432834310359592E-05</v>
+        <v>2.432860352842603E-05</v>
       </c>
       <c r="F5">
-        <v>0.001379903620835961</v>
+        <v>0.001379918392132324</v>
       </c>
       <c r="G5">
-        <v>0.0009556173171092479</v>
+        <v>0.0009556275465965743</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="J5">
-        <v>7.10387618625001E-05</v>
+        <v>7.1039522303004E-05</v>
       </c>
       <c r="K5">
-        <v>0.0006549189963488023</v>
+        <v>0.0006549260069852286</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001284536515869865</v>
+        <v>0.0001284550266300894</v>
       </c>
       <c r="N5">
-        <v>0.001981300262356852</v>
+        <v>0.001981321471355016</v>
       </c>
       <c r="O5">
-        <v>5.546862227619871E-05</v>
+        <v>5.546921604481134E-05</v>
       </c>
       <c r="P5">
-        <v>0.0003493550069676375</v>
+        <v>0.0003493587466681977</v>
       </c>
       <c r="Q5">
-        <v>0.01013810713813049</v>
+        <v>0.01013821566236569</v>
       </c>
       <c r="R5">
-        <v>0.0001401312562767125</v>
+        <v>0.0001401327563237339</v>
       </c>
       <c r="S5">
-        <v>0.0006296175195210625</v>
+        <v>0.0006296242593156656</v>
       </c>
       <c r="T5">
-        <v>0.0001294267853111303</v>
+        <v>0.0001294281707712265</v>
       </c>
       <c r="U5">
-        <v>4.087161641404115E-05</v>
+        <v>4.087205392775573E-05</v>
       </c>
       <c r="V5">
-        <v>0.0005196534086928089</v>
+        <v>0.0005196589713671799</v>
       </c>
       <c r="W5">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="X5">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="Y5">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="Z5">
-        <v>5.644175600034255E-05</v>
+        <v>5.644236018594838E-05</v>
       </c>
       <c r="AA5">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006380837829211139</v>
+        <v>0.006380906133435578</v>
       </c>
       <c r="C6">
-        <v>3.308654662089046E-05</v>
+        <v>3.308690079865939E-05</v>
       </c>
       <c r="D6">
-        <v>0.0008943098924881861</v>
+        <v>0.0008943194657049407</v>
       </c>
       <c r="E6">
-        <v>2.62746105518836E-05</v>
+        <v>2.627489181070011E-05</v>
       </c>
       <c r="F6">
-        <v>5.352235482791103E-05</v>
+        <v>5.352292776253726E-05</v>
       </c>
       <c r="G6">
-        <v>0.005234486302169699</v>
+        <v>0.005234542335176144</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="J6">
-        <v>5.546862227619871E-05</v>
+        <v>5.546921604481134E-05</v>
       </c>
       <c r="K6">
-        <v>0.002676117741395552</v>
+        <v>0.002676146388126863</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003775758849678087</v>
+        <v>0.0003775799267611719</v>
       </c>
       <c r="N6">
-        <v>0.0007133070197974325</v>
+        <v>0.0007133146554534511</v>
       </c>
       <c r="O6">
-        <v>7.298502931078777E-05</v>
+        <v>7.298581058527808E-05</v>
       </c>
       <c r="P6">
-        <v>0.00238904329277312</v>
+        <v>0.002389068866491436</v>
       </c>
       <c r="Q6">
-        <v>0.00462335832340737</v>
+        <v>0.004623407814542082</v>
       </c>
       <c r="R6">
-        <v>0.000143050657449144</v>
+        <v>0.000143052188747145</v>
       </c>
       <c r="S6">
-        <v>0.001876201820149318</v>
+        <v>0.001876221904112215</v>
       </c>
       <c r="T6">
-        <v>0.0004174743676577061</v>
+        <v>0.0004174788365477906</v>
       </c>
       <c r="U6">
-        <v>0.0002977789195880141</v>
+        <v>0.0002977821071879345</v>
       </c>
       <c r="V6">
-        <v>0.001822679465321407</v>
+        <v>0.001822698976349678</v>
       </c>
       <c r="W6">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="X6">
-        <v>8.9528302621233E-05</v>
+        <v>8.952926098460778E-05</v>
       </c>
       <c r="Y6">
-        <v>0.0003785490186919526</v>
+        <v>0.000378553070902309</v>
       </c>
       <c r="Z6">
-        <v>0.0001119103782765413</v>
+        <v>0.0001119115762307597</v>
       </c>
       <c r="AA6">
-        <v>9.244770379366451E-05</v>
+        <v>9.24486934080189E-05</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="AD6">
-        <v>0.0005760951646931515</v>
+        <v>0.0005761013315531284</v>
       </c>
       <c r="AE6">
-        <v>0.001014978474282022</v>
+        <v>0.001014989339205934</v>
       </c>
       <c r="AF6">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="AG6">
-        <v>1.459700586215755E-05</v>
+        <v>1.459716211705562E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0003055639893811648</v>
+        <v>0.0003055672603170309</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,85 +1102,85 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.000274423710208562</v>
+        <v>0.0002744266478006456</v>
       </c>
       <c r="C7">
-        <v>0.002659574468085106</v>
+        <v>0.002659602937727533</v>
       </c>
       <c r="D7">
-        <v>0.004821877603132712</v>
+        <v>0.004821929219334039</v>
       </c>
       <c r="E7">
-        <v>0.004291519723474321</v>
+        <v>0.004291565662414351</v>
       </c>
       <c r="F7">
-        <v>0.004481280799682369</v>
+        <v>0.004481328769936074</v>
       </c>
       <c r="G7">
-        <v>0.00228005231566901</v>
+        <v>0.002280076722684087</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001145378393317296</v>
+        <v>0.001145390654118297</v>
       </c>
       <c r="J7">
-        <v>0.002401694031186989</v>
+        <v>0.002401719740326218</v>
       </c>
       <c r="K7">
-        <v>0.001653354197320379</v>
+        <v>0.001653371895791833</v>
       </c>
       <c r="L7">
-        <v>0.00262259538656764</v>
+        <v>0.002622623460364326</v>
       </c>
       <c r="M7">
-        <v>0.00255155662470514</v>
+        <v>0.002551583938061322</v>
       </c>
       <c r="N7">
-        <v>0.006703918225626893</v>
+        <v>0.006703989988293076</v>
       </c>
       <c r="O7">
-        <v>0.006197888689072097</v>
+        <v>0.006197955034901815</v>
       </c>
       <c r="P7">
-        <v>0.01092245291979043</v>
+        <v>0.01092256984012215</v>
       </c>
       <c r="Q7">
-        <v>0.001680601941596406</v>
+        <v>0.00168061993174367</v>
       </c>
       <c r="R7">
-        <v>0.003865287152299321</v>
+        <v>0.003865328528596327</v>
       </c>
       <c r="S7">
-        <v>0.007611851990253092</v>
+        <v>0.007610960327832798</v>
       </c>
       <c r="T7">
-        <v>0.007343267082389394</v>
+        <v>0.007343345689020112</v>
       </c>
       <c r="U7">
-        <v>0.007797720531564565</v>
+        <v>0.00779780400293111</v>
       </c>
       <c r="V7">
-        <v>0.0008651158807638711</v>
+        <v>0.0008651251414708295</v>
       </c>
       <c r="W7">
-        <v>0.0001002327735868152</v>
+        <v>0.0001002338465371152</v>
       </c>
       <c r="X7">
-        <v>0.001000381468419864</v>
+        <v>0.001000392177088878</v>
       </c>
       <c r="Y7">
-        <v>0.0004972713330375007</v>
+        <v>0.000497276656121028</v>
       </c>
       <c r="Z7">
-        <v>0.002143813594288873</v>
+        <v>0.002143836542924901</v>
       </c>
       <c r="AA7">
-        <v>0.001137593323524145</v>
+        <v>0.001137605500989201</v>
       </c>
       <c r="AB7">
-        <v>0.000990650131178426</v>
+        <v>0.0009906607356775078</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.000346435605795206</v>
+        <v>0.0003464393142447866</v>
       </c>
       <c r="AG7">
-        <v>0.0003152953266226031</v>
+        <v>0.0003152987017284013</v>
       </c>
       <c r="AH7">
-        <v>0.0006675697347626722</v>
+        <v>0.0006675768808200102</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1206,82 +1206,82 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="C8">
-        <v>3.600594779332197E-05</v>
+        <v>3.600633322207052E-05</v>
       </c>
       <c r="D8">
-        <v>6.130742462106173E-05</v>
+        <v>6.130808089163359E-05</v>
       </c>
       <c r="E8">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
       <c r="F8">
-        <v>3.016714544845895E-05</v>
+        <v>3.016746837524827E-05</v>
       </c>
       <c r="G8">
-        <v>5.157608737962336E-05</v>
+        <v>5.157663948026318E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.140894193116441E-05</v>
+        <v>2.14091711050149E-05</v>
       </c>
       <c r="J8">
-        <v>2.919401172431511E-05</v>
+        <v>2.919432423411123E-05</v>
       </c>
       <c r="K8">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.432834310359592E-05</v>
+        <v>2.432860352842603E-05</v>
       </c>
       <c r="N8">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="O8">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="P8">
-        <v>2.919401172431511E-05</v>
+        <v>2.919432423411123E-05</v>
       </c>
       <c r="Q8">
-        <v>2.822087800017127E-05</v>
+        <v>2.822118009297419E-05</v>
       </c>
       <c r="R8">
-        <v>7.10387618625001E-05</v>
+        <v>7.1039522303004E-05</v>
       </c>
       <c r="S8">
-        <v>6.422682579349324E-05</v>
+        <v>6.422751331504471E-05</v>
       </c>
       <c r="T8">
-        <v>4.47641513106165E-05</v>
+        <v>4.476463049230389E-05</v>
       </c>
       <c r="U8">
-        <v>3.69790815174658E-05</v>
+        <v>3.697947736320756E-05</v>
       </c>
       <c r="V8">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="W8">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="X8">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="Y8">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="Z8">
-        <v>4.184475013818499E-05</v>
+        <v>4.184519806889277E-05</v>
       </c>
       <c r="AA8">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.0001566745295871577</v>
+        <v>0.0001566762067230636</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1310,79 +1310,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001555067691181851</v>
+        <v>0.001555084337536992</v>
       </c>
       <c r="C9">
-        <v>6.033429089691789E-05</v>
+        <v>6.033493675049654E-05</v>
       </c>
       <c r="D9">
-        <v>4.379101758647266E-05</v>
+        <v>4.379148635116685E-05</v>
       </c>
       <c r="E9">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="F9">
-        <v>0.0009916232649025698</v>
+        <v>0.0009916338798186448</v>
       </c>
       <c r="G9">
-        <v>0.005778468053966103</v>
+        <v>0.00577852991007175</v>
       </c>
       <c r="H9">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="I9">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
       <c r="J9">
-        <v>1.362387213801372E-05</v>
+        <v>1.362401797591858E-05</v>
       </c>
       <c r="K9">
-        <v>0.001643622860078941</v>
+        <v>0.001643640454380462</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>8.563576772465765E-05</v>
+        <v>8.563668442005961E-05</v>
       </c>
       <c r="N9">
-        <v>3.405968034503429E-05</v>
+        <v>3.406004493979644E-05</v>
       </c>
       <c r="O9">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="P9">
-        <v>0.0009176651018676383</v>
+        <v>0.0009176749250922298</v>
       </c>
       <c r="Q9">
-        <v>8.660890144880149E-05</v>
+        <v>8.660982856119666E-05</v>
       </c>
       <c r="R9">
-        <v>5.060295365547952E-05</v>
+        <v>5.060349533912614E-05</v>
       </c>
       <c r="S9">
-        <v>1.167760468972604E-05</v>
+        <v>1.167772969364449E-05</v>
       </c>
       <c r="T9">
-        <v>6.033429089691789E-05</v>
+        <v>6.033493675049654E-05</v>
       </c>
       <c r="U9">
-        <v>7.10387618625001E-05</v>
+        <v>7.1039522303004E-05</v>
       </c>
       <c r="V9">
-        <v>0.0002530147682773976</v>
+        <v>0.0002530174766956307</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="Y9">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="Z9">
-        <v>2.140894193116441E-05</v>
+        <v>2.14091711050149E-05</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>2.530147682773976E-05</v>
+        <v>2.530174766956307E-05</v>
       </c>
       <c r="AF9">
-        <v>2.238207565530825E-05</v>
+        <v>2.238231524615194E-05</v>
       </c>
       <c r="AG9">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AH9">
-        <v>1.557013958630139E-05</v>
+        <v>1.557030625819266E-05</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1414,103 +1414,103 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005766790449276378</v>
+        <v>0.005766852180378105</v>
       </c>
       <c r="C10">
-        <v>0.0001683521342768838</v>
+        <v>0.0001683539364167081</v>
       </c>
       <c r="D10">
-        <v>0.001296214120559591</v>
+        <v>0.001296227995994539</v>
       </c>
       <c r="E10">
-        <v>0.0004943519318650691</v>
+        <v>0.0004943572236976169</v>
       </c>
       <c r="F10">
-        <v>0.0008437069388327066</v>
+        <v>0.0008437159703658146</v>
       </c>
       <c r="G10">
-        <v>0.0003114027917260278</v>
+        <v>0.0003114061251638532</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.909249441421242E-05</v>
+        <v>6.909323402072992E-05</v>
       </c>
       <c r="J10">
-        <v>7.006562813835626E-05</v>
+        <v>7.006637816186696E-05</v>
       </c>
       <c r="K10">
-        <v>0.0004602922515200349</v>
+        <v>0.0004602971787578204</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0002092237506909249</v>
+        <v>0.0002092259903444638</v>
       </c>
       <c r="N10">
-        <v>0.0002861013148982881</v>
+        <v>0.0002861043774942901</v>
       </c>
       <c r="O10">
-        <v>0.0003678445477263704</v>
+        <v>0.0003678484853498015</v>
       </c>
       <c r="P10">
-        <v>0.002364714949669524</v>
+        <v>0.00236474026296301</v>
       </c>
       <c r="Q10">
-        <v>0.0005838802344863022</v>
+        <v>0.0005838864846822246</v>
       </c>
       <c r="R10">
-        <v>0.0001829491401390413</v>
+        <v>0.0001829510985337637</v>
       </c>
       <c r="S10">
-        <v>0.0002822087800017127</v>
+        <v>0.0002822118009297419</v>
       </c>
       <c r="T10">
-        <v>0.000179056605242466</v>
+        <v>0.0001790585219692156</v>
       </c>
       <c r="U10">
-        <v>9.634023869023986E-05</v>
+        <v>9.634126997256707E-05</v>
       </c>
       <c r="V10">
-        <v>0.0003629788791056512</v>
+        <v>0.0003629827646441163</v>
       </c>
       <c r="W10">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="X10">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="Y10">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="Z10">
-        <v>5.157608737962336E-05</v>
+        <v>5.157663948026318E-05</v>
       </c>
       <c r="AA10">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>3.892534896575348E-05</v>
+        <v>3.892576564548164E-05</v>
       </c>
       <c r="AD10">
-        <v>0.0003736833500712334</v>
+        <v>0.0003736873501966237</v>
       </c>
       <c r="AE10">
-        <v>0.001576476633113016</v>
+        <v>0.001576493508642007</v>
       </c>
       <c r="AF10">
-        <v>3.69790815174658E-05</v>
+        <v>3.697947736320756E-05</v>
       </c>
       <c r="AG10">
-        <v>0.0001975461460011989</v>
+        <v>0.0001975482606508193</v>
       </c>
       <c r="AH10">
-        <v>0.0006335100544176378</v>
+        <v>0.0006335168358802138</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1518,85 +1518,85 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0002899938497948634</v>
+        <v>0.0002899969540588382</v>
       </c>
       <c r="C11">
-        <v>0.001603724377389043</v>
+        <v>0.001603741544593844</v>
       </c>
       <c r="D11">
-        <v>0.005019423749133911</v>
+        <v>0.005019477479984858</v>
       </c>
       <c r="E11">
-        <v>0.0008874979564191793</v>
+        <v>0.0008875074567169815</v>
       </c>
       <c r="F11">
-        <v>0.002979735463328429</v>
+        <v>0.00297976736016162</v>
       </c>
       <c r="G11">
-        <v>0.002476625327946065</v>
+        <v>0.002476651839193769</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0004398564433130143</v>
+        <v>0.0004398611517939426</v>
       </c>
       <c r="J11">
-        <v>0.002855174346638018</v>
+        <v>0.002855204910096078</v>
       </c>
       <c r="K11">
-        <v>0.001733151162700174</v>
+        <v>0.00173316971536507</v>
       </c>
       <c r="L11">
-        <v>0.001238799230835104</v>
+        <v>0.001238812491667453</v>
       </c>
       <c r="M11">
-        <v>0.002750075904430483</v>
+        <v>0.002750105342853278</v>
       </c>
       <c r="N11">
-        <v>0.006702945091902749</v>
+        <v>0.006703016844151939</v>
       </c>
       <c r="O11">
-        <v>0.003530529151193841</v>
+        <v>0.003530566944045185</v>
       </c>
       <c r="P11">
-        <v>0.005995476874450179</v>
+        <v>0.00599554105354531</v>
       </c>
       <c r="Q11">
-        <v>0.001664058668285961</v>
+        <v>0.00166407648134434</v>
       </c>
       <c r="R11">
-        <v>0.002877556422293326</v>
+        <v>0.002877587225342231</v>
       </c>
       <c r="S11">
-        <v>0.0009283695728332205</v>
+        <v>0.0009283795106447372</v>
       </c>
       <c r="T11">
-        <v>0.004517286747475691</v>
+        <v>0.004517335103158144</v>
       </c>
       <c r="U11">
-        <v>0.006065542502588536</v>
+        <v>0.006065607431707177</v>
       </c>
       <c r="V11">
-        <v>0.0005887459031070214</v>
+        <v>0.0005887522053879098</v>
       </c>
       <c r="W11">
-        <v>0.000173217802897603</v>
+        <v>0.0001732196571223933</v>
       </c>
       <c r="X11">
-        <v>0.001730231761527742</v>
+        <v>0.001730250282941659</v>
       </c>
       <c r="Y11">
-        <v>0.0009244770379366451</v>
+        <v>0.000924486934080189</v>
       </c>
       <c r="Z11">
-        <v>0.002611890915602059</v>
+        <v>0.002611918874811818</v>
       </c>
       <c r="AA11">
-        <v>0.000763909973452912</v>
+        <v>0.0007639181507925773</v>
       </c>
       <c r="AB11">
-        <v>0.000184895407587329</v>
+        <v>0.0001848973868160378</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.0002530147682773976</v>
+        <v>0.0002530174766956307</v>
       </c>
       <c r="AG11">
-        <v>0.0003143221928984593</v>
+        <v>0.0003143255575872643</v>
       </c>
       <c r="AH11">
-        <v>0.001711742220769009</v>
+        <v>0.001711760544260055</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1622,85 +1622,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001401312562767125</v>
+        <v>0.0001401327563237339</v>
       </c>
       <c r="C12">
-        <v>0.0002335520937945209</v>
+        <v>0.0002335545938728899</v>
       </c>
       <c r="D12">
-        <v>0.0005936115717277405</v>
+        <v>0.0005936179260935951</v>
       </c>
       <c r="E12">
-        <v>0.000215062553035788</v>
+        <v>0.0002150648551912861</v>
       </c>
       <c r="F12">
-        <v>0.0006588115312453776</v>
+        <v>0.0006588185835497768</v>
       </c>
       <c r="G12">
-        <v>0.0001041253084833905</v>
+        <v>0.0001041264231016634</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0001566745295871577</v>
+        <v>0.0001566762067230636</v>
       </c>
       <c r="J12">
-        <v>0.000131373052759418</v>
+        <v>0.0001313744590535006</v>
       </c>
       <c r="K12">
-        <v>0.0007064950837284256</v>
+        <v>0.0007065026464654918</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0005206265424169528</v>
+        <v>0.0005206321155083169</v>
       </c>
       <c r="N12">
-        <v>0.0001226148492421235</v>
+        <v>0.0001226161617832672</v>
       </c>
       <c r="O12">
-        <v>0.0004106624315886992</v>
+        <v>0.0004106668275598313</v>
       </c>
       <c r="P12">
-        <v>0.001066554561661645</v>
+        <v>0.001066565978686197</v>
       </c>
       <c r="Q12">
-        <v>0.0003367042685537676</v>
+        <v>0.0003367078728334162</v>
       </c>
       <c r="R12">
-        <v>0.0006957906127628435</v>
+        <v>0.0006957980609129844</v>
       </c>
       <c r="S12">
-        <v>0.0002695580415878429</v>
+        <v>0.0002695609270949604</v>
       </c>
       <c r="T12">
-        <v>0.001365306614973803</v>
+        <v>0.001365321230015269</v>
       </c>
       <c r="U12">
-        <v>0.0007600174385563366</v>
+        <v>0.0007600255742280291</v>
       </c>
       <c r="V12">
-        <v>0.0001440237911732879</v>
+        <v>0.0001440253328882821</v>
       </c>
       <c r="W12">
-        <v>7.298502931078777E-05</v>
+        <v>7.298581058527808E-05</v>
       </c>
       <c r="X12">
-        <v>4.573728503476033E-05</v>
+        <v>4.573777463344093E-05</v>
       </c>
       <c r="Y12">
-        <v>8.758203517294533E-05</v>
+        <v>8.758297270233369E-05</v>
       </c>
       <c r="Z12">
-        <v>0.0005274384784859596</v>
+        <v>0.0005274441244962763</v>
       </c>
       <c r="AA12">
-        <v>0.0003094565242777401</v>
+        <v>0.0003094598368815791</v>
       </c>
       <c r="AB12">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>7.006562813835626E-05</v>
+        <v>7.006637816186696E-05</v>
       </c>
       <c r="AG12">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="AH12">
-        <v>7.882383165565079E-05</v>
+        <v>7.882467543210032E-05</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1726,85 +1726,85 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.00749702221080412</v>
+        <v>0.007497102463319765</v>
       </c>
       <c r="C13">
-        <v>0.0005157608737962336</v>
+        <v>0.0005157663948026317</v>
       </c>
       <c r="D13">
-        <v>0.0006967637464869872</v>
+        <v>0.0006967712050541214</v>
       </c>
       <c r="E13">
-        <v>9.342083751780834E-05</v>
+        <v>9.342183754915594E-05</v>
       </c>
       <c r="F13">
-        <v>0.0002277132914496579</v>
+        <v>0.0002277157290260676</v>
       </c>
       <c r="G13">
-        <v>0.0006539458626246584</v>
+        <v>0.0006539528628440916</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0001187223143455481</v>
+        <v>0.000118723585218719</v>
       </c>
       <c r="J13">
-        <v>7.979696537979462E-05</v>
+        <v>7.979781957323737E-05</v>
       </c>
       <c r="K13">
-        <v>0.002620649119119353</v>
+        <v>0.002620677172082052</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0003493550069676375</v>
+        <v>0.0003493587466681977</v>
       </c>
       <c r="N13">
-        <v>0.0006393488567625009</v>
+        <v>0.0006393557007270359</v>
       </c>
       <c r="O13">
-        <v>0.0001557013958630139</v>
+        <v>0.0001557030625819266</v>
       </c>
       <c r="P13">
-        <v>0.00335049941222723</v>
+        <v>0.003350535277934832</v>
       </c>
       <c r="Q13">
-        <v>0.009553253769920047</v>
+        <v>0.009553356033542333</v>
       </c>
       <c r="R13">
-        <v>0.0003590863442090758</v>
+        <v>0.0003590901880795681</v>
       </c>
       <c r="S13">
-        <v>0.00186160481428716</v>
+        <v>0.00186162474199516</v>
       </c>
       <c r="T13">
-        <v>0.0008699815493845903</v>
+        <v>0.0008699908621765147</v>
       </c>
       <c r="U13">
-        <v>0.0008991755611089053</v>
+        <v>0.0008991851864106259</v>
       </c>
       <c r="V13">
-        <v>0.001355575277732365</v>
+        <v>0.001355589788603898</v>
       </c>
       <c r="W13">
-        <v>1.362387213801372E-05</v>
+        <v>1.362401797591858E-05</v>
       </c>
       <c r="X13">
-        <v>5.060295365547952E-05</v>
+        <v>5.060349533912614E-05</v>
       </c>
       <c r="Y13">
-        <v>2.530147682773976E-05</v>
+        <v>2.530174766956307E-05</v>
       </c>
       <c r="Z13">
-        <v>0.0002393908961393839</v>
+        <v>0.0002393934587197121</v>
       </c>
       <c r="AA13">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="AB13">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>2.530147682773976E-05</v>
+        <v>2.530174766956307E-05</v>
       </c>
       <c r="AF13">
-        <v>0.0001109372445523974</v>
+        <v>0.0001109384320896227</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0.0001109372445523974</v>
+        <v>0.0001109384320896227</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1830,103 +1830,103 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.006918980778662681</v>
+        <v>0.006919054843484362</v>
       </c>
       <c r="C14">
-        <v>0.0003357311348296237</v>
+        <v>0.0003357347286922792</v>
       </c>
       <c r="D14">
-        <v>0.0008018621886945217</v>
+        <v>0.0008018707722969218</v>
       </c>
       <c r="E14">
-        <v>0.0004768355248304801</v>
+        <v>0.0004768406291571501</v>
       </c>
       <c r="F14">
-        <v>0.0003133490591743155</v>
+        <v>0.0003133524134461272</v>
       </c>
       <c r="G14">
-        <v>0.004881238760305487</v>
+        <v>0.004881291011943398</v>
       </c>
       <c r="H14">
-        <v>1.557013958630139E-05</v>
+        <v>1.557030625819266E-05</v>
       </c>
       <c r="I14">
-        <v>0.0003950922920023978</v>
+        <v>0.0003950965213016387</v>
       </c>
       <c r="J14">
-        <v>0.000173217802897603</v>
+        <v>0.0001732196571223933</v>
       </c>
       <c r="K14">
-        <v>0.008431230585982203</v>
+        <v>0.008431320838811323</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.001038333683661474</v>
+        <v>0.001038344798593223</v>
       </c>
       <c r="N14">
-        <v>0.0002929132509672949</v>
+        <v>0.0002929163864822494</v>
       </c>
       <c r="O14">
-        <v>0.0001936536111046235</v>
+        <v>0.0001936556840862712</v>
       </c>
       <c r="P14">
-        <v>0.0009711874566955493</v>
+        <v>0.000971197852854767</v>
       </c>
       <c r="Q14">
-        <v>0.006807070400386139</v>
+        <v>0.006807143267253602</v>
       </c>
       <c r="R14">
-        <v>0.0006364294555900693</v>
+        <v>0.0006364362683036249</v>
       </c>
       <c r="S14">
-        <v>0.000184895407587329</v>
+        <v>0.0001848973868160378</v>
       </c>
       <c r="T14">
-        <v>0.002408505967255996</v>
+        <v>0.002408531749314176</v>
       </c>
       <c r="U14">
-        <v>0.0003707639488988019</v>
+        <v>0.0003707679177732127</v>
       </c>
       <c r="V14">
-        <v>0.001727312360355311</v>
+        <v>0.001727330850518248</v>
       </c>
       <c r="W14">
-        <v>3.989848268989731E-05</v>
+        <v>3.989890978661868E-05</v>
       </c>
       <c r="X14">
-        <v>3.503281406917813E-05</v>
+        <v>3.503318908093348E-05</v>
       </c>
       <c r="Y14">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="Z14">
-        <v>0.000716226420969864</v>
+        <v>0.0007162340878768622</v>
       </c>
       <c r="AA14">
-        <v>2.238207565530825E-05</v>
+        <v>2.238231524615194E-05</v>
       </c>
       <c r="AB14">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.0007785069793150696</v>
+        <v>0.0007785153129096329</v>
       </c>
       <c r="AE14">
-        <v>0.004369370421405828</v>
+        <v>0.004369417193705314</v>
       </c>
       <c r="AF14">
-        <v>9.244770379366451E-05</v>
+        <v>9.24486934080189E-05</v>
       </c>
       <c r="AG14">
-        <v>0.001109372445523974</v>
+        <v>0.001109384320896227</v>
       </c>
       <c r="AH14">
-        <v>0.00186160481428716</v>
+        <v>0.00186162474199516</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -1934,103 +1934,103 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.00280749079415497</v>
+        <v>0.002807520847180364</v>
       </c>
       <c r="C15">
-        <v>0.0003386505360020553</v>
+        <v>0.0003386541611156903</v>
       </c>
       <c r="D15">
-        <v>0.0008972292936606177</v>
+        <v>0.0008972388981283519</v>
       </c>
       <c r="E15">
-        <v>0.0002948595184155826</v>
+        <v>0.0002948626747645235</v>
       </c>
       <c r="F15">
-        <v>0.0005050564028306514</v>
+        <v>0.0005050618092501243</v>
       </c>
       <c r="G15">
-        <v>0.005159555005410624</v>
+        <v>0.005159610236308592</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0001644595993803085</v>
+        <v>0.0001644613598521599</v>
       </c>
       <c r="J15">
-        <v>0.0002101968844150688</v>
+        <v>0.0002101991344856009</v>
       </c>
       <c r="K15">
-        <v>0.003341741208709936</v>
+        <v>0.003341776980664599</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0004651579201407541</v>
+        <v>0.0004651628994635057</v>
       </c>
       <c r="N15">
-        <v>0.0002812356462775689</v>
+        <v>0.0002812386567886048</v>
       </c>
       <c r="O15">
-        <v>0.0002724774427602743</v>
+        <v>0.0002724803595183715</v>
       </c>
       <c r="P15">
-        <v>0.002975842928431853</v>
+        <v>0.002975874783597072</v>
       </c>
       <c r="Q15">
-        <v>0.005055429696927233</v>
+        <v>0.005055483813206928</v>
       </c>
       <c r="R15">
-        <v>0.0009770262590404124</v>
+        <v>0.0009770367177015893</v>
       </c>
       <c r="S15">
-        <v>0.0003143221928984593</v>
+        <v>0.0003143255575872643</v>
       </c>
       <c r="T15">
-        <v>0.001167760468972604</v>
+        <v>0.001167772969364449</v>
       </c>
       <c r="U15">
-        <v>0.0005128414726238021</v>
+        <v>0.0005128469623792207</v>
       </c>
       <c r="V15">
-        <v>0.003013795143673463</v>
+        <v>0.003013827405101416</v>
       </c>
       <c r="W15">
-        <v>2.724774427602743E-05</v>
+        <v>2.724803595183715E-05</v>
       </c>
       <c r="X15">
-        <v>9.536710496609602E-05</v>
+        <v>9.536812583143003E-05</v>
       </c>
       <c r="Y15">
-        <v>1.167760468972604E-05</v>
+        <v>1.167772969364449E-05</v>
       </c>
       <c r="Z15">
-        <v>0.0005215996761410966</v>
+        <v>0.000521605259649454</v>
       </c>
       <c r="AA15">
-        <v>4.379101758647266E-05</v>
+        <v>4.379148635116685E-05</v>
       </c>
       <c r="AB15">
-        <v>1.654327331044523E-05</v>
+        <v>1.65434503993297E-05</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.001011085939385446</v>
+        <v>0.001011096762641386</v>
       </c>
       <c r="AE15">
-        <v>8.466263400051381E-05</v>
+        <v>8.466354027892258E-05</v>
       </c>
       <c r="AF15">
-        <v>9.536710496609602E-05</v>
+        <v>9.536812583143003E-05</v>
       </c>
       <c r="AG15">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AH15">
-        <v>0.0006004235077967474</v>
+        <v>0.0006004299350815544</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2038,103 +2038,103 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01197343734186577</v>
+        <v>0.01197356551255015</v>
       </c>
       <c r="C16">
-        <v>0.0002792893788292812</v>
+        <v>0.0002792923685063308</v>
       </c>
       <c r="D16">
-        <v>0.0004456952456578773</v>
+        <v>0.0004457000166407648</v>
       </c>
       <c r="E16">
-        <v>0.0001303999190352742</v>
+        <v>0.0001304013149123635</v>
       </c>
       <c r="F16">
-        <v>0.0004992176004857883</v>
+        <v>0.0004992229444033021</v>
       </c>
       <c r="G16">
-        <v>0.01342827225946081</v>
+        <v>0.01342841600355003</v>
       </c>
       <c r="H16">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="I16">
-        <v>3.211341289674662E-05</v>
+        <v>3.211375665752235E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001352655876559933</v>
+        <v>0.0001352670356180487</v>
       </c>
       <c r="K16">
-        <v>0.008614179726121244</v>
+        <v>0.008614271937345088</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0005507936878654117</v>
+        <v>0.0005507995838835652</v>
       </c>
       <c r="N16">
-        <v>4.281788386232883E-05</v>
+        <v>4.281834221002981E-05</v>
       </c>
       <c r="O16">
-        <v>0.0001284536515869865</v>
+        <v>0.0001284550266300894</v>
       </c>
       <c r="P16">
-        <v>0.003423484441538018</v>
+        <v>0.003423521088520111</v>
       </c>
       <c r="Q16">
-        <v>0.01272858911180139</v>
+        <v>0.0127287253660725</v>
       </c>
       <c r="R16">
-        <v>0.0004184475013818499</v>
+        <v>0.0004184519806889277</v>
       </c>
       <c r="S16">
-        <v>0.0001955998785529112</v>
+        <v>0.0001956019723685452</v>
       </c>
       <c r="T16">
-        <v>0.0007288771593837339</v>
+        <v>0.0007288849617116438</v>
       </c>
       <c r="U16">
-        <v>0.0006442145253832201</v>
+        <v>0.0006442214214327212</v>
       </c>
       <c r="V16">
-        <v>0.002876583288569182</v>
+        <v>0.002876614081201094</v>
       </c>
       <c r="W16">
-        <v>0.0001449969248974317</v>
+        <v>0.0001449984770294191</v>
       </c>
       <c r="X16">
-        <v>4.281788386232883E-05</v>
+        <v>4.281834221002981E-05</v>
       </c>
       <c r="Y16">
-        <v>0.0001946267448287674</v>
+        <v>0.0001946288282274082</v>
       </c>
       <c r="Z16">
-        <v>0.0004807280597270555</v>
+        <v>0.0004807332057216983</v>
       </c>
       <c r="AA16">
-        <v>3.600594779332197E-05</v>
+        <v>3.600633322207052E-05</v>
       </c>
       <c r="AB16">
-        <v>0.0001235879829662673</v>
+        <v>0.0001235893059244042</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.002983627998225004</v>
+        <v>0.002983659936726168</v>
       </c>
       <c r="AE16">
-        <v>0.001327354399732194</v>
+        <v>0.001327368608510924</v>
       </c>
       <c r="AF16">
-        <v>3.892534896575348E-05</v>
+        <v>3.892576564548164E-05</v>
       </c>
       <c r="AG16">
-        <v>0.0001887879424839044</v>
+        <v>0.000188789963380586</v>
       </c>
       <c r="AH16">
-        <v>0.004181555612646068</v>
+        <v>0.004181600374465865</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2142,85 +2142,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.000268584907863699</v>
+        <v>0.0002685877829538233</v>
       </c>
       <c r="C17">
-        <v>0.005345423546722097</v>
+        <v>0.005345480767265766</v>
       </c>
       <c r="D17">
-        <v>0.01175934792255412</v>
+        <v>0.0117594738015</v>
       </c>
       <c r="E17">
-        <v>0.006251411043900009</v>
+        <v>0.006251477962664352</v>
       </c>
       <c r="F17">
-        <v>0.006289363259141618</v>
+        <v>0.006289430584168696</v>
       </c>
       <c r="G17">
-        <v>0.003191878615191785</v>
+        <v>0.003191912782929495</v>
       </c>
       <c r="H17">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="I17">
-        <v>0.003473114261469354</v>
+        <v>0.003473151439718099</v>
       </c>
       <c r="J17">
-        <v>0.001826572000217982</v>
+        <v>0.001826591552914226</v>
       </c>
       <c r="K17">
-        <v>0.002526255147877401</v>
+        <v>0.002526282190391759</v>
       </c>
       <c r="L17">
-        <v>0.003278487516640587</v>
+        <v>0.003278522611490691</v>
       </c>
       <c r="M17">
-        <v>0.003473114261469354</v>
+        <v>0.003473151439718099</v>
       </c>
       <c r="N17">
-        <v>0.006524861620384427</v>
+        <v>0.00652493146632386</v>
       </c>
       <c r="O17">
-        <v>0.00737538049528614</v>
+        <v>0.007375459445677635</v>
       </c>
       <c r="P17">
-        <v>0.009259367385228609</v>
+        <v>0.009259466502918945</v>
       </c>
       <c r="Q17">
-        <v>0.002356929879876373</v>
+        <v>0.002356955109833914</v>
       </c>
       <c r="R17">
-        <v>0.003957734856092985</v>
+        <v>0.003957777222004346</v>
       </c>
       <c r="S17">
-        <v>0.006268927450934597</v>
+        <v>0.006268994557204819</v>
       </c>
       <c r="T17">
-        <v>0.009419934449712342</v>
+        <v>0.009420035286206557</v>
       </c>
       <c r="U17">
-        <v>0.009207791297848985</v>
+        <v>0.009207889863438682</v>
       </c>
       <c r="V17">
-        <v>0.00106266202676507</v>
+        <v>0.001062673402121649</v>
       </c>
       <c r="W17">
-        <v>0.000459319117795891</v>
+        <v>0.0004593240346166834</v>
       </c>
       <c r="X17">
-        <v>0.0006159936473830488</v>
+        <v>0.000616000241339747</v>
       </c>
       <c r="Y17">
-        <v>0.0001897610762080482</v>
+        <v>0.000189763107521723</v>
       </c>
       <c r="Z17">
-        <v>0.004181555612646068</v>
+        <v>0.004181600374465865</v>
       </c>
       <c r="AA17">
-        <v>0.001107426178075686</v>
+        <v>0.001107438032613953</v>
       </c>
       <c r="AB17">
-        <v>0.000232578960070377</v>
+        <v>0.0002325814497317528</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.0004797549260029116</v>
+        <v>0.0004797600615805613</v>
       </c>
       <c r="AG17">
-        <v>0.0007035756825559942</v>
+        <v>0.0007035832140420807</v>
       </c>
       <c r="AH17">
-        <v>0.001470405057181338</v>
+        <v>0.001470420797258069</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2246,22 +2246,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001566745295871577</v>
+        <v>0.001566762067230636</v>
       </c>
       <c r="C18">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="D18">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="G18">
-        <v>0.002517496944360106</v>
+        <v>0.002516550748980388</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2270,79 +2270,79 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="K18">
-        <v>0.0009517247822126725</v>
+        <v>0.0009517349700320261</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.590443048321929E-05</v>
+        <v>7.590524300868921E-05</v>
       </c>
       <c r="N18">
-        <v>0.0005196534086928089</v>
+        <v>0.0005196589713671799</v>
       </c>
       <c r="O18">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="P18">
-        <v>0.0001362387213801372</v>
+        <v>0.0001362401797591858</v>
       </c>
       <c r="Q18">
-        <v>0.01059937252337467</v>
+        <v>0.01059948598526465</v>
       </c>
       <c r="R18">
-        <v>0.0006432413916590762</v>
+        <v>0.0006432482772915841</v>
       </c>
       <c r="S18">
-        <v>0.008269690387774326</v>
+        <v>0.008269778911382576</v>
       </c>
       <c r="T18">
-        <v>3.405968034503429E-05</v>
+        <v>3.406004493979644E-05</v>
       </c>
       <c r="U18">
-        <v>0.0001810028726907537</v>
+        <v>0.0001810048102514896</v>
       </c>
       <c r="V18">
-        <v>0.0006500533277280831</v>
+        <v>0.0006500602862795434</v>
       </c>
       <c r="W18">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="X18">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="Y18">
-        <v>1.459700586215755E-05</v>
+        <v>1.459716211705562E-05</v>
       </c>
       <c r="Z18">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="AA18">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="AB18">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.0002277132914496579</v>
+        <v>0.0002277157290260676</v>
       </c>
       <c r="AE18">
-        <v>6.909249441421242E-05</v>
+        <v>6.909323402072992E-05</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="AH18">
-        <v>0.0005838802344863022</v>
+        <v>0.0005838864846822246</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2350,103 +2350,103 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.007942717456461997</v>
+        <v>0.007942802479960528</v>
       </c>
       <c r="C19">
-        <v>0.0001761372040700345</v>
+        <v>0.0001761390895458044</v>
       </c>
       <c r="D19">
-        <v>0.0005245190773135281</v>
+        <v>0.0005235515479317281</v>
       </c>
       <c r="E19">
-        <v>0.0001858685413114729</v>
+        <v>0.0001858705309571749</v>
       </c>
       <c r="F19">
-        <v>0.0008845785552467478</v>
+        <v>0.0008845880242935704</v>
       </c>
       <c r="G19">
-        <v>0.006090843979416276</v>
+        <v>0.00609090917937674</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0002919401172431511</v>
+        <v>0.0002919432423411123</v>
       </c>
       <c r="J19">
-        <v>6.130742462106173E-05</v>
+        <v>6.130808089163359E-05</v>
       </c>
       <c r="K19">
-        <v>0.005352235482791103</v>
+        <v>0.005352292776253726</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.000262746105518836</v>
+        <v>0.0002627489181070011</v>
       </c>
       <c r="N19">
-        <v>7.298502931078777E-05</v>
+        <v>7.298581058527808E-05</v>
       </c>
       <c r="O19">
-        <v>0.0002656655066912675</v>
+        <v>0.0002656683505304122</v>
       </c>
       <c r="P19">
-        <v>0.0007551517699356175</v>
+        <v>0.0007551598535223439</v>
       </c>
       <c r="Q19">
-        <v>0.008187947154946244</v>
+        <v>0.008188034803527063</v>
       </c>
       <c r="R19">
-        <v>0.0002179819542082195</v>
+        <v>0.0002179842876146972</v>
       </c>
       <c r="S19">
-        <v>8.9528302621233E-05</v>
+        <v>8.952926098460778E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001693252680010276</v>
+        <v>0.0001693270805578452</v>
       </c>
       <c r="U19">
-        <v>0.0005177071412445212</v>
+        <v>0.0005177126830849058</v>
       </c>
       <c r="V19">
-        <v>0.002757860974223634</v>
+        <v>0.002757890495982374</v>
       </c>
       <c r="W19">
-        <v>8.077009910393846E-05</v>
+        <v>8.07709637143744E-05</v>
       </c>
       <c r="X19">
-        <v>7.785069793150696E-05</v>
+        <v>7.785153129096329E-05</v>
       </c>
       <c r="Y19">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="Z19">
-        <v>9.050143634537684E-05</v>
+        <v>9.050240512574482E-05</v>
       </c>
       <c r="AA19">
-        <v>0.000352274408140069</v>
+        <v>0.0003522781790916089</v>
       </c>
       <c r="AB19">
-        <v>1.362387213801372E-05</v>
+        <v>1.362401797591858E-05</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.001094775439661817</v>
+        <v>0.001094787158779171</v>
       </c>
       <c r="AE19">
-        <v>0.00107531276517894</v>
+        <v>0.00107532427595643</v>
       </c>
       <c r="AF19">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="AG19">
-        <v>0.0002218744891047948</v>
+        <v>0.0002218768641792454</v>
       </c>
       <c r="AH19">
-        <v>0.0011920888120762</v>
+        <v>0.001192101572892875</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2454,103 +2454,103 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.002297568722703599</v>
+        <v>0.002297593317224554</v>
       </c>
       <c r="C20">
-        <v>0.0001868416750356167</v>
+        <v>0.0001868436750983119</v>
       </c>
       <c r="D20">
-        <v>0.001806136192010961</v>
+        <v>0.001806155525950348</v>
       </c>
       <c r="E20">
-        <v>0.0001586207970354454</v>
+        <v>0.0001586224950053377</v>
       </c>
       <c r="F20">
-        <v>0.0003902266233816786</v>
+        <v>0.0003902308005959534</v>
       </c>
       <c r="G20">
-        <v>0.004588325509338191</v>
+        <v>0.004588374625461148</v>
       </c>
       <c r="H20">
-        <v>0.0007833726479357887</v>
+        <v>0.0007833810336153181</v>
       </c>
       <c r="I20">
-        <v>0.000268584907863699</v>
+        <v>0.0002685877829538233</v>
       </c>
       <c r="J20">
-        <v>8.9528302621233E-05</v>
+        <v>8.952926098460778E-05</v>
       </c>
       <c r="K20">
-        <v>0.001729258627803598</v>
+        <v>0.001729277138800522</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.004201018287128944</v>
+        <v>0.004201063257288607</v>
       </c>
       <c r="N20">
-        <v>0.00355583062802158</v>
+        <v>0.003555868691714748</v>
       </c>
       <c r="O20">
-        <v>0.001562852760975002</v>
+        <v>0.001562869490666088</v>
       </c>
       <c r="P20">
-        <v>0.001674763139251543</v>
+        <v>0.001674781066896848</v>
       </c>
       <c r="Q20">
-        <v>0.003154899533674319</v>
+        <v>0.003154933305566287</v>
       </c>
       <c r="R20">
-        <v>0.002366661217117812</v>
+        <v>0.002366686551245284</v>
       </c>
       <c r="S20">
-        <v>0.0002471759659325346</v>
+        <v>0.0002471786118488085</v>
       </c>
       <c r="T20">
-        <v>0.00117165300386918</v>
+        <v>0.001171665545928997</v>
       </c>
       <c r="U20">
-        <v>0.01197149107441748</v>
+        <v>0.01197064608012674</v>
       </c>
       <c r="V20">
-        <v>0.0008505188749017134</v>
+        <v>0.0008505279793537739</v>
       </c>
       <c r="W20">
-        <v>1.459700586215755E-05</v>
+        <v>1.459716211705562E-05</v>
       </c>
       <c r="X20">
-        <v>0.0002462028322083907</v>
+        <v>0.0002462054677076714</v>
       </c>
       <c r="Y20">
-        <v>5.741488972448638E-05</v>
+        <v>5.741550432708542E-05</v>
       </c>
       <c r="Z20">
-        <v>0.0006189130485554803</v>
+        <v>0.0006189196737631581</v>
       </c>
       <c r="AA20">
-        <v>0.0001547282621388701</v>
+        <v>0.0001547299184407895</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="AD20">
-        <v>0.0002393908961393839</v>
+        <v>0.0002393934587197121</v>
       </c>
       <c r="AE20">
-        <v>0.003904212501265074</v>
+        <v>0.003904254294241809</v>
       </c>
       <c r="AF20">
-        <v>6.32536920693494E-05</v>
+        <v>6.325436917390767E-05</v>
       </c>
       <c r="AG20">
-        <v>0.0002753968439327059</v>
+        <v>0.0002753997919417826</v>
       </c>
       <c r="AH20">
-        <v>0.004535776288234424</v>
+        <v>0.004535824841839749</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2558,103 +2558,103 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.007115553790939736</v>
+        <v>0.007115629959994044</v>
       </c>
       <c r="C21">
-        <v>0.000567336961175857</v>
+        <v>0.000567343034282895</v>
       </c>
       <c r="D21">
-        <v>0.003291138255054457</v>
+        <v>0.003291173485325473</v>
       </c>
       <c r="E21">
-        <v>0.0001265073841386988</v>
+        <v>0.0001265087383478153</v>
       </c>
       <c r="F21">
-        <v>0.0003921728908299663</v>
+        <v>0.0003921770888782275</v>
       </c>
       <c r="G21">
-        <v>0.006767171917696243</v>
+        <v>0.006767244357466983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.563576772465765E-05</v>
+        <v>8.563668442005961E-05</v>
       </c>
       <c r="J21">
-        <v>0.0001625133319320208</v>
+        <v>0.0001625150715698859</v>
       </c>
       <c r="K21">
-        <v>0.004938653650029973</v>
+        <v>0.004938706516270483</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0007687756420736312</v>
+        <v>0.0007687838714982624</v>
       </c>
       <c r="N21">
-        <v>0.0003902266233816786</v>
+        <v>0.0003902308005959534</v>
       </c>
       <c r="O21">
-        <v>0.0002510685008291099</v>
+        <v>0.0002510711884133566</v>
       </c>
       <c r="P21">
-        <v>0.001710769087044865</v>
+        <v>0.001710787400118918</v>
       </c>
       <c r="Q21">
-        <v>0.01773633525624557</v>
+        <v>0.01773652511636371</v>
       </c>
       <c r="R21">
-        <v>0.0005984772403484597</v>
+        <v>0.0005984836467992803</v>
       </c>
       <c r="S21">
-        <v>0.003006010073880312</v>
+        <v>0.00300604225197232</v>
       </c>
       <c r="T21">
-        <v>0.001892745093459763</v>
+        <v>0.001892765354511545</v>
       </c>
       <c r="U21">
-        <v>0.0004612653852441787</v>
+        <v>0.0004612703228989575</v>
       </c>
       <c r="V21">
-        <v>0.001829491401390413</v>
+        <v>0.001829510985337637</v>
       </c>
       <c r="W21">
-        <v>1.265073841386988E-05</v>
+        <v>1.265087383478153E-05</v>
       </c>
       <c r="X21">
-        <v>4.962981993133569E-05</v>
+        <v>4.96303511979891E-05</v>
       </c>
       <c r="Y21">
-        <v>6.811936069006858E-05</v>
+        <v>6.812008987959288E-05</v>
       </c>
       <c r="Z21">
-        <v>0.0006558921300729461</v>
+        <v>0.0006558991511263657</v>
       </c>
       <c r="AA21">
-        <v>2.919401172431511E-05</v>
+        <v>2.919432423411123E-05</v>
       </c>
       <c r="AB21">
-        <v>2.530147682773976E-05</v>
+        <v>2.530174766956307E-05</v>
       </c>
       <c r="AC21">
-        <v>1.654327331044523E-05</v>
+        <v>1.65434503993297E-05</v>
       </c>
       <c r="AD21">
-        <v>0.001377957353387673</v>
+        <v>0.00137797210385005</v>
       </c>
       <c r="AE21">
-        <v>0.007792854862943847</v>
+        <v>0.007791965138084288</v>
       </c>
       <c r="AF21">
-        <v>0.0001712715354493153</v>
+        <v>0.0001712733688401192</v>
       </c>
       <c r="AG21">
-        <v>4.865668620719185E-05</v>
+        <v>4.865720705685206E-05</v>
       </c>
       <c r="AH21">
-        <v>0.0006889786766938365</v>
+        <v>0.0006889860519250251</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2662,85 +2662,85 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0002092237506909249</v>
+        <v>0.0002092259903444638</v>
       </c>
       <c r="C22">
-        <v>0.0007502861013148983</v>
+        <v>0.0007502941328166587</v>
       </c>
       <c r="D22">
-        <v>0.001549228888836988</v>
+        <v>0.001549245472690169</v>
       </c>
       <c r="E22">
-        <v>0.001832410802562845</v>
+        <v>0.001832430417761048</v>
       </c>
       <c r="F22">
-        <v>0.002266428443530996</v>
+        <v>0.002266452704708169</v>
       </c>
       <c r="G22">
-        <v>0.000346435605795206</v>
+        <v>0.0003464393142447866</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002040661419529626</v>
+        <v>0.002040683263964375</v>
       </c>
       <c r="J22">
-        <v>0.0004709967224856171</v>
+        <v>0.0004710017643103279</v>
       </c>
       <c r="K22">
-        <v>0.0005984772403484597</v>
+        <v>0.0005984836467992803</v>
       </c>
       <c r="L22">
-        <v>0.0001819760064148975</v>
+        <v>0.0001819779543926267</v>
       </c>
       <c r="M22">
-        <v>0.001096721707110104</v>
+        <v>0.001096733447061445</v>
       </c>
       <c r="N22">
-        <v>0.001353629010284077</v>
+        <v>0.001353643500321624</v>
       </c>
       <c r="O22">
-        <v>0.001921939105184078</v>
+        <v>0.001921959678745656</v>
       </c>
       <c r="P22">
-        <v>0.001137593323524145</v>
+        <v>0.001137605500989201</v>
       </c>
       <c r="Q22">
-        <v>0.000399957960623117</v>
+        <v>0.0003999622420073239</v>
       </c>
       <c r="R22">
-        <v>0.001264100707662844</v>
+        <v>0.001264114239337016</v>
       </c>
       <c r="S22">
-        <v>0.0006889786766938365</v>
+        <v>0.0006889860519250251</v>
       </c>
       <c r="T22">
-        <v>0.001680601941596406</v>
+        <v>0.00168061993174367</v>
       </c>
       <c r="U22">
-        <v>0.00222944936201353</v>
+        <v>0.002229473227344961</v>
       </c>
       <c r="V22">
-        <v>0.0001625133319320208</v>
+        <v>0.0001625150715698859</v>
       </c>
       <c r="W22">
-        <v>3.016714544845895E-05</v>
+        <v>3.016746837524827E-05</v>
       </c>
       <c r="X22">
-        <v>0.0004447221119337335</v>
+        <v>0.0004447268724996278</v>
       </c>
       <c r="Y22">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="Z22">
-        <v>0.001479163260698632</v>
+        <v>0.001479179094528302</v>
       </c>
       <c r="AA22">
-        <v>0.0006724354033833913</v>
+        <v>0.0006724426015256953</v>
       </c>
       <c r="AB22">
-        <v>0.0002968057858638703</v>
+        <v>0.0002968089630467975</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.0001060715759316782</v>
+        <v>0.0001060727113839375</v>
       </c>
       <c r="AG22">
-        <v>0.0008767934854535971</v>
+        <v>0.000876802871164474</v>
       </c>
       <c r="AH22">
-        <v>0.0001498625935181509</v>
+        <v>0.0001498641977351043</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2766,22 +2766,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0002549610357256853</v>
+        <v>0.0002549637649779048</v>
       </c>
       <c r="C23">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="D23">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="G23">
-        <v>0.0003756296175195211</v>
+        <v>0.0003756336384788978</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2790,46 +2790,46 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="K23">
-        <v>0.0005449548855205487</v>
+        <v>0.0005449607190367431</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="N23">
-        <v>1.362387213801372E-05</v>
+        <v>1.362401797591858E-05</v>
       </c>
       <c r="O23">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="P23">
-        <v>1.654327331044523E-05</v>
+        <v>1.65434503993297E-05</v>
       </c>
       <c r="Q23">
-        <v>0.000101205907310959</v>
+        <v>0.0001012069906782523</v>
       </c>
       <c r="R23">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="S23">
-        <v>0.0001050984422075344</v>
+        <v>0.0001050995672428004</v>
       </c>
       <c r="T23">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="U23">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="V23">
-        <v>6.422682579349324E-05</v>
+        <v>6.422751331504471E-05</v>
       </c>
       <c r="W23">
-        <v>1.654327331044523E-05</v>
+        <v>1.65434503993297E-05</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="AE23">
-        <v>0.0002890207160707196</v>
+        <v>0.0002890238099177012</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -2870,85 +2870,85 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0005439817517964049</v>
+        <v>0.000543987574895606</v>
       </c>
       <c r="C24">
-        <v>0.000101205907310959</v>
+        <v>0.0001012069906782523</v>
       </c>
       <c r="D24">
-        <v>0.0004739161236580486</v>
+        <v>0.000473921196733739</v>
       </c>
       <c r="E24">
-        <v>9.050143634537684E-05</v>
+        <v>9.050240512574482E-05</v>
       </c>
       <c r="F24">
-        <v>0.0001985192797253427</v>
+        <v>0.0001985214047919564</v>
       </c>
       <c r="G24">
-        <v>0.0001479163260698632</v>
+        <v>0.0001479179094528303</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.184475013818499E-05</v>
+        <v>4.184519806889277E-05</v>
       </c>
       <c r="J24">
-        <v>7.493129675907545E-05</v>
+        <v>7.493209886755216E-05</v>
       </c>
       <c r="K24">
-        <v>0.0003892534896575348</v>
+        <v>0.0003892576564548165</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0001829491401390413</v>
+        <v>0.0001829510985337637</v>
       </c>
       <c r="N24">
-        <v>0.0001955998785529112</v>
+        <v>0.0001956019723685452</v>
       </c>
       <c r="O24">
-        <v>0.0001761372040700345</v>
+        <v>0.0001761390895458044</v>
       </c>
       <c r="P24">
-        <v>0.0003960654257265417</v>
+        <v>0.0003960696654427757</v>
       </c>
       <c r="Q24">
-        <v>0.002829872869810278</v>
+        <v>0.002829903162426515</v>
       </c>
       <c r="R24">
-        <v>0.0003629788791056512</v>
+        <v>0.0003629827646441163</v>
       </c>
       <c r="S24">
-        <v>0.0001459700586215755</v>
+        <v>0.0001459716211705562</v>
       </c>
       <c r="T24">
-        <v>0.0003795221524160964</v>
+        <v>0.000379526215043446</v>
       </c>
       <c r="U24">
-        <v>0.0001352655876559933</v>
+        <v>0.0001352670356180487</v>
       </c>
       <c r="V24">
-        <v>0.0001839222738631852</v>
+        <v>0.0001839242426749008</v>
       </c>
       <c r="W24">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="X24">
-        <v>2.335520937945209E-05</v>
+        <v>2.335545938728898E-05</v>
       </c>
       <c r="Y24">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
       <c r="Z24">
-        <v>7.298502931078777E-05</v>
+        <v>7.298581058527808E-05</v>
       </c>
       <c r="AA24">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="AB24">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2960,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>3.600594779332197E-05</v>
+        <v>3.600633322207052E-05</v>
       </c>
       <c r="AG24">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AH24">
-        <v>4.379101758647266E-05</v>
+        <v>4.379148635116685E-05</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -2974,82 +2974,82 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0007142801535215763</v>
+        <v>0.0007142877995945881</v>
       </c>
       <c r="C25">
-        <v>1.070447096558221E-05</v>
+        <v>1.070458555250745E-05</v>
       </c>
       <c r="D25">
-        <v>7.979696537979462E-05</v>
+        <v>7.979781957323737E-05</v>
       </c>
       <c r="E25">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="F25">
-        <v>1.654327331044523E-05</v>
+        <v>1.65434503993297E-05</v>
       </c>
       <c r="G25">
-        <v>0.0007989427875220902</v>
+        <v>0.0007989513398735107</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="J25">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="K25">
-        <v>0.0001878148087597605</v>
+        <v>0.0001878168192394489</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0001148297794489728</v>
+        <v>0.0001148310086541708</v>
       </c>
       <c r="N25">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="O25">
-        <v>1.265073841386988E-05</v>
+        <v>1.265087383478153E-05</v>
       </c>
       <c r="P25">
-        <v>4.962981993133569E-05</v>
+        <v>4.96303511979891E-05</v>
       </c>
       <c r="Q25">
-        <v>0.0002783162451051374</v>
+        <v>0.0002783192243651938</v>
       </c>
       <c r="R25">
-        <v>5.936115717277405E-05</v>
+        <v>5.93617926093595E-05</v>
       </c>
       <c r="S25">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="T25">
-        <v>4.573728503476033E-05</v>
+        <v>4.573777463344093E-05</v>
       </c>
       <c r="U25">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="V25">
-        <v>0.0001810028726907537</v>
+        <v>0.0001810048102514896</v>
       </c>
       <c r="W25">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="X25">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="AA25">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3058,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.000232578960070377</v>
+        <v>0.0002325814497317528</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3078,82 +3078,82 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.00335049941222723</v>
+        <v>0.003349562133793695</v>
       </c>
       <c r="C26">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="D26">
-        <v>6.811936069006858E-05</v>
+        <v>6.812008987959288E-05</v>
       </c>
       <c r="E26">
-        <v>1.265073841386988E-05</v>
+        <v>1.265087383478153E-05</v>
       </c>
       <c r="F26">
-        <v>3.308654662089046E-05</v>
+        <v>3.308690079865939E-05</v>
       </c>
       <c r="G26">
-        <v>0.004764462713408225</v>
+        <v>0.004764513715006953</v>
       </c>
       <c r="H26">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="I26">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="J26">
-        <v>1.070447096558221E-05</v>
+        <v>1.070458555250745E-05</v>
       </c>
       <c r="K26">
-        <v>0.002001736070563873</v>
+        <v>0.002001757498318893</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0003152953266226031</v>
+        <v>0.0003152987017284013</v>
       </c>
       <c r="N26">
-        <v>4.184475013818499E-05</v>
+        <v>4.184519806889277E-05</v>
       </c>
       <c r="O26">
-        <v>2.238207565530825E-05</v>
+        <v>2.238231524615194E-05</v>
       </c>
       <c r="P26">
-        <v>0.001065581427937502</v>
+        <v>0.00106559283454506</v>
       </c>
       <c r="Q26">
-        <v>0.0001148297794489728</v>
+        <v>0.0001148310086541708</v>
       </c>
       <c r="R26">
-        <v>7.10387618625001E-05</v>
+        <v>7.1039522303004E-05</v>
       </c>
       <c r="S26">
-        <v>0.0003717370826229457</v>
+        <v>0.0003717410619143497</v>
       </c>
       <c r="T26">
-        <v>5.644175600034255E-05</v>
+        <v>5.644236018594838E-05</v>
       </c>
       <c r="U26">
-        <v>0.005548808495068158</v>
+        <v>0.005548867892763408</v>
       </c>
       <c r="V26">
-        <v>0.000794077118901371</v>
+        <v>0.0007940856191678256</v>
       </c>
       <c r="W26">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="X26">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="Y26">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="Z26">
-        <v>1.557013958630139E-05</v>
+        <v>1.557030625819266E-05</v>
       </c>
       <c r="AA26">
-        <v>0.0001683521342768838</v>
+        <v>0.0001683539364167081</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.0002345252275186647</v>
+        <v>0.0002345277380140269</v>
       </c>
       <c r="AF26">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3182,73 +3182,73 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.001031521747592467</v>
+        <v>0.001031532789605263</v>
       </c>
       <c r="C27">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="D27">
-        <v>8.563576772465765E-05</v>
+        <v>8.563668442005961E-05</v>
       </c>
       <c r="E27">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="F27">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="G27">
-        <v>0.002508738740842812</v>
+        <v>0.002508765595851292</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="J27">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="K27">
-        <v>0.001655300464768667</v>
+        <v>0.001655318184074107</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.0006130742462106172</v>
+        <v>0.0006130808089163358</v>
       </c>
       <c r="N27">
-        <v>0.0006013966415208912</v>
+        <v>0.0006014030792226914</v>
       </c>
       <c r="O27">
-        <v>2.140894193116441E-05</v>
+        <v>2.14091711050149E-05</v>
       </c>
       <c r="P27">
-        <v>0.0004213669025542814</v>
+        <v>0.0004213714131123388</v>
       </c>
       <c r="Q27">
-        <v>0.0002724774427602743</v>
+        <v>0.0002724803595183715</v>
       </c>
       <c r="R27">
-        <v>2.62746105518836E-05</v>
+        <v>2.627489181070011E-05</v>
       </c>
       <c r="S27">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="T27">
-        <v>1.362387213801372E-05</v>
+        <v>1.362401797591858E-05</v>
       </c>
       <c r="U27">
-        <v>3.308654662089046E-05</v>
+        <v>3.308690079865939E-05</v>
       </c>
       <c r="V27">
-        <v>0.0003143221928984593</v>
+        <v>0.0003143255575872643</v>
       </c>
       <c r="W27">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="X27">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.0005284116122101035</v>
+        <v>0.0005284172686374133</v>
       </c>
       <c r="AF27">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AG27">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AH27">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3286,22 +3286,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0003474087395193498</v>
+        <v>0.0003474124583859237</v>
       </c>
       <c r="C28">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="D28">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="E28">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="F28">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="G28">
-        <v>0.001733151162700174</v>
+        <v>0.00173316971536507</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3313,40 +3313,40 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.0005741488972448638</v>
+        <v>0.0005741550432708543</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="N28">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="O28">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="P28">
-        <v>6.422682579349324E-05</v>
+        <v>6.422751331504471E-05</v>
       </c>
       <c r="Q28">
-        <v>7.785069793150696E-06</v>
+        <v>7.785153129096328E-06</v>
       </c>
       <c r="R28">
-        <v>9.73133724143837E-06</v>
+        <v>9.731441411370411E-06</v>
       </c>
       <c r="S28">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="T28">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
       <c r="U28">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="V28">
-        <v>0.0001294267853111303</v>
+        <v>0.0001294281707712265</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2.919401172431511E-06</v>
+        <v>2.919432423411123E-06</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3373,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>2.043580820702058E-05</v>
+        <v>2.043602696387786E-05</v>
       </c>
       <c r="AF28">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5.741488972448638E-05</v>
+        <v>5.741550432708542E-05</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="AH29">
-        <v>0.0002393908961393839</v>
+        <v>0.0002393934587197121</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3494,85 +3494,85 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0001138566457248289</v>
+        <v>0.0001138578645130338</v>
       </c>
       <c r="C30">
-        <v>0.0003513012744159251</v>
+        <v>0.0003513050349504718</v>
       </c>
       <c r="D30">
-        <v>0.001487921464215927</v>
+        <v>0.001487937391798536</v>
       </c>
       <c r="E30">
-        <v>0.0001936536111046235</v>
+        <v>0.0001936556840862712</v>
       </c>
       <c r="F30">
-        <v>0.000507002670278939</v>
+        <v>0.0005070080975323984</v>
       </c>
       <c r="G30">
-        <v>0.0008184054620049669</v>
+        <v>0.0008184142226962516</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>7.590443048321929E-05</v>
+        <v>7.590524300868921E-05</v>
       </c>
       <c r="J30">
-        <v>0.0002345252275186647</v>
+        <v>0.0002345277380140269</v>
       </c>
       <c r="K30">
-        <v>0.0003931460245541101</v>
+        <v>0.0003931502330193646</v>
       </c>
       <c r="L30">
-        <v>0.00153949755159555</v>
+        <v>0.001539514031278799</v>
       </c>
       <c r="M30">
-        <v>0.0005371698157273979</v>
+        <v>0.0005371755659076467</v>
       </c>
       <c r="N30">
-        <v>0.002312165728565756</v>
+        <v>0.00231219047934161</v>
       </c>
       <c r="O30">
-        <v>0.001409097632560276</v>
+        <v>0.001409112716366435</v>
       </c>
       <c r="P30">
-        <v>0.0009663217880748301</v>
+        <v>0.0009663321321490818</v>
       </c>
       <c r="Q30">
-        <v>0.0002890207160707196</v>
+        <v>0.0002890238099177012</v>
       </c>
       <c r="R30">
-        <v>0.0005147877400720897</v>
+        <v>0.0005147932506614948</v>
       </c>
       <c r="S30">
-        <v>0.0003328117336571923</v>
+        <v>0.000332815296268868</v>
       </c>
       <c r="T30">
-        <v>0.001337085736973632</v>
+        <v>0.001337100049922295</v>
       </c>
       <c r="U30">
-        <v>0.001388661824353255</v>
+        <v>0.001388676689402558</v>
       </c>
       <c r="V30">
-        <v>0.0001498625935181509</v>
+        <v>0.0001498641977351043</v>
       </c>
       <c r="W30">
-        <v>4.865668620719185E-06</v>
+        <v>4.865720705685205E-06</v>
       </c>
       <c r="X30">
-        <v>0.0009672949217989739</v>
+        <v>0.0009673052762902188</v>
       </c>
       <c r="Y30">
-        <v>4.573728503476033E-05</v>
+        <v>4.573777463344093E-05</v>
       </c>
       <c r="Z30">
-        <v>0.0005507936878654117</v>
+        <v>0.0005507995838835652</v>
       </c>
       <c r="AA30">
-        <v>0.0005361966820032542</v>
+        <v>0.0005362024217665097</v>
       </c>
       <c r="AB30">
-        <v>0.000131373052759418</v>
+        <v>0.0001313744590535006</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>8.660890144880149E-05</v>
+        <v>8.660982856119666E-05</v>
       </c>
       <c r="AG30">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="AH30">
-        <v>6.909249441421242E-05</v>
+        <v>6.909323402072992E-05</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3598,85 +3598,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0002637192392429798</v>
+        <v>0.0002637220622481382</v>
       </c>
       <c r="C31">
-        <v>0.0005196534086928089</v>
+        <v>0.0005196589713671799</v>
       </c>
       <c r="D31">
-        <v>0.001591073638975173</v>
+        <v>0.001591090670759062</v>
       </c>
       <c r="E31">
-        <v>0.0003444893383469183</v>
+        <v>0.0003444930259625125</v>
       </c>
       <c r="F31">
-        <v>0.0006773010720041105</v>
+        <v>0.0006773083222313806</v>
       </c>
       <c r="G31">
-        <v>0.001219336556352228</v>
+        <v>0.001219349608844712</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8.855516889708917E-05</v>
+        <v>8.855611684347074E-05</v>
       </c>
       <c r="J31">
-        <v>0.0004933787981409254</v>
+        <v>0.0004933840795564798</v>
       </c>
       <c r="K31">
-        <v>0.001415909568629283</v>
+        <v>0.001415924725354395</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.002269347844703428</v>
+        <v>0.00226937213713158</v>
       </c>
       <c r="N31">
-        <v>0.0002763699776568497</v>
+        <v>0.0002763729360829197</v>
       </c>
       <c r="O31">
-        <v>0.00089528302621233</v>
+        <v>0.0008952926098460778</v>
       </c>
       <c r="P31">
-        <v>0.003169496539536477</v>
+        <v>0.003169530467683343</v>
       </c>
       <c r="Q31">
-        <v>0.0009283695728332205</v>
+        <v>0.0009283795106447372</v>
       </c>
       <c r="R31">
-        <v>0.001245611166904111</v>
+        <v>0.001244651356514276</v>
       </c>
       <c r="S31">
-        <v>0.0002870744486224319</v>
+        <v>0.0002870775216354271</v>
       </c>
       <c r="T31">
-        <v>0.002255723972565414</v>
+        <v>0.002255748119155661</v>
       </c>
       <c r="U31">
-        <v>0.0009663217880748301</v>
+        <v>0.0009663321321490818</v>
       </c>
       <c r="V31">
-        <v>0.0003911997571058224</v>
+        <v>0.0003912039447370905</v>
       </c>
       <c r="W31">
-        <v>3.600594779332197E-05</v>
+        <v>3.600633322207052E-05</v>
       </c>
       <c r="X31">
-        <v>0.0001897610762080482</v>
+        <v>0.000189763107521723</v>
       </c>
       <c r="Y31">
-        <v>8.368950027636998E-05</v>
+        <v>8.369039613778553E-05</v>
       </c>
       <c r="Z31">
-        <v>0.0008193785957291107</v>
+        <v>0.0008193873668373886</v>
       </c>
       <c r="AA31">
-        <v>0.0005235459435893843</v>
+        <v>0.0005235515479317281</v>
       </c>
       <c r="AB31">
-        <v>6.422682579349324E-05</v>
+        <v>6.422751331504471E-05</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.0002705311753119867</v>
+        <v>0.0002705340712360974</v>
       </c>
       <c r="AG31">
-        <v>0.0004028773617955485</v>
+        <v>0.000402881674430735</v>
       </c>
       <c r="AH31">
-        <v>0.0008466263400051381</v>
+        <v>0.0008466354027892258</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="E32">
-        <v>1.265073841386988E-05</v>
+        <v>1.265087383478153E-05</v>
       </c>
       <c r="F32">
-        <v>5.838802344863021E-06</v>
+        <v>5.838864846822246E-06</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3726,58 +3726,58 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.946267448287674E-06</v>
+        <v>1.946288282274082E-06</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="M32">
-        <v>5.936115717277405E-05</v>
+        <v>5.93617926093595E-05</v>
       </c>
       <c r="N32">
-        <v>1.265073841386988E-05</v>
+        <v>1.265087383478153E-05</v>
       </c>
       <c r="O32">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="P32">
-        <v>6.811936069006859E-06</v>
+        <v>6.812008987959288E-06</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.459700586215755E-05</v>
+        <v>1.459716211705562E-05</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3.892534896575348E-06</v>
+        <v>3.892576564548164E-06</v>
       </c>
       <c r="U32">
-        <v>0.003386505360020553</v>
+        <v>0.003386541611156903</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1.654327331044523E-05</v>
+        <v>1.65434503993297E-05</v>
       </c>
       <c r="X32">
-        <v>1.751640703458906E-05</v>
+        <v>1.751659454046674E-05</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>9.73133724143837E-07</v>
+        <v>9.73144141137041E-07</v>
       </c>
       <c r="AA32">
-        <v>9.73133724143837E-06</v>
+        <v>9.731441411370411E-06</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>8.758203517294532E-06</v>
+        <v>8.75829727023337E-06</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -3806,85 +3806,85 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.422682579349324E-05</v>
+        <v>6.422751331504471E-05</v>
       </c>
       <c r="C33">
-        <v>0.0006159936473830488</v>
+        <v>0.000616000241339747</v>
       </c>
       <c r="D33">
-        <v>0.0003493550069676375</v>
+        <v>0.0003493587466681977</v>
       </c>
       <c r="E33">
-        <v>9.536710496609602E-05</v>
+        <v>9.536812583143003E-05</v>
       </c>
       <c r="F33">
-        <v>0.0005167340075203775</v>
+        <v>0.0005167395389437688</v>
       </c>
       <c r="G33">
-        <v>6.422682579349324E-05</v>
+        <v>6.422751331504471E-05</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.0001138566457248289</v>
+        <v>0.0001138578645130338</v>
       </c>
       <c r="J33">
-        <v>0.0001021790410351029</v>
+        <v>0.0001021801348193893</v>
       </c>
       <c r="K33">
-        <v>0.0003367042685537676</v>
+        <v>0.0003367078728334162</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.0002462028322083907</v>
+        <v>0.0002462054677076714</v>
       </c>
       <c r="N33">
-        <v>7.298502931078777E-05</v>
+        <v>7.298581058527808E-05</v>
       </c>
       <c r="O33">
-        <v>0.0002316058263462332</v>
+        <v>0.0002316083055906158</v>
       </c>
       <c r="P33">
-        <v>0.000394119158278254</v>
+        <v>0.0003941233771605016</v>
       </c>
       <c r="Q33">
-        <v>0.000190734209932192</v>
+        <v>0.0001907362516628601</v>
       </c>
       <c r="R33">
-        <v>0.0003503281406917813</v>
+        <v>0.0003503318908093348</v>
       </c>
       <c r="S33">
-        <v>0.0001459700586215755</v>
+        <v>0.0001459716211705562</v>
       </c>
       <c r="T33">
-        <v>0.0005605250251068501</v>
+        <v>0.0005605310252949357</v>
       </c>
       <c r="U33">
-        <v>0.0005449548855205487</v>
+        <v>0.0005449607190367431</v>
       </c>
       <c r="V33">
-        <v>0.0001002327735868152</v>
+        <v>0.0001002338465371152</v>
       </c>
       <c r="W33">
-        <v>6.033429089691789E-05</v>
+        <v>6.033493675049654E-05</v>
       </c>
       <c r="X33">
-        <v>1.84895407587329E-05</v>
+        <v>1.848973868160378E-05</v>
       </c>
       <c r="Y33">
-        <v>1.946267448287674E-05</v>
+        <v>1.946288282274082E-05</v>
       </c>
       <c r="Z33">
-        <v>0.0003688176814505142</v>
+        <v>0.0003688216294909386</v>
       </c>
       <c r="AA33">
-        <v>3.989848268989731E-05</v>
+        <v>3.989890978661868E-05</v>
       </c>
       <c r="AB33">
-        <v>0.000215062553035788</v>
+        <v>0.0002150648551912861</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>4.47641513106165E-05</v>
+        <v>4.476463049230389E-05</v>
       </c>
       <c r="AG33">
-        <v>3.503281406917813E-05</v>
+        <v>3.503318908093348E-05</v>
       </c>
       <c r="AH33">
-        <v>8.368950027636998E-05</v>
+        <v>8.369039613778553E-05</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -3910,85 +3910,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0002286864251738017</v>
+        <v>0.0002286888731672046</v>
       </c>
       <c r="C34">
-        <v>0.0005605250251068501</v>
+        <v>0.0005605310252949357</v>
       </c>
       <c r="D34">
-        <v>0.00197059579139127</v>
+        <v>0.001969643741661371</v>
       </c>
       <c r="E34">
-        <v>0.0003746564837953772</v>
+        <v>0.0003746604943377608</v>
       </c>
       <c r="F34">
-        <v>0.001277724579800858</v>
+        <v>0.001277738257312935</v>
       </c>
       <c r="G34">
-        <v>0.0004826743271753431</v>
+        <v>0.0004826794940039723</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.0002958326521397264</v>
+        <v>0.0002958358189056605</v>
       </c>
       <c r="J34">
-        <v>0.002738398299740757</v>
+        <v>0.002738427613159634</v>
       </c>
       <c r="K34">
-        <v>0.00126799324255942</v>
+        <v>0.001268006815901565</v>
       </c>
       <c r="L34">
-        <v>3.016714544845895E-05</v>
+        <v>3.016746837524827E-05</v>
       </c>
       <c r="M34">
-        <v>0.0009935695323508575</v>
+        <v>0.000993580168100919</v>
       </c>
       <c r="N34">
-        <v>0.001131754521179282</v>
+        <v>0.001131766636142379</v>
       </c>
       <c r="O34">
-        <v>0.0007736413106943504</v>
+        <v>0.0007736495922039476</v>
       </c>
       <c r="P34">
-        <v>0.002330655269324489</v>
+        <v>0.002330680218023214</v>
       </c>
       <c r="Q34">
-        <v>0.0008378681364878436</v>
+        <v>0.0008378771055189924</v>
       </c>
       <c r="R34">
-        <v>0.001231987294766098</v>
+        <v>0.001232000482679494</v>
       </c>
       <c r="S34">
-        <v>0.0002958326521397264</v>
+        <v>0.0002958358189056605</v>
       </c>
       <c r="T34">
-        <v>0.001870363017804455</v>
+        <v>0.001870383039265393</v>
       </c>
       <c r="U34">
-        <v>0.002590481973670894</v>
+        <v>0.002590509703706803</v>
       </c>
       <c r="V34">
-        <v>0.0003989848268989731</v>
+        <v>0.0003989890978661868</v>
       </c>
       <c r="W34">
-        <v>0.0002500953671049661</v>
+        <v>0.0002500980442722195</v>
       </c>
       <c r="X34">
-        <v>0.0003435162046227744</v>
+        <v>0.0003435198818213755</v>
       </c>
       <c r="Y34">
-        <v>0.0001070447096558221</v>
+        <v>0.0001070458555250745</v>
       </c>
       <c r="Z34">
-        <v>0.0006734085371075352</v>
+        <v>0.0006734157456668324</v>
       </c>
       <c r="AA34">
-        <v>4.768355248304801E-05</v>
+        <v>4.768406291571502E-05</v>
       </c>
       <c r="AB34">
-        <v>0.0001566745295871577</v>
+        <v>0.0001566762067230636</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -4000,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.000179056605242466</v>
+        <v>0.0001790585219692156</v>
       </c>
       <c r="AG34">
-        <v>0.0001518088609664386</v>
+        <v>0.0001518104860173784</v>
       </c>
       <c r="AH34">
-        <v>0.0002773431113809936</v>
+        <v>0.0002773460802240567</v>
       </c>
     </row>
   </sheetData>
